--- a/news_data/2021_03.xlsx
+++ b/news_data/2021_03.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="56">
   <si>
     <t>naver_news_title</t>
   </si>
@@ -22,18 +22,69 @@
     <t>naver_news_articles</t>
   </si>
   <si>
+    <t>제주도소공연, 드림타워 사업자 롯데관광개발 경찰 고발</t>
+  </si>
+  <si>
+    <t>제주도 관광객 몰던 승용차 바다로 추락…1명 경상</t>
+  </si>
+  <si>
+    <t>제주도, 고용유지지원금 받고 휴직 직원 근무시킨 관광업체 적발</t>
+  </si>
+  <si>
+    <t>제주도 봄철 행락지 5인 금지…관광명소 특별방역</t>
+  </si>
+  <si>
+    <t>제주도, 올해 상반기 제주관광진흥기금 특별융자 추천 완료</t>
+  </si>
+  <si>
+    <t>"제주도-롯데관광개발 짬짜미 의혹" 감사 청구</t>
+  </si>
+  <si>
+    <t>제주도, 관광개발사업장 사업추진실태 점검</t>
+  </si>
+  <si>
+    <t>관광전망 밝은 제주도…금융권 특화상품 봇물</t>
+  </si>
+  <si>
+    <t>제주도관광협회, '리멤버 4.3' 스탬프 투어 진행</t>
+  </si>
+  <si>
+    <t>제주도, 코로나 일상대비 '안전제주관광' 이미지 높힌다</t>
+  </si>
+  <si>
+    <t>제주도 블록체인 관광방역 앱, 이용자 34만명 돌파</t>
+  </si>
+  <si>
+    <t>제주도, '관광진흥기금' 지원기간 오는 12일까지 연장</t>
+  </si>
+  <si>
+    <t>제주도 ‘장애물 없는’ 관광 환경 조성에 공 들인다</t>
+  </si>
+  <si>
+    <t>"제주도 제2공항 반드시 추진돼야"…도 관광협회 강력 촉구</t>
+  </si>
+  <si>
+    <t>제주도-제주도관광협회 "관광지 경쟁력 강화로 코로나19 위기극복"</t>
+  </si>
+  <si>
+    <t>내륙의 제주도 '봉화 오록마을' 관광 자원화</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 제2차 이사회 개최</t>
+  </si>
+  <si>
     <t>(주)엘에스컴퍼니, 제주도 내 명소 관광과 액티비티 체험 상품 담은 '제주투어...</t>
   </si>
   <si>
+    <t>제주도, '안전한 관광제주 지켜내기' 온 힘</t>
+  </si>
+  <si>
+    <t>제주도·도관광협회, 관광지 지속가능 프로그램 지원사업 공모</t>
+  </si>
+  <si>
     <t>제주도, 관광약자 위한 여행 문턱 낮춘다</t>
   </si>
   <si>
-    <t>제주도, '안전한 관광제주 지켜내기' 온 힘</t>
-  </si>
-  <si>
-    <t>제주도·도관광협회, 관광지 지속가능 프로그램 지원사업 공모</t>
-  </si>
-  <si>
     <t>제주도 블록체인 기반 관광방역 시스템 '제주안심코드' 이용자 34만명 돌파</t>
   </si>
   <si>
@@ -46,40 +97,91 @@
     <t>제주도, 2021년 관광진흥기금 특별융자지원 접수기간 연장</t>
   </si>
   <si>
+    <t>제주도, 2021년 상반기 제주관광진흥기금 특별융자 신청기간 연장</t>
+  </si>
+  <si>
     <t>제주도관광협회 '부동석 2기' 시동</t>
   </si>
   <si>
-    <t>제주도, 2021년 상반기 제주관광진흥기금 특별융자 신청기간 연장</t>
-  </si>
-  <si>
-    <t>(주)엘에스컴퍼니, 제주도 내 명소 관광과 액티비티 체험 상품 담은 ‘제주투어패스’ 오픈 &lt; 뉴스 &lt; 문화 &lt; 기사본문 - 문화뉴스 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 매체소개 기사제보 구독하기 naverpost facebook instargram twitter navertv MHN 편집 : 2022-10-04 11:03 (화) 문화 영화 연극 공연 미술·전시 음악 춤 뮤지컬·오페라 뉴스 자동차 전국 정치 정책 정부 법률 국회정당 외교 국방 북한 세계 경제 IT 산업 경제일반 경제정책 금융증권 과학 고용노동 세계경제 사회 사건/사고 부동산 인사/동정 미국 중국 일본 유럽 기타 라이프 패션뷰티 음식맛집 건강 리빙 교육 날씨 강연·문화센터 여행 스포츠 방송 드라마 책 국내 해외 피플 인터뷰 포토 오피니언 기고·칼럼 리뷰 커뮤니티 회원정보 로그인 회원가입 전체메뉴 버튼 최신뉴스 정일우-권유리, 'APAN' 진행 맡았어요 [포토] 전미도, 순백의 여신미 뽐내며 [포토화보] 허성태, 카리스마 유지 실패 [포토] 강영석, 올블랙 수트로 멋지게 [포토] 탕준상, 멋지게 차려 입고 [포토] 한상진, 부드러운 미중년 미소 [포토] 소이현, 언제나 상큼 미모 [포토] 다샤 타란 'APAN' 참석했어요 [포토] 진선규, 알고보면 부드러운 남자 [포토] 김신록, 신스틸러 여신 'APAN' 참석 [포토] 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 (주)엘에스컴퍼니, 제주도 내 명소 관광과 액티비티 체험 상품 담은 ‘제주투어패스’ 오픈 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 문화 뉴스 (주)엘에스컴퍼니, 제주도 내 명소 관광과 액티비티 체험 상품 담은 ‘제주투어패스’ 오픈 기자명 박정래 기자 입력 2021.03.16 09:00 댓글 1 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 구글+(으)로 기사보내기 네이버밴드(으)로 기사보내기 네이버블로그(으)로 기사보내기 핀터레스트(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 제주도 내 핫플레이스만 골라 다닐 수 있는 '제주투어패스'가 오픈한다. 16일 온라인 여행상품 전문 기업 (주)엘에스컴퍼니(대표 강대철)는 제주도 유명 카페, 테마파크, 액티비티 상품 등을 48시간 동안 자유롭게 이용할 수 있는 제주투어패스를 선보인다. 제주투어패스 구매 시 제주도민이 엄선한 제주도 내 핫플레이스를 직접 골라 즐기고 체험할 수 있다. 제주투어패스를 개발한 (주)엘에스컴퍼니 강대철 대표는 "신종 코로나바이러스 감염증(코로나19) 팬데믹이 장기화 되며 업체는 물론 여행객들의 주머니 사정도 어려워지고 있다"며 "소비자의 부담을 덜어내는 역할은 물론 관광지 방문율을 크게 향상 시킬 것"이라고 포부를 밝혔다. 현재 제주투어패스에는 제주도 핫플레이스 카페와 유명 테마파크, 다양한 액티비티 체험장들이 입점했다. 강 대표는 "제주도 핫플레이스 업체들이 관광 활성화를 위해 손익을 감수하고 기꺼이 뜻을 모아주었다"며 "제주도 관광이 다시 활기를 띠는 날이 하루빨리 오길 바란다"고 감사한 마음을 전했다. 제주투어패스는 포털사이트를 통해 구매 가능하다. '마음대로 골라가는 제주'라는 콘셉트로 48시간 동안 제주도 내 핫플레이스 투어를 할 수 있으며 중복 입장은 불가하다. 주요기사 연금복권의 현재가치 계산! 연금복권 720 +, 일시불로 따지면 얼마? 제임스 웹 망원경이 보내온 첫 번째 사진...허블 망원경과 차이점은? 2022년 9급 공무원 월급과 연봉...과연 최저시급보다 적을까? [포토] 한소희 '예쁜 미소' 박정래 기자의 다른 기사 보기 박정래 기자 eveleva@naver.com 독자와 공감을 통해 더 나은 내일을 만들겠습니다. 최신기사 인기기사 저작권자 © 문화뉴스 무단전재 및 재배포 금지 포토 정일우-권유리, 'APAN' 진행 맡았어요 [포토] 전미도, 순백의 여신미 뽐내며 [포토화보] 허성태, 카리스마 유지 실패 [포토] 강영석, 올블랙 수트로 멋지게 [포토] 탕준상, 멋지게 차려 입고 [포토] 한상진, 부드러운 미중년 미소 [포토] 소이현, 언제나 상큼 미모 [포토] 다샤 타란 'APAN' 참석했어요 [포토] 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 1 댓글 접기 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 댓글목록 최신순 추천순 욕설, 타인비방 등의 게시물은 예고 없이 삭제 될 수 있습니다. Jejut 2021-03-16 09:39:48 더보기 삭제하기 이거 하나만 있으면 제주여행이 엄청 편하겠어요! 답글쓰기 0 0 최신뉴스 정일우-권유리, 'APAN' 진행 맡았어요 [포토] 전미도, 순백의 여신미 뽐내며 [포토화보] 허성태, 카리스마 유지 실패 [포토] 강영석, 올블랙 수트로 멋지게 [포토] 탕준상, 멋지게 차려 입고 [포토] 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 (04050) 서울특별시 마포구 양화로 156 (LG팰리스빌딩) 1727 대표전화 : 0269593256 팩스 : 023221666 법인명 : (주)엠에이치앤미디어 제호 : 문화뉴스 등록번호 : 서울 아 03015 등록일 : 2014-02-18 발행일 : 2014-02-18 발행·편집인 : 주진노 「열린보도원칙」 당 매체는 독자와 취재원 등 뉴스이용자의 권리 보장을 위해 반론이나 정정 보도, 추후보도를 요청할 수 있는 창구를 열어두고 있음을 알려드립니다.고충처리인 권혁재 02-6959-3256 press@mhns.co.kr Copyright © 2022 문화뉴스. All rights reserved. mail to eveleva@naver.com 위로 전체메뉴 전체기사 문화 전체 영화 연극 공연 미술·전시 음악 춤 뮤지컬·오페라 뉴스 자동차 전국 정치 전체 정책 정부 법률 국회정당 외교 국방 북한 세계 경제 전체 IT 산업 경제일반 경제정책 금융증권 과학 고용노동 세계경제 사회 전체 사건/사고 부동산 인사/동정 미국 중국 일본 유럽 기타 라이프 전체 패션뷰티 음식맛집 건강 리빙 교육 날씨 강연·문화센터 여행 스포츠 방송 드라마 책 국내 해외 피플 전체 인터뷰 오피니언 전체 기고·칼럼 리뷰 포토 보도자료 전체메뉴닫기</t>
-  </si>
-  <si>
-    <t>제주도, 관광약자 위한 여행 문턱 낮춘다 &lt; 경제 &lt; 기사본문 - 제민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 로그인 회원가입 구독신청 한국어 영어 중국어 일본어 베트남어 스페인어 러시아어 경제 최종편집 2022-10-04 (화) 08:29 facebook twitter instagram youtube 기사검색 검색 제민방송 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 뉴스 정치 경제 사회/복지 교육 스포츠/레져 기획 진행 연재 지난 연재 오피니언 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 문화뉴스 공연/전시 출판/문학 방송/영화 Life/건강 WEEK&amp;팡 종교 연예 일과 사람들 동네방네 인사 화촉 부음 WeLove 진행 프로젝트 지난 프로젝트 해녀 특별기획 4∙3 4·3뉴스 4·3은 말한다 4·3기획 WEEK&amp;팡 진행연재 지난연재 コリアニユ-ス 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 본문영역 이전 기사보기 다음 기사보기 제주도, 관광약자 위한 여행 문턱 낮춘다 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 경제 제주도, 관광약자 위한 여행 문턱 낮춘다 기자명 신승은 기자 입력 2021.03.07 17:47 수정 2021.03.07 18:01 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 도내 정류장 대상 대중교통 시설개선 장애물 없는 관광사업 조성사업 추진 제주특별자치도가 버스승차대 시설을 개선하고 무장애 관광환경을 조성하는 등 관광약자의 여행 문턱을 낮춘다. 제주도는 4일 저상버스 확대 등을 위한 승차대 시설개선 실시설계용역을 추진한다고 밝혔다. 이에 따라 실시설계용역비 9560만원을 투입해 도내 대중교통시설 100곳을 대상으로 연석을 일정 높이 이하로 조정하고, 점자블럭을 설치하는 등 승차대 시설을 장애인 맞춤용으로 개선한다. 도는 향후 저상버스 노선 및 향후 저상버스 검토노선에 대해 장애인단체와 협의해 단계적으로 확충하겠다는 계획이다. 현재 도내에서 운행중인 저상버스는 128대로 전체 일반노선 운행 버스의 15%다. 그동안 저상버스 운행대수가 부족하다는 지적은 꾸준히 제기돼 왔지만 승차대 연석 높이 등 설치여건이 마련되지 않아 보급·이용에 어려움이 있었다. 도는 올해까지 저상버스 대수를 148대 보급한다는 방침이다. 노인, 장애인, 임산부 등 관광약자의 관광여건 개선 등을 위한 '2021 장애물 없는 관광환경 조성사업'도 추진한다. 이에 따라 사설관광지 관광약자 편의시설 정비지원 사업을 공고하고 오는 3월 15일부터 26일까지 제주관광협회 홈페이지에서 도내 사설관광지 및 숙박업, 음식점 등 관광사업체를 대상으로 접수를 진행한다. 장애인화장실, 계단 핸드레일, 점자블록 등 시설부분과 휠체어, 유모차 등 장비부분으로 나눠 업체당 600만원(자부담 30%) 이내를 지원한다. 이와 함께 제주관광약자접근성안내센터를 통한 도내 관광지 접근성 모니터링과 컨설팅 사업을 추진하고, 제주관광공사 비짓제주 홈페이지에서 무장애 관광지와 관광코스, 관광지별 접근성 정보 등을 제공한다. 또 청각장애인을 위한 수어해설영상 및 QR코드를 제작해 도내 주요관광지에 배포한다. 신승은 기자 신승은 기자 cococo7272@naver.com 다른기사 보기 저작권자 © 제민일보 무단전재 및 재배포 금지 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 최신뉴스 오늘의 운세 10월4일 (음력9월 9일) 2022년 미디어 콘테스트 부문별 최우수상 [무공침] "안전산행 위해 예방수칙 준수" [사설] 低임금 제주경제 언제까지 놔둘건가 [사설] 고령화 속도가 보내는 신호를 읽어라 포토뉴스 [포토뉴스] 은색 물드는 새별오름 [포토뉴스] 오늘은 犬이 주인공 [사진뉴스] "우리의 소중한 유산 무형문화재 함께 즐겨요" [포토뉴스] 추석 분위가 나는 제주시오일장 인기뉴스 1 20년 이상 아파트 33곳 '재건축' 계획 제시 2 제주 국악인들 전국대회 대상 쾌거 3 폐현수막 의상 '눈길'..."제주 탐라문화제 새바람 기대" 4 환경과 문화가 만나면, 푸르게 더 푸르게 5 저금리 갈아타기 제주 소상공인 '사각' 6 한라산 백록담 60대 응급환자...헬기 이송 7 제주도선수단 제103회 전국체전 '출전'…"메달 68개 이상 목표" 8 [시론담론]인사와 임기, 그리고 권력 하단영역 하단메뉴 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 RSS 매체정보 발행·편집인 : 양치석 청소년보호책임자 : 김태음 제주특별자치도 제주시 평화로 2700 제민일보사 등록번호 : 제주특별자치도 아01133 등록일 : 2021-09-06 대표전화 : (064) 741-3111 팩스 : (064) 741-3117 기사제보 : (064) 741-3220 광고문의 : (064) 741-3121 제민일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제민일보. All rights reserved. mail to edijemin@chol.com 위로 전체메뉴 전체기사 제민방송 전체 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 정치 전체 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 경제 전체 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 사회 전체 사회종합 사건/사고 환경 해양 노동 복지 도민기자 마당 청소년기자 마당 날씨 교육 전체 교육종합 대학가 입시정보 우리학교소식 청소년/어린이 스포츠/레져 전체 스포츠종합 축구 야구 농구/배구 골프 경마 평화마라톤 백록기 제민기 기획 전체 진행 연재 지난 연재 오피니언 전체 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 전체 문화뉴스 공연/전시 출판/문학 방송/영화 연예 Life/건강 WEEK&amp;팡 종교 책 읽어주는 남자 강혜명의 제주아리아 일과 사람들 전체 동네방네 인사 화촉 부음 WeLove 전체 진행 프로젝트 지난 프로젝트 해녀 전체 특별기획 4∙3 전체 4·3뉴스 4·3은 말한다 4·3기획 제주4·3 이제는 기록유산으로 コリアニユ-ス 핫뉴스 전체 무공침 제민포커스 와이드 진단 해설 제민현장 지역뉴스 전체 종합 제주시 서귀포시 읍면동 농사정보 WEEK&amp;팡 전체 진행연재 지난연재 News Archive 전체 신년∙창간특집호 Voice 만화/만평 오늘의 운세 기타 독자게시판 제민일보 안내 전체 알림/사고 올해의 제주인 독자위원회의/윤리교육 주요 사업 코로나19 [6·1 지방선거] 안테나 전체 제주도지사 제주도교육감 도의원(제주시) 도의원(서귀포시) 교육의원 제주시을 국회의원 보궐선거 [2022 6·1지방선거] 우리동네 현안 해결사는 [2022 6·1지방선거] 파워인터뷰 [6·1 지방선거 및 보궐선거] 후보 주요 일정 제민일보 소개 회장인사말 비전 연혁 사업 출판 찾아오시는길 PDF 보기 전체메뉴닫기</t>
-  </si>
-  <si>
-    <t>제주도, '안전한 관광제주 지켜내기' 온 힘 &lt; 제주 &lt; 전국 &lt; 기사본문 - 국제뉴스 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 [급등주]모바일어플라이언스 주가, 정부 자율주행 혁신 로드맵 발표 [급등주]아바텍 주가 15% 상승, 신규사업 MLCC 기대감 [급등주]WI 주가 상승세, 유상증자 최종발행가액 확정 영향 여전하나 [급등주]에이프로젠 H&amp;G 주가 13% 강세 배경은? [급등주]지니틱스 주가 상승세, 에이비프로바이오 피인수 영향 계속? [급등주] 율촌화학 상승, 美 얼티엄셀즈와 공급계약 체결 [급등주]네이처셀 주가, 품목 허가 보류·공매도 보고 의무 강화 속 강세 [급등주]유니셈 주가, 플라즈마 스크러버 통한 매출 성장에 강세 [급등주] 삼성출판사 상승, 카카오모빌리티-더핑크퐁컴퍼니 MOU 체결 [급등주]가온칩스 주가 18% 상승, 상성전자 ARM 인수·합병 기대감 2022-10-04 11:16 (화) [속보] 영동고속도로 덕평휴게소 출구 옆 차량화재 삼척시 인근서 산불발생...헬기 3대 투입 진화 대구시 동구 율암동 섬유공장에서 화재발생 인천 가정동 빌라서 불…"40대 남성 중상" 횡성군 비닐하우스서 화재…4명 부상 강원 양양 산불발생... 36분만에 진화완료 군산해경, 해상에 추락한 낚시객 등 구조 해경, 야간 갯바위 고립 낚시객 구조 원주서 택시·승용차 충돌...2명 부상 [속보] 경기 버스 노사 협상 타결 파업 철회...버스 정상운행 춘천 석사동 사무실 화재…인명피해 없어 수원 장안동 주택서 불…인명피해 없어 시작페이지 즐겨찾기 홈 로그인 회원가입 정치 정치 대통령실 외교 국방 종합 청와대 경제 경제일반 산업/기업 부동산 종합 사회 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 문화 영화/공연 여행 연예 연예 종합 스포츠 국내스포츠 종합 국제 World News 종합 전쟁/난민 테러/시위 전국 서울 경기남부 경기북부 인천 강원 대전 충남 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 포토 종합 핫 포토 해외스포츠 해외경제 국제뉴스TV 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도, '안전한 관광제주 지켜내기' 온 힘 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 전국 제주 제주도, '안전한 관광제주 지켜내기' 온 힘 기자명 문서현 기자 입력 2021.03.07 15:13 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 민·관 합동의 상시 점검체계 구축 추진 도내 관광사업체 방역현장 지속 관리 (제주=국제뉴스) 문서현 기자 = 제주도는 제주형 사회적 거리두기 완화 연장 시행으로 인해 자칫 느슨해지기 쉬운 도내 관광사업체 방역현장에 대한 지속 관리를 위해 민·관 합동의 상시 점검체계를 구축해 추진하고 있다. 7일 제주도에 따르면 이는 지난달 15일 제주형 사회적 거리두기 1.5단계로 완화되면서 3월 중 제주를 찾는 여행객들이 급격하게 증가할 수 있다는 우려가 제기됨에 따라, 코로나 일상의 ‘안전한 관광제주’를 지켜내기 위해 진행하고 있다고 밝혔다. 이를 위해 도는 행정시와 관광협회 및 공사 등 민·관 합동의 요일별 기관담당 점검반을 구축하고, 보다 정밀하고 지속적인 현장점검으로 코로나19 감염 재확산 방지뿐만 아니라, 관광수용 태세 재정비로 도내 관광산업의 조기회복에 노력해 나가고 있다. 제주도는 관광사업체에 대해 손소독제 등 방역물품을 지속적으로 제공해 나가고 있으며, 특히 올해부터는 사업체별 자율방역체계 구축 지원을 위한 방역비 지원사업을 추진하고 있다. 또 방역 상시점검 시 코로나로 인해 어려움을 겪고 있는 관광업체의 현장의 소리를 직접 청취해 애로사항에 대해 유관기관과 협업을 통해 적극 해결해 나갈 예정이다. 한편 도는 관광사업체의 경제적 어려움을 지원하기 위해 올해 지원 사업으로 156억 원을 편성, 지난 1월 25일부터 3월 15일까지 관광진흥기금 특별융자지원을 신청받고 있다, 안전 관광제주 구축을 통한 관광산업 조기 회생을 위해 △도내 관광사업체에 대한 방역비 지원 △온라인 마켓‘탐나오’ 관광상품 판매 확대 △건전 관광질서 수용태세 확립을 위한 키오스크, 모바일 도어락 시스템 등을 운영한다. 이어 패턴별 여행 상품 개발에 따른 상품개발비와 차량 임차료를 지원하고, 도내 여행사업체 등에 보증보험 지원 등 34억 원을 상반기에 집중 투입해 지원할 예정이다. 민영뉴스통신사 국제뉴스/start-to@hanmail.net 키워드 #제주도 #방역 #안심코드 #키오스크 #제주 #관광사업체 #제주형 사회적거리두기 문서현 기자 start-to@hanmail.net 다른기사 보기 저작권자 © 국제뉴스 무단전재 및 재배포 금지 당신만 안 본 뉴스 제니♥뷔 열애설, 화장실 반신욕 사진까지 유출? 이효리 이상순 임신 소식 언제 '불타오르지 않아' 토트넘·아스널 경기일정 "손흥민 무섭다" 중계채널시간 김종민♥신지 결혼설, 축하 꽃다발 선물 누가? '특종세상' 배우 김태형, 10년 전 아들 잃고 충격...나이·근황은? 김종민♥신지 결혼설 해명 후 물오른 미모 '소멸될 듯' 오늘날씨 '가을축제·단풍, 핑크뮬리명소' 가볼만한곳, 서울날씨 제니♥뷔 열애설, 화장실 반신욕 사진까지 유출? 주요기사 진천교육청, 2022년 3분기 BEST-친절직원 박미희-김민경 주무관 선정 윤재갑 의원, "국민 세금 줄줄 샌다!" 르세라핌 홍은채 불참 '더팩트 뮤직 어워즈' 4명 참여 하영제 의원 "금융 사기 이용 전화번호 관리·감독 강화해야" 3년 만에 정상 개최 부산국제영화제 5일 개막 중국·홍콩 증시, 국경절 연휴로 휴장 최신뉴스 진천교육청, 2022년 3분기 BEST-친절직원 박미희-김민경 주무관 선정 윤재갑 의원, "국민 세금 줄줄 샌다!" 르세라핌 홍은채 불참 '더팩트 뮤직 어워즈' 4명 참여 하영제 의원 "금융 사기 이용 전화번호 관리·감독 강화해야" 3년 만에 정상 개최 부산국제영화제 5일 개막 포토뉴스 진천교육청, 2022년 3분기 BEST-친절직원 박미희-김민경 주무관 선정 윤재갑 의원, "국민 세금 줄줄 샌다!" 르세라핌 홍은채 불참 '더팩트 뮤직 어워즈' 4명 참여 하영제 의원 "금융 사기 이용 전화번호 관리·감독 강화해야" 인기뉴스 1 [단독] 세종시, 태권도사범이 여중생 상대 '좋아한다'며 수차례 성관계 2 안철수, 당 대표가 돼야 하는 이유? 3 유럽 증시, 개장 직후 폭락···FTSE 100 1.6%· DAX 1.3% '뚝' 4 사천시 '항공우주청' 조기 설립 광폭행보 5 [속보] 영동고속도로 덕평휴게소 출구 옆 차량화재 6 안양 호계동 아파트 공사장서 불…인명피해 없어 7 러시아 우크라이나 전쟁···美 "유럽 주둔 미군 우발 상황에 대비" 8 우크라이나 러시아 전쟁, 파괴된 탱크 하단영역 하단메뉴 매체소개 기사제보 광고문의 콘텐츠 판매 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 제휴사 매체정보 주소 : 서울특별시 송파구 동남로 103 (청송빌딩) 2층 국제뉴스 본사 정부인가번호 : 문화 나-00021호 등록일 : 2012-04-02 부가통신사업신고번호 : 제 2-01-22-0051 호 발행일 : 2011-11-16 대표전화 : 02-2281-5005 팩스 : 02-6455-5003 청소년보호책임자 : 김택수 법인명 : 국제뉴스 제호 : 국제뉴스 발행·편집인 : 김영규 국제뉴스의 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 국제뉴스. All rights reserved. mail to webmaster@gukjenews.com 위로 전체메뉴 전체기사 정치 전체 정치 대통령실 외교 국방 종합 청와대 경제 전체 경제일반 산업/기업 부동산 종합 사회 전체 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 전체 문화 영화/공연 여행 연예 전체 연예 종합 스포츠 전체 국내스포츠 종합 국제 전체 World News 종합 해외경제 전쟁/난민 테러/시위 전국 전체 서울 경기남부 인천 강원 충남 대전 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 종합 경기북부 포토 전체 종합 핫 포토 라이프·헬스 소셜 / sns 영상 세계 전체 Korea News 해외스포츠 미분류 자동차(x) 전체 종합 전체메뉴닫기</t>
-  </si>
-  <si>
-    <t>제주도·도관광협회, 관광지 지속가능 프로그램 지원사업 공모 &lt; 경제 &lt; 기사본문 - 제민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 로그인 회원가입 구독신청 한국어 영어 중국어 일본어 베트남어 스페인어 러시아어 경제 최종편집 2022-10-04 (화) 08:29 facebook twitter instagram youtube 기사검색 검색 제민방송 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 뉴스 정치 경제 사회/복지 교육 스포츠/레져 기획 진행 연재 지난 연재 오피니언 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 문화뉴스 공연/전시 출판/문학 방송/영화 Life/건강 WEEK&amp;팡 종교 연예 일과 사람들 동네방네 인사 화촉 부음 WeLove 진행 프로젝트 지난 프로젝트 해녀 특별기획 4∙3 4·3뉴스 4·3은 말한다 4·3기획 WEEK&amp;팡 진행연재 지난연재 コリアニユ-ス 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 본문영역 이전 기사보기 다음 기사보기 제주도·도관광협회, 관광지 지속가능 프로그램 지원사업 공모 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 경제 제주도·도관광협회, 관광지 지속가능 프로그램 지원사업 공모 기자명 신승은 기자 입력 2021.03.17 17:08 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 오는 3월 31일까지 제주특별자치도와 제주도관광협회는 이달말까지 관광지 지속가능 프로그램 지원사업을 공모한다. 모집 대상은 도내 사설관광지 중 관광객 대상 체험 프로그램을 운영하는 업체다. 올해는 관광지 체험 프로그램과 마을 체험 프로그램 연계 상품을 개발한 7곳을 선정해 업체당 1000만원(지원금 700만원·자부담 300만원)의 운영·홍보비용을 지원한다. 사업을 희망하는 업체는 도관광협회 홈페이지 내 공지사항에서 신청서와 사업계획서 등을 다운로드한 후 협회 방문 또는 우편, 전자우편으로 신청하면 된다. 신승은 기자 신승은 기자 cococo7272@naver.com 다른기사 보기 저작권자 © 제민일보 무단전재 및 재배포 금지 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 최신뉴스 오늘의 운세 10월4일 (음력9월 9일) 2022년 미디어 콘테스트 부문별 최우수상 [무공침] "안전산행 위해 예방수칙 준수" [사설] 低임금 제주경제 언제까지 놔둘건가 [사설] 고령화 속도가 보내는 신호를 읽어라 포토뉴스 [포토뉴스] 은색 물드는 새별오름 [포토뉴스] 오늘은 犬이 주인공 [사진뉴스] "우리의 소중한 유산 무형문화재 함께 즐겨요" [포토뉴스] 추석 분위가 나는 제주시오일장 인기뉴스 1 20년 이상 아파트 33곳 '재건축' 계획 제시 2 제주 국악인들 전국대회 대상 쾌거 3 폐현수막 의상 '눈길'..."제주 탐라문화제 새바람 기대" 4 환경과 문화가 만나면, 푸르게 더 푸르게 5 저금리 갈아타기 제주 소상공인 '사각' 6 한라산 백록담 60대 응급환자...헬기 이송 7 제주도선수단 제103회 전국체전 '출전'…"메달 68개 이상 목표" 8 [시론담론]인사와 임기, 그리고 권력 하단영역 하단메뉴 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 RSS 매체정보 발행·편집인 : 양치석 청소년보호책임자 : 김태음 제주특별자치도 제주시 평화로 2700 제민일보사 등록번호 : 제주특별자치도 아01133 등록일 : 2021-09-06 대표전화 : (064) 741-3111 팩스 : (064) 741-3117 기사제보 : (064) 741-3220 광고문의 : (064) 741-3121 제민일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제민일보. All rights reserved. mail to edijemin@chol.com 위로 전체메뉴 전체기사 제민방송 전체 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 정치 전체 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 경제 전체 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 사회 전체 사회종합 사건/사고 환경 해양 노동 복지 도민기자 마당 청소년기자 마당 날씨 교육 전체 교육종합 대학가 입시정보 우리학교소식 청소년/어린이 스포츠/레져 전체 스포츠종합 축구 야구 농구/배구 골프 경마 평화마라톤 백록기 제민기 기획 전체 진행 연재 지난 연재 오피니언 전체 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 전체 문화뉴스 공연/전시 출판/문학 방송/영화 연예 Life/건강 WEEK&amp;팡 종교 책 읽어주는 남자 강혜명의 제주아리아 일과 사람들 전체 동네방네 인사 화촉 부음 WeLove 전체 진행 프로젝트 지난 프로젝트 해녀 전체 특별기획 4∙3 전체 4·3뉴스 4·3은 말한다 4·3기획 제주4·3 이제는 기록유산으로 コリアニユ-ス 핫뉴스 전체 무공침 제민포커스 와이드 진단 해설 제민현장 지역뉴스 전체 종합 제주시 서귀포시 읍면동 농사정보 WEEK&amp;팡 전체 진행연재 지난연재 News Archive 전체 신년∙창간특집호 Voice 만화/만평 오늘의 운세 기타 독자게시판 제민일보 안내 전체 알림/사고 올해의 제주인 독자위원회의/윤리교육 주요 사업 코로나19 [6·1 지방선거] 안테나 전체 제주도지사 제주도교육감 도의원(제주시) 도의원(서귀포시) 교육의원 제주시을 국회의원 보궐선거 [2022 6·1지방선거] 우리동네 현안 해결사는 [2022 6·1지방선거] 파워인터뷰 [6·1 지방선거 및 보궐선거] 후보 주요 일정 제민일보 소개 회장인사말 비전 연혁 사업 출판 찾아오시는길 PDF 보기 전체메뉴닫기</t>
-  </si>
-  <si>
-    <t>제주도 블록체인 기반 관광방역 시스템 ‘제주안심코드’ 이용자 34만명 돌파 &lt; 플랫폼/웹툰 &lt; IT &lt; 기사본문 - G밸리 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 기사제보 회원가입 로그인 전체메뉴 버튼 ESG ESG CSR 공익재단 경제 경제일반 금융 은행/증권 보험/화재 산업 산업일반 공기업 전자/통신 자동차/철도/항공 화학/중공업 건설/부동산 식품/제조 유통/물류 패션/뷰티 IT IT일반 게임/빅데이터 플랫폼/웹툰 스타트업 사회 사회일반 제약/바이오/병원 인터뷰 G밸리 문화 문화일반 여행/숙박 출판/교육 생활 인사/동정/부음 오피니언 포토/영상 포토/영상 보도자료 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도 블록체인 기반 관광방역 시스템 ‘제주안심코드’ 이용자 34만명 돌파 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 제주도 블록체인 기반 관광방역 시스템 ‘제주안심코드’ 이용자 34만명 돌파 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 바로가기 본문 글씨 키우기 본문 글씨 줄이기 한미진 기자 gvalley@gvalley.co.kr 다른기사 보기 플랫폼/웹툰 기자명 한미진 기자 입력 2021.03.09 17:21 댓글 0 국내 블록체인 기업 아이콘루프(ICONLOOP, 대표 김종협)는 제주특별자치도에서 서비스하고 있는 블록체인 기반 제주형 관광방역 시스템 ‘제주안심코드’가 가동 2개월여 만에 설치 업장 4만여 곳, 이용자 수 34만명을 돌파했다고 9일 밝혔다. 제주안심코드는 아이콘루프와 제주도가 민관 협력 협약으로 함께 개발한 시스템이다. 외부 방문객이 많고, 인구가 밀집되는 장소의 방문율이 높은 제주도 특성상 발생할 수 있는 방역 공백, 동선 추적의 어려움 등에 대비해 관광지에 최적화한 지속 가능형 관광방역 시스템 구축을 목표로 추진됐다. 아이콘루프와 제주도는 2020년 8월 공공기관 및 제주도청 인근 업장을 중심으로 시범 운영을 진행한 뒤 연말부터 본격적인 운영에 나섰다. 정식 가동 이후 2개월이 갓 지난 현재 4만곳 이상의 도내 업장이 제주안심코드를 이용하고 있으며, 이용자 수는 34만 명을 넘었다. 전체 사용 횟수도 200만회에 달한다. 특히 일반 음식점, 카페 등 고위험시설로 분류되진 않지만, 많은 방문객이 오가는 업장 내 사용률이 높아 도내 생활 방역 체계를 강화하는 데 큰 몫을 하는 것으로 평가되고 있다. 아이콘루프는 제주안심코드가 이른 시간 안에 빠르게 확산할 수 있었던 이유로 편리한 사용법과 도민, 관광객의 관심 및 참여를 꼽았다. 기존 출입 인증 방식은 이용자 휴대전화에서 QR 코드를 생성하는 식이었다. 하지만 제주안심코드는 업장에 있는 QR 코드를 휴대전화로 촬영하면 출입 인증이 끝난다. 제주안심코드 앱의 경우도 따로 회원 가입 없이 이용할 수 있으며, 업장주도 따로 단말기나 앱 설치 없이 프린트한 QR 코드만 놓으면 이용할 수 있어 편리하면서 부담이 적다. 블록체인 기술을 활용해 방문자 정보의 위변조가 불가능하다는 것도 제주안심코드의 강점이다. 제주안심코드 이용 시 개인의 신원 및 방문 기록은 암호화 뒤 분산 저장되며, 출입 인증 정보는 확진자 역학조사 목적으로만 쓰인다. 아이콘루프는 기능 업데이트를 통해 제주안심코드를 꾸준히 고도화하고 있다. 현재 제주안심코드 앱에서는 이용자 본인의 인증 이력을 직접 확인할 수 있으며, GPS 기능이 탑재돼 더 명확하게 동선 위변조를 방지할 수 있다. 아이콘루프는 앞으로도 이용자 편의 향상을 위한 다양한 기능 업데이트로 생활 속 방역 체계를 더 견고히 할 수 있도록 지원할 계획이다. 김종협 아이콘루프 대표는 “아이콘루프의 블록체인 기술을 적용한 제주안심코드가 많은 관광객, 제주도민에게 쉽고 간편하게 이용할 수 있는 서비스로 자리 잡아 가는 듯해 뿌듯하다”며 “여기서 그치지 않고 제주도민, 관광객 모두 안심하는 관광방역, 생활 방역 체계가 구축될 수 있게 시스템 고도화에 최선을 다할 것”이라 말했다. 제주안심코드 사업장 등록은 제주도청 홈페이지의 코로나19 상황실에서 할 수 있다. 제주안심코드 설치 시설을 찾는 이용자는 구글 플레이스토어(안드로이드) 또는 애플 앱스토어(iOS)에서 ‘제주안심코드’를 검색한 후 앱을 설치하면 이용할 수 있다. 한편 아이콘루프의 DID 신원인증 서비스 ‘쯩’ 앱으로도 제주안심코드를 이용할 수 있다. 쯩 앱 내 카메라로 업장에 있는 QR 코드를 촬영하면 이용자의 휴대전화 단말기에 DID 기반 제주안심코드가 저장돼, 업장 방문 시 개인 정보 노출 없이 출입 인증이 가능하다. 쯩은 구글 플레이스토어, 애플 앱스토어에서 검색해 설치하면 된다. 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 저작권자 © G밸리 무단전재 및 재배포 금지 개의 댓글 회원로그인 작성자 비밀번호 댓글 내용입력 0 / 400 등록 댓글 정렬 최신순 추천순 답글순 BEST댓글 BEST 댓글 답글과 추천수를 합산하여 자동으로 노출됩니다. 닫기 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 인기기사 1 뇌영양제 브랜드 종합선호도 1위 ‘광동패스신공’… GNM포스파티딜세린, 징코플러스150 順 2 [김가람 기자의 스타트업 브런치] 투자 유치는 어떻게 진행될까? 3 [지속가능경영보고서 분석 현대차①] 수소전기차 분야 선도 탄소중립 박차… 글로벌 녹색 경제 이끌어 4 [지속가능경영보고서 분석 카카오③] ‘같이’ 성장해 사회적 ‘가치’ 창출 추진 5 GNM포스파티딜세린, 뇌영양제 브랜드 순호감도 ‘톱’… 뇌영양제 아동‧청소년도 관심↑ 6 [지속가능경영보고서 분석 삼성SDI①] 배터리 탄소발자국 측정 등 ‘선제적 기후행동’ 실시 7 외식업계 ‘1인 메뉴’ 전성시대… “혼밥족을 잡아라” 8 [김가람 기자의 스타트업 브런치] “투자유치는 처음인데요” 9 라이브러리컴퍼니, 2022년 하반기 콘서트 라인업 공개 10 맥스퀘어, 자사 독점 수입 세정제 ‘Am Get Clean’ 환경부 인증 통과 문화 [윤선미 기자의 G금 트렌디] 패션 업계, 지속가능성에 주목... '컨셔스 패션' 열풍 [윤선미 기자의 G금 트렌디] 내일 뭐 입지? 재택 근무 일상화 속 '편안한 출근룩' 인기 [윤선미 기자의 G금 트렌디] 옷은 사야 제 맛? 패션도 구독경제 시대... "빌려쓰고, 다시쓰고, 고쳐쓴다" 휴넷평생교육원, 사회복지사 2급 전과목 개설 에듀윌, 정보처리기사 최신 개정사항 반영한 '핵심개념서' 배포 이벤트 생활 [동정] 고려대학교 안암병원 김태훈 교수, 대한비과학회 학술상 영예 [동정] 경희대학교병원 박창규 교수, 효산 학술상 수상 [동정] 경희대병원 정형외과 정덕환 교수, 한국인 최초 'ASSH' 종신회원 선정 [동정] 고려대안산병원 응급의학과 송주현 교수, 경기도지사 표창장 수상 서울성모병원 간담췌외과 유영경 교수, 대한간이식연구학회 회장 선출 하단영역 Copyright © 2022 G밸리. All rights reserved. facebook 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 서울특별시 금천구 가산디지털1로 205-27 가산A타워 917호 대표전화 : 070-4334-5543 팩스 : 02-853-8187 청소년보호책임자 : 최지현 법인명 : G밸리 제호 : G밸리 등록번호 : 경기 아 51429 등록일 : 2010-04-01 발행일 : 2017-10-12 발행·편집인 : 최지현 G밸리 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. 위로 전체메뉴 전체기사 ESG 전체 ESG CSR 공익재단 경제 전체 경제일반 금융 은행/증권 보험/화재 산업 전체 산업일반 공기업 전자/통신 자동차/철도/항공 화학/중공업 건설/부동산 식품/제조 유통/물류 패션/뷰티 IT 전체 IT일반 게임/빅데이터 플랫폼/웹툰 스타트업/벤처 스타트업 사회 전체 사회일반 제약/바이오/병원 인터뷰 G밸리 문화 전체 문화일반 여행/숙박 출판/교육 생활 전체 인사/동정/부음 오피니언 포토/영상 전체 포토/영상 보도자료 전체메뉴닫기</t>
-  </si>
-  <si>
-    <t>제주도, ‘장애물 없는 관광환경 조성’ 추진 &lt; 제주 &lt; 지역네트워크 &lt; 기사본문 - 웰페어뉴스 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 2022-10-04 09:50 (화) 기사검색 검색 전체메뉴 버튼 전체 뉴스 사회복지in 장애계 노인 여성·어린이 사회 오피니언 문화·스포츠 보도자료 복지TV 지역네트워크 서울 경기 인천 강원 충청 전라 경상 제주 복지관 소식 장애인신문 회사소개 지면보기 구독신청 처음으로 로그인 회원가입 전체기사 모바일웹 본문영역 이전 기사보기 다음 기사보기 제주도, ‘장애물 없는 관광환경 조성’ 추진 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 지역네트워크 제주 제주도, ‘장애물 없는 관광환경 조성’ 추진 기자명 박성용 기자 입력 2021.03.09 18:33 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 사설관광지, 관광사업체 대상 관광약자 편의시설·장비 지원 제주특별자치도는 지난 7일 장애인, 노인, 영유아 등 관광약자를 위한 관광여건을 개선하기 위해 ‘2021 장애물 없는 관광환경 조성사업’을 추진한다고 밝혔다. 우선, 2021년 사설관광지 관광약자 편의시설 정비지원 사업에 대해 공고를 진행한다. 오는 15일~26일까지 제주관광협회 누리집을 통해 접수를 진행할 계획이며, 도내 사설관광지와 숙박업, 음식업 등 관광사업체를 대상으로 업체당 600만 원(자부담 30%) 이내로 지원한다. 지원사항은 ▲장애인화장실 ▲계단 핸드레일 ▲점자블록 ▲수유시설 ▲휠체어 ▲유모차 ▲자동심장충격기 등이다. 또한 관광약자 접근성 안내센터 운영, 무장애관광 브랜드 ‘같이가치 제주여행’ 활성화, 수어해설영상 제작·배포 사업도 추진할 계획이다. 제주 관광약자 접근성 안내센터를 통해 이지제주(제주관광약자접근성안내센터) 누리집, SNS, 앱 운영으로 관광약자를 위한 정보를 제공하고, 도내 관광지에 대한 접근성 모니터링 사업과 접근성 컨설팅 등의 사업을 추진한다. 지난해부터 추진 중인 무장애관광 브랜드 ‘같이가치 제주여행’ 활성화를 위해 제주관광공사 비짓제주 누리집을 통해 무장애 관광지 선정, 관광코스 발굴, 관광지별 접근성 정보 제공 등의 사업을 추진할 방침이다. 이밖에도 올해 신규사업으로 청각장애인을 위해 도내 주요 관광지에 대한 수어해설영상 제작, QR코드 등을 배포할 예정이다. 제주특별자치도 김재웅 관광국장은 “앞으로도 차별 없는 관광환경 조성을 위해 다양한 사업을 마련할 것.”이라며 “관광약자와 도민의 의견을 적극 수렴하는 등 선도적으로 복지관광 활성화에 앞장서겠다.”고 밝혔다. 한편, 제주도는 접근 가능한 관광 콘텐츠 제작·홍보, 안내책자 발간 등 정보제공 사업과 휠체어 무료대여 사업을 지속적으로 추진하고 있다. 지난해까지 26억5,000만 원을 투입해 관광약자 전용 리프트차량 제작지원 사업을 진행, 전세버스 12대와 렌터카 5대를 제작·지원했다. [장애인신문·웰페어뉴스 박성용 기자] 박성용 기자 openwelcom@naver.com 다른기사 보기 저작권자 © 웰페어뉴스 무단전재 및 재배포 금지 당신만 안 본 뉴스 제주에서 열린 전국장애인기능경기대회 폐막 원주시 긴급재난지원금, 모바일 원주사랑상품권 온라인 사전 신청 ‘제56회 여수거북선축제’ 3년 만에 화려하게 돌아온다!! 한글 점자의 날 기념 ‘디지털 기기 점자디자인·영상’ 공모 제30회 세계장애인의날 기념 ‘전국장애인합창대회’ 개최 국방부, 한국장애인고용공단과 ‘장애인 고용 증진’ 협력 순천대 사회봉사단, 플로깅 “쓰줍 계속합니다” 올해도 이어간다 제주에서 열린 전국장애인기능경기대회 폐막 라이브리 댓글 작성을 위해 JavaScript를 활성화 해주세요 주요기사 푸르메재단 넥슨어린이재활병원, 옐토와 ‘협업 전시회’ 열어 기아 초록여행, 장애인 고객 ‘12월 패키지·미션 여행’ 공모 요양병원·시설 등 접촉 대면면회 허용, 10월 4일부터 대전 동구, ‘장애인전용주차구역 준수’ 집중 홍보 대전 대덕구, 나눔복지재단 육아복합마더센터 위·수탁 협약 대전 중구 부사동, 주거환경 개선 봉사 실시 최신뉴스 푸르메재단 넥슨어린이재활병원, 옐토와 ‘협업 전시회’ 열어 기아 초록여행, 장애인 고객 ‘12월 패키지·미션 여행’ 공모 요양병원·시설 등 접촉 대면면회 허용, 10월 4일부터 대전 동구, ‘장애인전용주차구역 준수’ 집중 홍보 대전 대덕구, 나눔복지재단 육아복합마더센터 위·수탁 협약 포토뉴스 푸르메재단 넥슨어린이재활병원, 옐토와 ‘협업 전시회’ 열어 기아 초록여행, 장애인 고객 ‘12월 패키지·미션 여행’ 공모 대전 대덕구, 나눔복지재단 육아복합마더센터 위·수탁 협약 서울시, 취약계층 ‘실내환경 개선공사’ 실시 인기뉴스 1 제주에서 열린 전국장애인기능경기대회 폐막 2 원주시 긴급재난지원금, 모바일 원주사랑상품권 온라인 사전 신청 3 ‘제56회 여수거북선축제’ 3년 만에 화려하게 돌아온다!! 4 한글 점자의 날 기념 ‘디지털 기기 점자디자인·영상’ 공모 5 제30회 세계장애인의날 기념 ‘전국장애인합창대회’ 개최 6 국방부, 한국장애인고용공단과 ‘장애인 고용 증진’ 협력 7 순천대 사회봉사단, 플로깅 “쓰줍 계속합니다” 올해도 이어간다 8 사회복지공동모금회 황인식 신임 사무총장 선임 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 서울특별시 영등포구 영신로 220 KnK디지털타워 409호 대표전화 : 02-2632-8999 팩스 : 02-2632-9355 청소년보호책임자 : 정두리 법인명 : 곰두리복지재단 제호 : 웰페어뉴스 등록번호 : 서울 아 03127 등록일 : 2014-04-28 발행일 : 2014-04-28 발행인 : 최규옥 편집인 : 최지희 웰페어뉴스 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 웰페어뉴스. All rights reserved. mail to openwelcom@naver.com 위로 전체메뉴 전체기사 장애인 전체 정책·정치 인권·사회 노동·자립생활 교육 문화·체육 노인 아동·여성 사회복지in 복지관n 의료·건강 오피니언 전체 칼럼 기고 취재수첩 인터뷰 대중문화·스포츠 성명·논평 지역네트워크 전체 서울 경기 인천 강원 충청 전라 경상 제주 청소년 기자단 연재 전체 나 자립했다 함께하는 여행 사회복지 불법 '고발합니다' 김재중의 소통 한 컷 나와 너의 도전, 챌린지2 굼벵이의 휠체어 배낭여행 문턱없는 여행지 카드뉴스 그곳에 사람이 있다 복지TV 전체 복지TV뉴스 만만한 뉴스 소셜워커ON 나눔과 배려의 현장 휴먼다큐 희망인 이슈원샷 복지를 말하다 복지TV PiCK 박마루의 뉴 공감세상 나도 말 좀 합시다 복지TV NOW 사회 전체메뉴닫기</t>
-  </si>
-  <si>
-    <t>제주도, 민.관 합동 관광사업체 방역현장 상시점검 실시 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-04 11:14 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도, 민.관 합동 관광사업체 방역현장 상시점검 실시 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 관광 제주도, 민.관 합동 관광사업체 방역현장 상시점검 실시 홍창빈 기자 headlinejeju@headlinejeju.co.kr 승인 2021.03.07 09:00 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 제주특별자치도는 제주형 사회적 거리두기 완화 연장 시행으로 인해 자칫 느슨해지기 쉬운 도내 관광사업체 방역현장에 대한 지속 관리를 위해 민·관 합동의 상시 점검체계를 구축해 추진하고 있다고 7일 밝혔다. 이는 제주가 지난달 15일 제주형 사회적 거리두기 1.5단계로 완화되면서 3월 중 제주를 찾는 여행객들이 급격하게 증가할 수 있다는 우려가 제기됨에 따른 것이다. 제주도는 행정시와 관광협회 및 공사 등 민·관 합동의 요일별 기관담당 점검반을 구축하고, 보다 정밀하고 지속적인 현장점검으로 코로나19 감염 재확산 방지뿐만 아니라, 관광수용 태세를 재정비할 계획이다. 관광사업체에 대해는 손소독제 등 방역물품을 지속적으로 제공해 나가고 있으며, 특히 올해부터는 사업체별 자율방역체계 구축 지원을 위한 방역비 지원사업을 추진하고 있다. 제주도는 방역 상시점검 시 코로나로 인해 어려움을 겪고 있는 관광업체의 현장의 소리를 직접 청취해 애로사항에 대해 유관기관과 협업을 통해 적극 해결해 나갈 예정이다. 지난 2월 방역현장에서 청취했던 관광호텔 내 연회장 사용 인원제한(200명 미만)에 대한 업체 건의를 적극 수렴해 이번 연장 시에는 500명 미만으로 완화되는 등 상시 현장점검을 통해 코로나19 속에서도 어려운 제주경제 회복에 안간힘을 다하는 사업체들의 소통 역할을 해나가고 있다. 한편 제주도는 관광사업체의 경제적 어려움을 지원하기 위해 올해 지원 사업으로 156억 원을 편성, 지난 1월 25일부터 3월 15일까지 관광진흥기금 특별융자지원을 신청받고 있다, 안전 관광제주 구축을 통한 관광산업 조기 회생을 위해 △도내 관광사업체에 대한 방역비 지원 △온라인 마켓‘탐나오’ 관광상품 판매 확대 △건전 관광질서 수용태세 확립을 위한 키오스크, 모바일 도어락 시스템 등을 운영한다. 이어 패턴별 여행 상품 개발에 따른 상품개발비와 차량 임차료를 지원하고, 도내 여행사업체 등에 보증보험 지원 등 34억 원을 상반기에 집중 투입해 지원할 예정이다. 김재웅 제주도 관광국장은 “코로나 사태로 전국 지자체 중 가장 직격탄을 맞고 있는 제주의 관광산업의 어려움을 헤아리고, 이에 대한 다양하고 실속 있는 현장의 소리를 공유함으로서 행정과 관광사업체가 하나가 돼 제주관광산업의 조기회복을 위해 적극 대응해 나가겠다”고 말했다.&lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 홍창빈 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 "제주 보전지역 정기조사 부실투성이...도의회, 재조사 요구하라" 제주형 구직청년 재난지원금, 8365명에 42억원 지급 공익제보 사실로 밝혀졌으나...신고자는 4년째 외로운 싸움 제주, 도시주거환경정비 기본계획 첫 수립...재건축 예정구역 지정 설왕설래 說往說來 제주, 초등 돌봄교실 '오후 8시까지' 운영계획에 노조 반발...왜? 사건사고 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 배우 곽도원, 제주서 음주운전 적발...공익광고 송출 중단 많이 본 뉴스 실시간 댓글 1 공익제보 사실로 밝혀졌으나...신고자는 4년째 외로운 싸움 2 "사람에게 가장 필요한 것은, 사랑이죠" 임피제 신부님 추모음악회 3 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 4 서귀포 읍면 6개지구, 지적재조사지구 경계확정 통지 5 제1회 국제농기계 전동화·자율주행 엑스포, 내달 8~10일 개최 6 [강철수의 포토 에세이] 제주와 인연 깊은 강진만 끝자락 마량항 7 제9회 전국 노인 게이트볼 대회, 제주선수단 첫 우승 8 서귀포시 동부보건소, '찾아가는 노인 결핵검진' 실시 9 꼭 필요한 장애인에게 장애인주차표지 발급 10 가을 골프시즌 알리는 KLPGA 대회 제주서 개최 1 참으로 무식한 시민단체라고 할 수 밖에... 공장도 없애야 하고 자동차도 다 없애자고 주장하고. 제주도행 비행기도 운항 중단해야 한다고 주장하는 거랑 뭐가 다른지... 누가 저렇게 하라고 시민단체에게 지시하는 사람이 있나요. 2 묘산봉관광지 개발 에 앞서 일주동로에서 관광지까지의 현행 왕복 2차선도로 부터 당장 4차선이상의 도로를 확보 하는것과 주변 인근도로확보가 우선시 되어야하며 주변 경관정비또한 힘써야 할것입니다 3 언론 국회 종교단체 행정관청(고용노동부 지방노동위원회 금감원 국세청 국가인권위원회 국가권익우원회 등)에 억울함과 부당함을 호소해도 외면당한다. 내가 삶을 잘못 살아서일까 아님 대기업을 상대로 무모한 행동을 해서일까? 아니면 거짓말을 해서일까? 이런 어려움과 고통을 당하는이유는 삼성보다 더한 교보생명의 노조탄압결과이다. 언론에 알려진 교보생명과 회사내에서 벌어지는 갑질과 횡포는 상상이상이다. 직원들 위협하여 징계자료를 조작하고 위조하고 법인세를 탈루(국세청 21.1월 신고-아직도 서울지방국세청 조사4국에서는 조사중 이라고만 한다) 회장과 임원보수도 주주총회 이사회 이사회 산하 보수의원회 의결없이 지급하다 노조위원장이 지적하고 21.10월 금융감독원 지적을 당하고 나서야 보수의원회 의결을 거친다. 그래도 법인세법 위반이다. 이런 기본적인 사실도 모르는 곳이 교보생명이다. 산업안전보건법에 의한 산업안전보건위 미개최 신고로 과태료를 부과받았고 4 이런 분들을 보호하지 못하는 진짜 이유가 있다 법으로 보호해줘야 한다는 말도 맞다 그러나 그보다는 조직 내 사람들이 문제이다 이런 분들을 동료들이 먼저 보호하려 해야 하는데 동료들은 다 자기 먹고 살 생각만 한다 노조는 뭐하나. 이런데 자극 나서야지 5 아니 불법주정차 안한다면서ㅋㅋ 주민체육대회때 다 불법주차 아닌가? 삼양초 주변으로 차 둘러쌓여서 난리도 아니었는데 ㅋㅋ 불법주차 않하기?ㅋ 6 오랜시간 기억 할겁니다. 그리고 간단한것 부터 실천해야 겠습니다. 좋은글 감사합니다. 7 현장에서의 음악적 감동과 임신부님이 우리에게 전하는 메시지까지 전달되네요. 같은 공간에 함께 있었던 것만으로도 감동입니다. 8 제발 고가도로 같은걸로 신호안받고 바로 보내는걸로 만들어줘 9 보존관리지구 임야는 소유주가 아무 경영계획도 할 수 없어서 전혀 소득이 없는데 종합합산 고율의 세율을 적용한다는 것이 납득이 안갑니다. 법령을 수정 보완해야 할 여지가 있다고 봅니다. 10 축하합니다. 대단하십니다. 부럽습니다~~~ 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
-  </si>
-  <si>
-    <t>제주도, 2021년 관광진흥기금 특별융자지원 접수기간 연장 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-04 11:14 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도, 2021년 관광진흥기금 특별융자지원 접수기간 연장 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 관광 제주도, 2021년 관광진흥기금 특별융자지원 접수기간 연장 홍창빈 기자 headlinejeju@headlinejeju.co.kr 승인 2021.03.02 13:21 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 제주특별자치도는 코로나19로 직격탄을 맞은 관광사업체의 경영위기 극복 등 어려움을 지원하기 위해 제주관광진흥기금 특별융자 신청기간을 오는 12일까지로 연장 접수한다고 밝혔다. 당초 제주도는 지난 2월26일까지 총 2000억 규모 특별융자 제공할 계획으로 접수를 진행했다. 그 결과 289개 사업체 600억 원 융자가 접수됐는데, 유관기관·단체 간단회에서 건의된 사항을 반영하는 차원에서 신청 기간 내 신청하지 못한 관광사업체에게 혜택이 돌아갈 수 있도록 신청기간을 연장하기로 했다. 올해 제주관광진흥기금 융자규모는 총 2000억원으로 여행업계, 관광숙박업 등의 경영난 해소를 위한 경영안정자금 1800억을, 시설 개·보수 자금에 200억을 배정했다. 지원은 융자추천액 대출 실행에 따른 이자차액을 보전해 주는 방식으로 이뤄진다. 대출 금리는 분기별로 기획재정부에서 공지하는 ‘공공자금관리기금 융자사업 변동금리’에서 0.75% 우대하는 분기별 변동 금리가 적용돼 0.51%다. 2021년 1분기 기준으로 개인 등 중소기업은 0.51%를, 대기업은 1.26%의 금리가 적용될 예정이다. 융자 기간은 2년 거치 3년 균등 상환 조건이다. 제주관광진흥기금 신청은 3월 12일까지 제주웰컴센터 내 기 설치된 관광진흥기금 특별지원센터(740-6095~6097)에서 접수받고 있다. 김재웅 제주도 관광국장은 "코로나 19로 어려움에 처한 관광사업체 버팀목 자금 지원과 융자지원 등 을 통해 관광산업이 조기 회복 될 수 있도록 노력할  계획"이라며 "아직까지 융자 신청하지 못한 관광사업체에서는 신청기간내 신청해 줄 것을 당부했다"고 밝혔다.&lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 홍창빈 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 "제주 보전지역 정기조사 부실투성이...도의회, 재조사 요구하라" 제주형 구직청년 재난지원금, 8365명에 42억원 지급 공익제보 사실로 밝혀졌으나...신고자는 4년째 외로운 싸움 제주, 도시주거환경정비 기본계획 첫 수립...재건축 예정구역 지정 설왕설래 說往說來 제주, 초등 돌봄교실 '오후 8시까지' 운영계획에 노조 반발...왜? 사건사고 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 배우 곽도원, 제주서 음주운전 적발...공익광고 송출 중단 많이 본 뉴스 실시간 댓글 1 공익제보 사실로 밝혀졌으나...신고자는 4년째 외로운 싸움 2 "사람에게 가장 필요한 것은, 사랑이죠" 임피제 신부님 추모음악회 3 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 4 서귀포 읍면 6개지구, 지적재조사지구 경계확정 통지 5 제1회 국제농기계 전동화·자율주행 엑스포, 내달 8~10일 개최 6 [강철수의 포토 에세이] 제주와 인연 깊은 강진만 끝자락 마량항 7 제9회 전국 노인 게이트볼 대회, 제주선수단 첫 우승 8 서귀포시 동부보건소, '찾아가는 노인 결핵검진' 실시 9 꼭 필요한 장애인에게 장애인주차표지 발급 10 가을 골프시즌 알리는 KLPGA 대회 제주서 개최 1 참으로 무식한 시민단체라고 할 수 밖에... 공장도 없애야 하고 자동차도 다 없애자고 주장하고. 제주도행 비행기도 운항 중단해야 한다고 주장하는 거랑 뭐가 다른지... 누가 저렇게 하라고 시민단체에게 지시하는 사람이 있나요. 2 묘산봉관광지 개발 에 앞서 일주동로에서 관광지까지의 현행 왕복 2차선도로 부터 당장 4차선이상의 도로를 확보 하는것과 주변 인근도로확보가 우선시 되어야하며 주변 경관정비또한 힘써야 할것입니다 3 언론 국회 종교단체 행정관청(고용노동부 지방노동위원회 금감원 국세청 국가인권위원회 국가권익우원회 등)에 억울함과 부당함을 호소해도 외면당한다. 내가 삶을 잘못 살아서일까 아님 대기업을 상대로 무모한 행동을 해서일까? 아니면 거짓말을 해서일까? 이런 어려움과 고통을 당하는이유는 삼성보다 더한 교보생명의 노조탄압결과이다. 언론에 알려진 교보생명과 회사내에서 벌어지는 갑질과 횡포는 상상이상이다. 직원들 위협하여 징계자료를 조작하고 위조하고 법인세를 탈루(국세청 21.1월 신고-아직도 서울지방국세청 조사4국에서는 조사중 이라고만 한다) 회장과 임원보수도 주주총회 이사회 이사회 산하 보수의원회 의결없이 지급하다 노조위원장이 지적하고 21.10월 금융감독원 지적을 당하고 나서야 보수의원회 의결을 거친다. 그래도 법인세법 위반이다. 이런 기본적인 사실도 모르는 곳이 교보생명이다. 산업안전보건법에 의한 산업안전보건위 미개최 신고로 과태료를 부과받았고 4 이런 분들을 보호하지 못하는 진짜 이유가 있다 법으로 보호해줘야 한다는 말도 맞다 그러나 그보다는 조직 내 사람들이 문제이다 이런 분들을 동료들이 먼저 보호하려 해야 하는데 동료들은 다 자기 먹고 살 생각만 한다 노조는 뭐하나. 이런데 자극 나서야지 5 아니 불법주정차 안한다면서ㅋㅋ 주민체육대회때 다 불법주차 아닌가? 삼양초 주변으로 차 둘러쌓여서 난리도 아니었는데 ㅋㅋ 불법주차 않하기?ㅋ 6 오랜시간 기억 할겁니다. 그리고 간단한것 부터 실천해야 겠습니다. 좋은글 감사합니다. 7 현장에서의 음악적 감동과 임신부님이 우리에게 전하는 메시지까지 전달되네요. 같은 공간에 함께 있었던 것만으로도 감동입니다. 8 제발 고가도로 같은걸로 신호안받고 바로 보내는걸로 만들어줘 9 보존관리지구 임야는 소유주가 아무 경영계획도 할 수 없어서 전혀 소득이 없는데 종합합산 고율의 세율을 적용한다는 것이 납득이 안갑니다. 법령을 수정 보완해야 할 여지가 있다고 봅니다. 10 축하합니다. 대단하십니다. 부럽습니다~~~ 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
-  </si>
-  <si>
-    <t>제주도관광협회 '부동석 2기' 시동 - 뉴제주일보 × 전체기사 정치/행정 전체 제주도정 청와대 도의회 국회 선거 후보자 정부 도내정가 재·보궐 선거 북한 社告 중앙정가 국정감사 조합장선거 제주시 갑 제주시 을 서귀포시 경제 전체 경제일반 금융 창립기념일 손해사정사 이명헌의보험이야기 사회 전체 사회일반 법원검찰 경찰 기상 사건·사고 사회단체 의료 횡단로 교육/과학 전체 대학 교육청 일반 과학 어린이판 지역 전체 제주시 서귀포시 문화 전체 일반 공연 영화/연예 전시 홈닥터 해연풍 사진으로 본 제주 시와 그림으로 보는 제주어 스포츠 전체 일반 백호기 야구 축구 육상 농구 배구 골프 동계스포츠 태권도 배드민턴 우슈 수영 탁구 체조 레슬링 유도 정구 양궁 격투기 검도 바둑 경마 댄스 올림픽 사람과 사람 전체 동정 프로필 인터뷰 오피니언 전체 사설 부영주 칼럼 "아침" 홍성배 칼럼 제주포럼 기자수첩 기자석 김미영의 뷰티톡 김태윤 박사의 환경, 그리고 인생 이야기 김호성의 정치·행정 이야기 정영민 변호사의 법 이야기 김원현의 아동성장 이야기 제주칼럼 제주시론 제주광장 정흥남 칼럼 강은숙의 가정법률이야기 김종배의 세상털기 배진섭의 공연 이야기 한동명 변호사의 법률 Q&amp;A 제주만평 열린페이지 전체 제주기고 결혼 부음 알림 인사 보도자료 제주 4·3 전체 4.3길을걷다 국제 진행중인 기획 전체 제주어바웃 食(식) 기행 문희주의 제주오롬 스토리 이세끼 주제주일본국총영사가 만난 제주 문화예술산책 송재웅의 책 이야기 김창집의 길이야기 임안순의 농농농 제주&amp;제주인 메이드인 제주 JDC와 함께하는 제주야 시민기자가 뛴다! 창간특집 신년특집 새해설계 기획총괄 특별기획 제주 커피로드 서재철의 섬기행, 섬을 걷다 셰프 인 제주 아이♥제주 제주 농업, 청년이 미래다 종료된 기획 전체 제주미래성장동력,자연에서 찾는다 jdc의 여정과미래 代를 잇는 제주기업 2017 생명을 지키는 약속 내일을 JOB자! 특성화GO! 희망! 나래를 펴다 新제주인 공감愛공간 탐라에서 세계로 제주&amp;제주인 더불어 제주 생존수영 경제매거진 IN제주 메이드인제주ll-향토기업 총선 열전현장 총선 일반 4.13 총선 여론조사 제20대 4.13총선후보에게듣는다 총선브리핑 2017 대권주자에게듣는다 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 유권자가 주인이다 민심탐방 포토에세이 제주의 독립운동가를 찾아서 제주경제, 위기를 기회로 제주인 life 국제전기자동차 엑스포 나눔ㆍ봉사ㆍ행복 삶다도 실력이 인정받는 제주 시네톡 제주한의약, 그 역사속으로 김창집의 올레이야기 2016 우리는 제주 인포그래픽 제주의 마을속으로 자연의 역습 기후변화 나눔이 희망 입니다 4·3 길을 걷다 희망을 나누는 사람들 특성화고 날개를 달다 10대, 나도 저자다! 위클리 커버 제주동네책방 탐방 사서가 추천하는 이달의 도서 시민 문화기획자를 만나다 서재철의 오지기행 화촉 라이프 전체 레저 건강 출판/문학 부고 동영상 인사 방송동영상 현안 진단 뉴스 전체 방송/연예 6·13 지방선거 LIFE in BIZ 전체 일반 최종편집일. 2022-10-04 11:15 (화) 로그인 회원가입 모바일웹 정치 경제 사회 교육/과학 지역 문화 스포츠 기획 오피니언 화촉 부음 기사검색 검색 신임 제주문화예술진흥원장에 김태관 공연 기획자 내정 신임 제주문화예술진흥원장에 김태관 공연 기획자 내정 신임 제주특별자치도 문화예술진흥원장에 제주 출신 김태관 전문 공연 기획자가 내정됐다.제주도는 지난달 28일 도 문화예술진흥원장 최종 임용후보자를 응시번호로 공개했고, 본지 취재 결... 4일부터 요양시설 접촉면회 재허용 4일부터 요양시설 접촉면회 재허용 4일부터 요양병원·시설 입소자와 가족들이 다시 접촉 면회를 할 수 있게 됐다.3일 정부와 제주특별자치도에 따르면 4일부터 요양병원·시설, 정신병원·시설 등 감염취약시설의 코로나19... SNS P  D  F 지면보기 이전 다음 제주도관광협회 '부동석 2기' 시동 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 경제 경제일반 제주도관광협회 '부동석 2기' 시동 현대성 기자 승인 2021.03.11 16:54 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 부동석 제주특별자치도관광협회장이 이달부터 두 번째 임기를 시작한 가운데, 업종별 분과위원장 18명 중 11명이 교체되면서 ‘혁신’에 시동이 걸렸다. 제주도관광협회는 11일 2차 이사회를 열고 업종별 분과위원장단을 선출했다고 이날 밝혔다. 협회는 이날 이사회를 통해 부회장단 8명을 포함한 임원 46명을 임명하고 자문위원단 및 인사위원회와 재정위원회를 구성해 조직을 재정비했다. 특히 업종별 분과위원장은 18명 중 11명이 대거 교체돼 협회 운영의 혁신을 예고했다. 협회는 또 이날 이사회를 통해 오는 6월 계약 기간이 만료되는 상근이사의 계약 기간을 연장하기도 했다. 한편 부동석 제주도관광협회장은 지난달 19일 2021년도 대의원총회 결과 만장일치로 제36대 회장에 당선되면서 연임에 성공했다. 부 회장의 임기는 2024년까지다. 현대성 기자  cannon@jejuilbo.net 저작권자 © 뉴제주일보 무단전재 및 재배포 금지 현대성 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 제8회 전국동시지방선거 (예비)후보자 및 그의 배우자, 직계존·비속이나 형제자매에 관하여 허위의 사실을 유포하거나, 이들을 비방하는 경우 「공직선거법」에 위반됩니다.대한민국의 깨끗한 선거문화 실현에 동참하여 주시기 바랍니다. - 중앙선거관리위원회- 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 인기기사 1암보험 약관에 규정하는 알고 있어야 할 사항들 2디지털 자산 제도화 분기점, 투자는 어떻게(?) 3세계 최초 '국제농기계 전동화.자율주행 엑스포' 한 달 앞으로 4경제 비상사태, 비상한 대처 있어야 한다 5버스 준공영제 대폭 손질…도민 부담 전가 ‘우려’ 64일부터 요양시설 접촉면회 재허용 7제주고·제주여상, 전도사격대회 고등부 단체전 정상 8깊어가는 가을, 코스모스 활짝 9기업경기 내리막, 민·관 머리 맞대 돌파구 찾아야 10김경학 의장 “도민복지 증진 지방자치 본질…민생의정 구현 총력” 신문사소개 고충처리인 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 서사로 25 3-5층(삼도이동, 수정빌딩) 대표전화 : 064-757-3114 광고·구독 : 064-757-5000 편집국 FAX : 064-756-7114 영업본부 : 064-702-7114 법인명(단체명) : 주식회사 제주일보방송 등록번호 : 제주 아01134 등록일 : 2021-09-07 대표자 : 김대형 발행인 : 김대형 주필 : 부영주 편집인 : 부영주 편집국장 : 부남철 뉴제주일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. 청소년보호책임자 : 김대형 Copyright © 2022 뉴제주일보. All rights reserved. mail to webmaster@jejuilbo.net 위로</t>
-  </si>
-  <si>
-    <t>제주도, 2021년 상반기 제주관광진흥기금 특별융자 신청기간 연장 주메뉴 바로가기 본문 바로가기 2022.10.04 (화) 카카오채널 RSS 모바일보기 흐림서울 17.1℃ 구름많음제주 23.9℃ 구름많음고산 22.4℃ 구름많음성산 23.1℃ 흐림서귀포 24.9℃ 기상청 제공 기사제보 기사문의 회원가입 로그인 Korean English 中文 日本語 tiếng Việt Idioma español ру́сский язы́к 메뉴 전체기사 정치 경제 사회 교육 복지 라이프 문화·행사 오피니언 기고 만평 기사검색 검색어를 입력해주세요 검색하기 검색창 열기 닫기 전체기사 정치 경제 사회 교육 복지 라이프 문화·행사 오피니언 기고 만평 사회 홈 사회 제주도, 2021년 상반기 제주관광진흥기금 특별융자 신청기간 연장 임의순 기자 jejutwn@daum.net 등록 2021.03.02 11:38:16 URL복사 목록 메일 프린트 스크랩 글씨크기 크게 글씨크기 작게 페이스북 트위터 카카오톡 카카오스토리 네이버블로그 제주도는 코로나19로 직격탄을 맞은 관광사업체의 경영위기 극복 등 어려움을 지원하기 위해 지난달 26일까지 신청기간인 제주관광진흥기금 특별융자 신청기간을 오늘 3월 12일까지 연장 접수한다고 밝혔다.당초 2월말까지 총 2000억 규모 특별융자 제공할 계획으로 접수한 결과 289개 사업체 600억 원 융자를 신청했으며, 유관기관·단체 간단회시 건의한 사항을 수렴하는 차원에서 신청 기간 내 신청하지 못한 관광사업체에게 혜택이 돌아갈 수 있도록 신청기간을 3월 12일까지 연장하기로 했다.올해 제주관광진흥기금 융자규모는 총 2000억원으로 여행업계, 관광숙박업 등의 경영난 해소를 위한 경영안정자금 1,800억을, 시설 개·보수 자금에 200억을 배정했다.지원은 융자추천액 대출 실행에 따른 이자차액을 보전해 주는 방식으로 이뤄진다.대출 금리는 분기별로 기획재정부에서 공지하는 ‘공공자금관리기금 융자사업 변동금리’에서 0.75% 우대하는 분기별 변동 금리가 적용돼 0.51%다.2021년 1분기 기준으로 개인 등 중소기업은 0.51%를, 대기업은 1.26%의 금리가 적용될 예정이다.융자 기간은 2년 거치 3년 균등 상환 조건이다.제주관광진흥기금 신청은 3월 12일까지 제주웰컴센터 내 기 설치된 관광진흥기금 특별지원센터(T.740-6095~6097)에서 접수받고 있다.김재웅 도 관광국장은 “코로나 19로 어려움에 처한 관광사업체 버팀목 자금 지원과 융자지원 등 을 통하여 관광산업이 조기 회복 될 수 있도록 노력할 계획이며, 아직까지 융자 신청하지 못한 관광사업체에서는 신청기간내 신청해 줄 것을 당부했다”고 밝혔다.제주교통복지신문, JEJUTWN 임의순 기자 의 전체기사 보기 페이스북 트위터 카카오톡 카카오스토리 네이버블로그 네이버카페 밴드 Copyright @2015 제주교통복지신문 Corp. All rights reserved. 랭킹뉴스 1 제주 서귀포 친환경 주거타운 ‘제주 레브카운티’, 대자연 풍경과 개발 수혜로 관심 2 [TW포토] 제3회 서귀포은갈치축제 현장 3 [TW포토] 제주관광대 탐모라볼빛축제…장덕철 열창 4 3년 만에 개최되는 제3회 서귀포 은갈치 축제 9월 30일 개최 5 제주시, 10월 시정시책공유 간부회의 개최 6 2022 청춘마이크 제주 뮤직 페스티발 9월 30일 개최 7 [TW포토] 제주관광대 탐모라볼빛축제 성황리에 열려 8 서귀포시 서부보건소, 제주도 최초 선정 '생애 초기 건강관리사업' 운영 9 서귀포시, 민원업무 담당자 직무교육 실시 10 서귀포시, 美 풀러턴(Fullerton)市와 함께한‘창업 및 수출지원 세미나’성료 실시간 뉴스 2022-10-04_TUE [TW포토] 제주 한라산 일출 풍경, '핑크빛 하늘' 06:40 제주 오션갤러리, 시행사 보유분 특별분양 03:58 2022-10-03_MON 제주도, 김희현 정무부지사, 국학기공대회 참석 격려 16:39 제주도, 무오법정사 항일항쟁 104주년…“숭고한 정신 이어 새로운 미래 준비” 16:38 제주도의회 김황국 의원, 스포츠관광 정책 발전 기여 공로상 수상 16:31 신문사소개 윤리강령 찾아오시는 길 개인정보처리방침 청소년보호정책 (책임자 : 이청) 이메일 무단수집거부 기사제보 문의하기 제주특별자치도 제주시 신대로7길 20, 301호 (연동, 새롬빌라) | 대표전화 : 010-8675-4517 발행인 : 이문호 | 편집인 : 이청 | 등록번호 : 제주, 아01068 | 등록일 : 2016.10.11 | 이메일 : news@jejutwn.com 제주교통복지신문의 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2021 제주교통복지신문. All rights reserved. 최종편집일: 2022년 10월 04일 11시 13분 최상단으로</t>
+    <t>제주도소공연, 드림타워 사업자 롯데관광개발 경찰 고발 - 전자신문 Conference allshowTV 검색 뉴스 속보 경제·금융 전자·모빌리티 통신·미디어·게임 소재·부품 SW·보안 산업·에너지·환경 플랫폼·유통 벤처·바이오 뉴스 정치 전국 국제 골프 화제의뉴스 인사·부음 오피니언 특집 연재 비주얼IT 스페셜리포트 뷰포인트 인포그래픽 라이프 연예 포토 공연전시 생활문화 날씨 부가서비스 콘퍼런스 allshowTV IT 전시 컨벤션 ET프리미엄 시사용어 PDF 서비스 English 서비스 안내 신문구독신청 온라인광고안내 콘텐츠구매 초판서비스 번역센터 회원 서비스 로그인 회원가입 패밀리미디어 서울신문 RPM9 EBN 산업경제신문 경제·금융 전자·모빌리티 통신·미디어·게임 소재·부품 SW·보안 산업·에너지·환경 플랫폼·유통 벤처·바이오 정치 전국 국제 제주도소공연, 드림타워 사업자 롯데관광개발 경찰 고발 발행일 : 2021-03-29 13:52 제주도소상공인연합회는 드림타워 쇼핑몰 사업자인 롯데관광개발을 제주 서부경찰서에 고발했다고 29일 밝혔다. 제주도소상공인연합회는 롯데관광개발이 운영하는 드림타워 쇼핑몰은 바닥면적이 3000㎡가 넘는 대규모 매장임에도 대규모 점포로 등록하지 않은 채 영업을 개시해 주변 소상공인들의 피해가 발생하고 있다며 고발 취지를 밝혔다. 제주도소상공인연합회는 지난 24일 처음 성명서를 냈고, 이에 제주시는 25일 드림타워의 판매시설 바닥면적을 측정했다. 측정 결과 3300㎡에 이르는 면적이 확인됐다고 소공연 측은 밝혔다. 제주소공연은 주변상권과 상생 계획도 없이 대규모 쇼핑몰이 운영되면 코로나19 종식 이후 외국인 관광객의 도내 유입시 면세점과 쇼핑몰 등으로 쏠림현상이 발생할 것으로 우려하고 있다. 박인철 제주도소상공인연합회장은 “제주시의 드림타워 바닥면적 측정 결과, 쇼핑몰 면적이 3천㎡가 넘는데도 대규모 점포로 등록하지 않고 지난 1월부터 영업한 것으로 밝혀졌다”면서 “유통산업발전법에 따라 바닥 면적이 3000㎡ 이상인 판매시설은 대규모 점포로 등록해 영업해 하지만 각종 절차를 하나도 거치지 않아 사업자인 롯데관광개발측을 경찰 고발한다”고 밝혔다. 유근일기자 ryuryu@etnews.com 이번 주 HOT 콘텐츠 AI와 빅데이터, 어디까지 활용해봤니? RPA의 성장에 실패한 기업들이 간과했던 여섯 가지- 역량 내재화와 프로세스 자동화 CoE를 중심으로 BRAND NEWSROOM 여의시스템여의시스템, 인텔 vPro 기술 기반 원격 관리 및 모니터링 ELMS 솔루션 론칭스마트팩토리/자동제어 솔루션 리딩 기업 ㈜여의시스템이 인텔의 파트너 프로그램인 MRS (Market Ready Solution) 을 통해 인텔 vPro 기술 기반 엣지 라인 원격 관리 및 모니터링 솔루션인 ELMS를 성공적으로 런칭 하였다고 밝혔다. 시큐어링크시큐어링크, AI 기술 접목한 고성능 UTM 출시 예정시큐어링크(대표 고준용)는 자사의 특허기술인 행동분석 랜섬웨어 차단 엔진을 기반으로 AI 기술을 접목, 엔드포인트 및 네트워크 등 다양한 인프라에 적용가능한 UTM 신제품을 준비중이라고 7일 밝혔다. 한국무라타전자한국무라타전자, 국내 최대 전자·IT 전시회 '한국전자전' 참가한국무라타전자(대표이사 요시오카 켄이치)는 오는 10월 4일부터 7일까지 개최되는 국내 최대 전자·IT 전시회인 한국전자전(KES 2022)에 참가한다고 13일 밝혔다. 유니온커뮤니티유니온커뮤니티-스위스 바이오인식 TBS, 유럽 시장 확대 MOU 체결국내 최대 멀티모달 생체인식 보안 솔루션기업 유니온커뮤니티(대표 신요식)는 스위스 바이오식 기술 전문 TBS(Touchless Biometric Systems) AG와 MOU를 체결했다고 30일 밝혔다. 버넥트버넥트, XR 엔터테인먼트 사업 본격 시동버넥트(대표 하태진)는 기존의 산업용 XR 솔루션 사업을 넘어 XR 엔터테인먼트 사업에 본격적인 시동을 걸었다고 29일 밝혔다. 마이스터즈천홍준 마이스터즈 대표, "대기업·중소기업과 소비자까지, 모두의 ‘ESG’ 함께 하겠다"'4차산업'이라는 이름 아래 산업계가 탄력적으로 변화하고 있다. 특히 상품이나 서비스는 물론 조직구조나 인력활용 면에서도 상당한 유연성을 보인다. 많이 본 뉴스 1 '갤럭시S23', 카메라로 아이폰14 잡을까 2 베트남 넷플릭스 1위 달리던 ‘작은 아씨들’, 돌연 방영 중단…이유는? 3 'ㅅㅏㅁㅅㅓㅇ', 삼성전자 한글날 맞아 한글 로고 선보여 4 저 얼음 밑에 생명체?... 목성 위성 '유로파'의 선명한 주름 5 LG전자, 3분기 영업이익 7466억원...매출은 역대 최고 BIZPLUS 디지털전환을 위한 VMware Cloud on AWS 트랜드 따라잡기 "구글 클라우드 AlloyDB 알아보기" 10월 25일 생방송 제조분야 스마트 혁신을 이끄는 AI기반 분석 기술 반도체 인프라 구축을 위한 하이테크 BIM 설계 자동화 웨비나 구글 클라우드 AlloyDB로 데이터베이스 워크로드 혁신하기 데이터와 시뮬레이션 모델을 활용한 건전성 예측관리 솔루션 개발 전자신문 회사소개 지면광고 행사문의 주소: 서울시 서초구 양재대로2길 22-16 호반파크1관 8~9층 대표번호: 02-2168-9200 구독문의: 02-2671-1806~7 전자신문인터넷 회사소개 이용약관 개인정보취급방침 고충처리 사이트맵 주소: 서울시 서초구 양재대로2길 22-16 호반파크1관 7층 대표번호: 02-857-0114 사업자번호: 107-81-80959 등록번호: 서울 아04494 제호: 전자신문인터넷 등록일자: 2017년 04월 27일 발행일자: 1996년 04월 10일 발행·편집인: 심규호 청소년보호책임자: 김인기 Copyright © Electronic Times Internet. All Rights Reserved. 패밀리미디어 RPM9 서울신문 EBN 산업경제신문</t>
+  </si>
+  <si>
+    <t>제주도 관광객 몰던 승용차 바다로 추락…1명 경상 본문 바로가기 메뉴 바로가기 사회 남효정 제주도 관광객 몰던 승용차 바다로 추락…1명 경상 제주도 관광객 몰던 승용차 바다로 추락…1명 경상 입력 2021-03-28 16:54 | 수정 2021-03-28 16:56 가 가 가 해당 기사를 북마크했습니다. 확인 내 북마크 보기 페이스북 트위터 카카오 스토리 카카오톡 밴드 링크 복사 본문 복사 레이어 닫기 Previous Next 전체재생 상세 기사보기 재생목록 연속재생 닫기 제주서부소방서 제공오늘 낮 1시쯤 제주시 한림읍 금능리 앞바다에 승용차가 2미터 아래 바다로 추락했습니다. 이 사고로 관광객인 30대 남성 운전자가 핸들에 얼굴을 부딪혀 다쳤습니다. 경찰은 "차를 잠시 멈췄는데 차가 경사로로 미끄러져 바다에 빠졌다"는 운전자 진술을 토대로 자세한 사고 경위를 조사하고 있습니다. #제주도 #관광객 #바다 #추락 #지역M 가 가 가 해당 기사를 북마크했습니다. 확인 내 북마크 보기 페이스북 트위터 카카오 스토리 카카오톡 밴드 링크 복사 본문 복사 레이어 닫기 이 기사 어땠나요? 좋아요 훌륭해요 슬퍼요 화나요 후속요청 당신의 의견을 남겨주세요 0/300 등록 최신순 공감순 반대순 더보기 이시각 주요뉴스 많이 본 뉴스 MBC 포털 SNS 유튜브 분야별 추천 뉴스 관련 뉴스 인기 키워드 취재플러스 14F 엠빅뉴스</t>
+  </si>
+  <si>
+    <t>제주도, 고용유지지원금 받고 휴직 직원 근무시킨 관광업체 적발 | 연합뉴스 연합뉴스 본문 바로가기 메뉴 바로가기 연합뉴스 최신기사 일시정지 목록 펼치기 국가기간뉴스 통신사 연합뉴스 최신기사 정치 북한 경제 산업 사회 전국 세계 문화 라이프 연예 스포츠 오피니언 사람들 비주얼뉴스 제보 이전 다음 정치 전체기사 대통령실/총리실 국회/정당 외교 국방 북한 전체기사 인물 학술/연구 영상 경제 전체기사 경제/정책 금융 증시 재테크 부동산 취업/창업 소비자 국제경제 산업 전체기사 산업/기업 전기전자 중화학 자동차 건설 에너지/자원 IT/과학 게임 유통/서비스 중기/벤처 바이오/헬스 농림축산 해양수산 사회 전체기사 사건/사고 법원/검찰 교육 복지/노동 환경 여성/아동 재외동포 다문화 전국 전체기사 경기 인천 부산 울산 경남 대구/경북 광주/전남 전북 대전/충남/세종 충북 강원 제주 세계 전체기사 특파원 미국/북미 중국 일본 아시아/호주 유럽 중남미 중동/아프리카 국제기구 문화 전체기사 책/문학 만화/웹툰 종교 공연/전시 학술/문화재 미디어 라이프 전체기사 생활 건강 패션/뷰티 레저 여행/축제 연예 전체기사 방송 영화 가요 해외연예 스포츠 전체기사 야구 축구 농구/배구 골프 오피니언 연합시론 논&amp;설 사람들 전체기사 인사 부고 동정/게시판 CEO 인터뷰 스타트업 발언대 비주얼뉴스 영상 포토 화보 #D 그래픽 재난포털 기사제보 연합뉴스 TV Live 방송 검색창 열기 로그인 로그아웃 정보수정 뉴스 검색어 입력 양식 검색어 검색어 자동 완성 목록 접기 검색 결과 보기 자동완성 기능이 켜져 있습니다. 자동완성기능 켜기 국가기간뉴스 통신사 연합뉴스 제주도, 고용유지지원금 받고 휴직 직원 근무시킨 관광업체 적발 카카오톡에 공유 페이스북에 공유 트위터에 공유 공유 더보기 닫기 카카오톡에 공유 페이스북에 공유 트위터에 공유 카카오 스토리에 공유 페이스북 메신저에 공유 네이버 밴드에 공유 네이버 블로그에 공유 핀터레스트에 공유 댓글 화면 상단으로 이동 뉴스홈 최신기사 제주도, 고용유지지원금 받고 휴직 직원 근무시킨 관광업체 적발 송고시간2021-03-23 14:56 요약 beta 닫기 휴가·휴직 직원의 고용을 유지할 수 있도록 지원금을 받고도 직원들을 불러 일을 하도록 한 관광업체 등이 제주도에 적발됐다. 제주도는 고용유지지원금 부정수급 사업장 점검 결과, 부정행위를 한 도내 16개 업체를 적발했다고 23일 밝혔다. 도 조사 결과 A 업체는 전세버스 기사 10명을 직원으로 둔갑시켜 4개월 가까이 2천830만원가량의 고용유지지원금을 부당하게 수령한 혐의가 드러났다. 요약 정보 인공지능이 자동으로 줄인 '세 줄 요약' 기술을 사용합니다. 전체 내용을 이해하기 위해서는 기사 본문과 함께 읽어야 합니다. 제공 = 연합뉴스&amp;줌인터넷® 공유 닫기 카카오톡에 공유 페이스북에 공유 트위터에 공유 카카오 스토리에 공유 페이스북 메신저에 공유 네이버 밴드에 공유 네이버 블로그에 공유 핀터레스트에 공유 댓글 글자크기조정 닫기 폰트 1단계 14px 폰트 2단계 15px 폰트 3단계 16px (기본설정) 폰트 4단계 17px 폰트 5단계 18px 폰트 6단계 19px 폰트 7단계 20px 인쇄 고성식 기자 기자 페이지 총 16개 업체에 4억6천600만원 환수…7개 업체는 수사 의뢰 (제주=연합뉴스) 고성식 기자 = 휴가·휴직 직원의 고용을 유지할 수 있도록 지원금을 받고도 직원들을 불러 일을 하도록 한 관광업체 등이 제주도에 적발됐다. 제주도청 [제주도 제공. 재판매 및 DB 금지] 제주도는 고용유지지원금 부정수급 사업장 점검 결과, 부정행위를 한 도내 16개 업체를 적발했다고 23일 밝혔다. 도는 이 중 7개 업체를 고용보험법 위반 혐의로 경찰에 수사 의뢰하고 8개 업체에 대해 환수 및 지급 제한 명령을 내렸다. 광고 나머지 1개 업체는 조사 중이다. 전체 환수 금액은 총 4억6천600만원이다. 고용유지지원금은 신종 코로나바이러스 감염증(코로나19)으로 인해 경제적 피해를 본 여행업과 숙박업 등에 대해 직원 고용을 유지할 수 있도록 인건비 일부를 지원하는 제도다. 도 조사 결과 A 업체는 전세버스 기사 10명을 직원으로 둔갑시켜 4개월 가까이 2천830만원가량의 고용유지지원금을 부당하게 수령한 혐의가 드러났다. B 업체는 휴업 신고 후 고용유지지원금을 신청했지만 실제로는 직원들을 사업장으로 불러내 일을 시키는 등 고용보험법을 위반한 의혹을 받고 있다. 도는 추가 부당 수급 사례에 대해 다음 달 23일까지 자진 신고하도록 했으며, 자진 신고 기간에는 부정 수급액의 환수 조치만 하고 부과금을 면제해주기로 했다. 자진 신고 기간이 끝나면 집중 점검을 벌여 단속할 예정이다. 단속 기간 중 적발되면 2∼5배의 추가 징수와 함께 각종 고용보험 지원금 지급 제한 처분이 내려진다. 제주에서는 지난해 4만9천937명을 대상으로 656억9천만원의 고용유지지원금이 지원됐다. koss@yna.co.kr 제보는 카카오톡 okjebo &lt;저작권자(c) 연합뉴스, 무단 전재-재배포 금지&gt; 2021/03/23 14:56 송고 #업체 #고용유지지원금 당신이 함께 보면 좋은 콘텐츠 댓글쓰기 광고 당신이 좋아할 만한 콘텐츠 현장 영상 영상 기사 재생시간 02:58 [영상] 푸틴, 미사일 보복 인정…바이든 "러시아, 비용 치르게 할 것" 영상 기사 재생시간 02:32 [영상] 미 스탠퍼드대학서 성폭행 사건 잇따라 "학교가 책임 회피" 영상 기사 재생시간 02:14 [영상] 젤렌스키, 러 미사일 공격 속 야외서 대국민 메시지 영상 기사 재생시간 02:46 [영상] 러, 우크라 전역에 대규모 보복 공격…70여명 사상·인프라 파괴 영상 기사 재생시간 01:34 [영상] 우크라전 '맹활약' M777 곡사포…'가성비 갑' 평가에 문의 폭주 영상 기사 재생시간 01:25 [영상] 푸틴 보복 시작됐나…"키이우서 미사일 소리 후 수차례 폭발음" 당신이 함께 보면 좋은 영상 광고 광고 핫뉴스 "바위야 호박이야?" 미국서 1.1t 넘는 초대형 호박 수확돼 서울서 50대 권총에 맞아…"극단적 선택 추정" 선우은숙, 4살 연하 아나운서 유영재와 재혼 공효진, 가수 케빈오와 미국 뉴욕서 비공개 결혼 신혜성 소속사 "만취 상태로 본인 차 아닌지도 모르고 운전" 출동 경찰관 가슴 밀치고 상의 흔든 30대, 테이저건 맞고 검거 천연기념물 된 '우영우 팽나무'…배우 정규수, 명예 이장 위촉 '팩맨' 파키아오, 한국 무술가 상대로 12월 복싱 복귀전 광고 많이 본 뉴스 종합 정치 경제 사회 세계 스포츠 연예 이전 다음 선우은숙, 4살 연하 아나운서 유영재와 재혼 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 공효진, 가수 케빈오와 미국 뉴욕서 비공개 결혼 서울 잠원동서 50대 권총에 맞아…극단적 선택 추정 신화 신혜성, 도난차량서 음주측정 거부하다가 체포 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) "남북철도 착공식, 文참석으로 바뀌니…예산 1억→8억대 껑충" 법사위 등 10개 상임위 국감…'유병호 문자' 감사원이 최대 쟁점 "유해를 그토록 찾길 원했는데"…6·25참전 故박태인 경사 김정은 '전술핵부대 훈련' 핵위협 노골화…핵부대 첫 언급(종합) 비트코인 채굴 난도, 사상 최고치 기록…13.55% 급등 심화하는 서울 역전세난…2년 전 시세보다 싼 전세 매물 속출 "택시 연매출 3천만원…9천만원 버는 배달사업자 3분의 1" 판피린·활명수·가그린…'새 옷' 갈아입은 전통의 효자상품 뉴욕증시, CPI·실적 대기 속에 하락…나스닥 1%↓마감 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 서울 잠원동서 50대 권총에 맞아…극단적 선택 추정 신화 신혜성, 도난차량서 음주측정 거부하다가 체포 경북 구미 원룸서 40대 여성 숨져…함께 있던 남성 긴급체포 신혜성 소속사 "만취 상태로 본인 차 아닌지도 모르고 운전" 미 서부 명문 스탠퍼드대학 캠퍼스에서 대낮 성폭행 사건 잇따라 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) 70일만에 공격받은 키이우, 출근길 도심 피투성이에 곳곳 불바다 러 노벨평화상 수상자 "전쟁은 우크라 승리로만 끝날 수 있어" "바위야 호박이야?" 미국서 1.1t 넘는 초대형 호박 수확돼 KLPGA 3년 출장 정지 윤이나, 재심 청구 안 했다…"반성하겠다" 'UCL 무승 끊자' 손흥민, 프랑크푸르트와 홈 경기 득점포 정조준 '팩맨' 파키아오, 한국 무술가 상대로 12월 복싱 복귀전 [전국체전] 황선우, 자유형 200ｍ서 두 번째 금메달…대회 신기록 두산과 작별한 김태형 감독, 5개 구단 제의 가능…태풍 되나(종합) 선우은숙, 4살 연하 아나운서 유영재와 재혼 공효진, 가수 케빈오와 미국 뉴욕서 비공개 결혼 신혜성 소속사 "만취 상태로 본인 차 아닌지도 모르고 운전" 천연기념물 된 '우영우 팽나무'…배우 정규수, 명예 이장 위촉 아슬아슬 수위 높이는 연애 예능…"유해하고 불쾌하다" 반응도 광고 광고 에디터스 픽Editor's Picks 영상 영상 기사 재생시간 01:34 [영상] 우크라전 '맹활약' M777 곡사포…'가성비 갑' 평가에 문의 폭주 영상 기사 재생시간 02:14 [영상] 젤렌스키, 러 미사일 공격 속 야외서 대국민 메시지 영상 기사 재생시간 02:32 [영상] 미 스탠퍼드대학서 성폭행 사건 잇따라 "학교가 책임 회피" 뉴스 학업성취도 자율평가 대상 늘린다…2024년까지 초3∼고2로 확대 '화약고' 감사원 국감, '감사위원 배석' 놓고 오전 내내 파행 러 "서방의 우크라 개입 확대에 적절히 맞대응" 경고 대통령실, 北국지도발 가능성도 염두…"성동격서식 도발할 수도" 北, 저수지·열차서 미사일 쏴…더 어려워진 원점타격·대북감시 광고 댓글 많은 뉴스 정진석 "이재명의 '일본군 주둔설', 안보 망치는 망언" 댓글수 35 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 댓글수 28 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) 댓글수 15 70일만에 공격받은 키이우, 출근길 도심 피투성이에 곳곳 불바다 댓글수 15 "남북철도 착공식, 文참석으로 바뀌니…예산 1억→8억대 껑충" 댓글수 15 광고 뭐하고 놀까?#흥 광고 광고 광고 유튜브 채널 연합뉴스 유튜브채널 통통컬쳐 유튜브채널 통통테크 유튜브채널 통통리빙 유튜브채널 코리아나우 유튜브채널 한반도N 유튜브채널 SNS 연합뉴스 페이스북 연합뉴스 트위터 연합뉴스 인스타그램 뉴스 홈 최신기사 정치 북한 경제 산업 사회 전국 세계 문화 라이프 연예 스포츠 오피니언 사람들 비주얼뉴스 영상 포토 화보 #D 그래픽 테마별뉴스 핫뉴스 톱뉴스 주요뉴스 긴급뉴스 단독뉴스 많이본뉴스 뉴스+ 이슈돋보기 팩트체크 재난포털 날씨 주요신문 톱뉴스/사설 이시각 헤드라인 모바일뉴스 모바일앱 모바일웹 외국어 English 中文 日本語 عربي Español Français 뉴스 상품 프리미엄뉴스 뉴스리더 인터넷맞춤형 보도자료 해외배포 보도자료 국내배포 출판물 이매진 연합연감 영문연감 한국인물사전 단행본 월간 마이더스 광고 KTX 열차 AREX 공항철도 모바일 PC/홈페이지 출판물 콘텐츠 판매 보도사진 이미지 그래픽 동영상 인물 관련사이트 연합뉴스TV 인포맥스 한민족센터 K컬처기획단(K-ODYSSEY) 채용 IR 클럽 #흥 계약사/제휴문의 회사소개 윤리헌장 저작권규약 수용자권익위원회 모바일모니터링위원회 콘텐츠자문위원회 고충처리 이용약관 개인정보처리방침 독자게시판 기사제보(02-398-3000) 사이트맵 연합뉴스 서울시 종로구 율곡로 2길 25등록번호 문화, 나00009등록일자 1980.12.29발행일자 1980.12.29Tel. 02-398-3114 (C) Yonhapnews[대표이사] 성기홍[편집인] 조채희 모바일 버전으로 보기</t>
+  </si>
+  <si>
+    <t>제주도 봄철 행락지 5인 금지…관광명소 특별방역 :: 공감언론 뉴시스통신사 :: 2022.10.11 (화) 서울 15℃ K-Artprice 프라임뉴스 위클리뉴시스 실시간 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 광장 포토 뉴시스 TV 경찰, 대전 현대 아웃렛 참사 관련 현대백화점그룹 본사 압색 [속보]尹 "文정부 폐지한 '학업성취도' 전수 평가 실시" [속보]코스피, 1.78% 하락한 2193.02 출발 [속보]尹, 이재명 '친일'공세에 "핵 위협 앞 어떤 우려가 정당화될 수 있나" [속보]尹 "한미일 안보협력, 비핵화에 유효...핵 통해 얻을것 없다" [속보]尹, 이재명 친일공세에 "국민들이 잘 판단할 것" '출근길 최저 3도' 출근길 기온 뚝…서울 아침 6도 사회 사회최신 사건/사고 법원/검찰 의료/보건 복지 교육 노동 환경 날씨 제주도 봄철 행락지 5인 금지…관광명소 특별방역 등록 2021.03.21 16:41:28 작게 크게 서울·경기 이어 인천·강원·제주 특별방역대책 마련 [서귀포=뉴시스]우장호 기자 = 강한 바람이 불고 있는 21일 오후 제주 서귀포시 표선면 녹산로에 봄의 전령 유채꽃과 벚꽃이 활짝 펴 사람들의 시선을 사로잡고 있다. 봄이 오면 제주 녹산로는 국내 아름다운 길 100선에 선정될 정도로 풍광이 뛰어나다. 기상청에 따르면 이날 제주도는 남부와 추자도를 제외한 모든 지역에 강풍주의보가 발효 중이다. 2021.03.21. woo1223@newsis.com [세종=뉴시스] 임재희 기자 = 봄철 관광객 증가로 인한 코로나19 확산 방지를 위해 제주도는 주요 행락지에 5명 이상 사적모임을 금지하고 야간 경관 조명 운영을 중단한다. 강원도도 사회적 거리 두기 단계별로 행사 인원을 제한하고 전세버스와 숙박시설 등 방역 관리를 한층 강화한다. 21일 중앙재난안전대책본부(중대본)에 따르면 인천시와 강원도, 제주도는 이같은 내용의 '지역별 특별방역대책'을 보고했다. 봄철 관광명소가 많은 제주도와 강원도는 특별 방역대책을 추진한다. 제주도는 방문객 쏠림 현상을 막기 위해 주요 행락지를 대상으로 5인 이상 사적 모임 금지, 마스크 착용, 거리 두기 등 개인별 방역수칙 준수 여부를 집중 점검한다. 봄꽃 개화지 등 밀집, 밀접이 우려되는 주요 행락지에 대해 주정차 단속 구간을 지정하고 불법 노점상 영업 행위를 금지한다. 3~4월 봄철 나들이 기간에는 가로등을 제외한 야관 조명 등 경관 시설물 운영도 중단한다. 마을 단위 소규모 축제 등 방문객 유도행사를 자제하도록 협조 요청을 하고 안전문자·현수막 등을 통해 봄철 나들이를 자제하도록 홍보할 계획이다. 3월 말부터 4월 중순에는 주요 도로변 봄꽃 명소 등 행락객 운집 예상 지역을 중심으로 방역수칙에 대한 점검한다. 유흥시설 총 1374개소(16~29일)와 목욕장업 87개소(17~21일)를 대상으로 핵심 방역수칙 준수 여부 등 현장점검을 하고 있다. 강원도는 관광지 55개소, 봄꽃 축제장 4개소 등 관광명소에 대해선 감염 확산 상황에 따라 탄력적으로 운영한다. 사회적 거리 두기 1단계에는 정상 운영하되 2단계에는 99명, 2.5단계 땐 49명까지 인원을 제한한다. 관광명소 내 밀집·밀접 접촉을 최소화하기 위해 일방통행 활용, 무인 매표소 등을 운영하고 행사장별 방역 요원을 증원하여 대응하는 한편 행락객을 대상으로 발열 체크, 마스크 착용 여부 등을 중점 점검한다. 이용이 늘어날 것으로 예상되는 전세버스에 대해서도 차량운행 전·후 소독, 마스크 착용 등을 수행토록 하고 탑승자 명부 관리, 노래를 부러가나 춤을 추는 소란 행위나 좌석이탈 행위 등 운행 중 이용객 불법행위에 대해서도 관리·감독에 나선다. 강원도 관광명소 인근 다중이용시설과 관광시설에 대해선 이달 25일부터 다음달 12일까지 행락철 방역실태 특별점검을 한다. 관광명소, 숙박시설, 휴게소, 전세버스 등 3만9116곳이 대상이다. 인천시는 이달 28일까지 특별방역대책 기간 봄철 이용이 증가할 것으로 예상되는 다중이용시설에 대해 방역수칙 준수 여부를 점검한다. 중점·일반관리시설 6만3776곳을 대상으로 점검을 하고 위반사항 적발 땐 원스트라이크 아웃 등 엄정 대응한다는 계획이다. 4월4일부터 19일까지는 봄철 벚꽃놀이를 맞아 인파가 몰리는 관내 유원시설과 공원 대상으로도 방역수칙 준수 여부를 점검한다. 인천시는 외국인 거주지(1043명), 육가공업체(1828명), 중고차 수출단지(2324명) 등 외국인 밀집지역을 중심으로 선제검사를 통해 19명의 확진자를 발견한 바 있다. 현재는 10일부터 농축산업·수산업(28일까지), 건설·건축 현장(24일까지) 외국인 노동자를 대상으로 현장점검을 통해 선제검사를 독려하고 있다. 아울러 5명 이상 외국인 노동자 고용 사업주에 진단검사를 권고하고 8개 언어 39명의 통역요원을 배치해 검사를 지원하고 있다. ◎공감언론 뉴시스 limj@newsis.com Copyright © NEWSIS.COM, 무단 전재 및 재배포 금지 뉴시스 기획특집 거래절벽 도미노 태양광 뇌관 터지나 망값전쟁 피플인사이드 "화려한 무대 밖에선 저도 불안한 사람" 싱어송라이터 앤 마리 "BTS의 협업 제안?&amp;nbsp처음엔 못 믿었다" 라우브 뉴시스 PIC 국제사회, 우크라 향한 러의 미사일 공습 규탄 시위 물결 '문자 논란' 유병호 "송구스럽다… 소통은 정상적인 것" 베네수엘라, 재앙 수준의 산사태로 최소 36명 사망 윤석열 대통령 출근길 문답 "북한, 핵으로 얻을 수 있는 것 없어" 이시간 핫 뉴스 장성규 "부모님 재산, 주식으로 날렸다" 재결합설 있더니… 선우은숙, 연하 아나운서와 재혼 '쇼핑몰 대박' 강민경, 65억 건물 매입…"직원 다 울어" 고우석, 바람의 가문에 장가 간다…이종범 딸과 결혼 현미 "유부남인 줄 모르고 임신…돌아가라 하니 방망이 들어" 공효진, 뉴욕 결혼식…절친 정려원·엄지원 참석 김신영에 "넌 보물될 거야" 예언한 전유성 근황 보니 신화 신혜성, 도난차량서 음주측정 거부하다 체포 오늘의 헤드라인 "'학업성취도 평가' 5년만에 부활  기초학력 수준 정밀하게 가린다 5년 전 폐지됐던 학력 전수평가가 사실상 부활한다.기초학력 미달 학생이 늘어나는 현실을 타개하기 위한 고육책이다. 교육부는 11일 국무회의에서 제1차 기초학력 보장 종합계획을 보고했다고 밝혔다. 이번 계획은 올해 시행된 기초학력보장법에 따른 첫 종합 방안으로, 국가가 모든 학생의 기초학력을 보장해야 한다는 법적 책임을 담보하기 위해 마련됐 "軍, 北 저수지 미사일에 "킬체인 의식 궁여지책" "감사원 국감 시작부터 '감사위원 배석' 놓고 파행 "경찰, 대전 아웃렛 화재 관련 현대百 본사 압수수색 "경찰, 이준석 2차 소환…성접대 여부 곧 판단할 듯 "코레일 운영 수도권 역사 절반이 외주…악순환 반복 "소상공인 과태료 최대 70% 감면 추진…법령 정비 "러 외무부 "美, 우크라에 호전적 분위기 조장 말라" 많이 본 기사 종합 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 1선우은숙, 4세 연하 아나운서 유영재와 재혼 탤런트 선우은숙(63)이 아나운서 유영재(59)와 재혼했다. 소속사 스타잇엔터테인먼트는 11일 "선우은숙씨가 좋은 인연을 만나 결혼의 결실을 맺게 됐다"며 "상대는 아나운서 유영재"라고 알렸다. "두 사람은 기독교 신자라는 공통점 아래 신앙과 신뢰를 쌓았다"며 "최근 혼인신고와 양가 상견례를 마쳤다. 새로운 출발에 따뜻한 관심·응원을 부탁드린다"고 했다. 선우은숙은 1978년 KBS 특채탤런트로 데뷔했다. 1981년 탤런트 이영하(72)와 결혼, 26년만인 2007년 이혼했다. 당시 선우은숙은 기자회견을 열고 "나쁜 2신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 3"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 1"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 김정은 국무위원장의 부인 리설주가 한미를 겨냥한 북한군의 대규모 무력 시위 현장에 모습을 드러냈다. 김정은이 미사일 발사 현장에 리설주를 동행시킨 것이 공개된 것은 이번이 사실상 처음이다 노동신문 등 북한 관영 매체들은 노동당 창건 77주년인 10일 김정은이 지난달 25일부터 이달 9일까지 북한군 전술핵운용부대를 비롯해 장거리포병부대·공군비행대의 훈련을 지도한 내용을 사진과 함께 보도했다. 매체는 리설주의 참관 사실을 직접 언급하지는 않았지만, 리설주가 김정은과 나란히 초대형 방사포(KN-25) 발사 훈련을 지켜보는 2'YTN 최대 주주' 한전KDN 사장, 與의 지분 매각 요구에 "하겠다" 3'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 4尹, 이재명 친일공세에 "국민들이 잘 판단할 것" 5尹, 이재명 '친일'공세에 "핵 위협 앞 어떤 우려가 정당화될 수 있나" 1뉴욕증시, JP모건 '경기침체' 경고에 하락 마감…나스닥 1.04%↓ 미국 뉴욕증시 주요 지수는 10일(현지시간) 하락 마감했다. CNBC, 마켓워치에 따르면 이날 뉴욕증권거래소(NYSE)에서 다우존스 30 산업평균지수는 전장보다 93.91포인트(0.32%) 내린 2만9202.88로 거래를 마쳤다. 스탠더드앤드푸어스(S&amp;P) 500 지수는 전장보다 27.27포인트(0.75%) 밀린 3612.39로 장을 닫았다. 기술주 중심의 나스닥지수는 전장보다 110.30포인트(1.04%) 떨어진 1만542.10에 장을 마쳤다. 나스닥 지수는 2020년 7월28일 이후 약 2년 만에 최저치를 2한국인 오늘부터 무비자 일본 관광 시작…항공권 예약 급증 3우크라전 229일, 러 키이우 등 전역 미사일 공습…최소 111명 사상(종합) 4LA 시의회 의장, 인종차별 발언· 욕설로 의장직 사임 5유엔총회, 러 우크라 병합 규탄 결의안 논의 시작…공개투표 결정 1뉴욕증시, JP모건 '경기침체' 경고에 하락 마감…나스닥 1.04%↓ 미국 뉴욕증시 주요 지수는 10일(현지시간) 하락 마감했다. CNBC, 마켓워치에 따르면 이날 뉴욕증권거래소(NYSE)에서 다우존스 30 산업평균지수는 전장보다 93.91포인트(0.32%) 내린 2만9202.88로 거래를 마쳤다. 스탠더드앤드푸어스(S&amp;P) 500 지수는 전장보다 27.27포인트(0.75%) 밀린 3612.39로 장을 닫았다. 기술주 중심의 나스닥지수는 전장보다 110.30포인트(1.04%) 떨어진 1만542.10에 장을 마쳤다. 나스닥 지수는 2020년 7월28일 이후 약 2년 만에 최저치를 2①대한민국, 사람이 없어진다…2030년 '인구지진' 직면 3KB證 "엠게임, 중국서 흥행 중인 '열혈강호 온라인' 주목" 4삼성전자 사들이기 시작한 외국인…분위기 반전될까 5엄빠찬스 증가세…5년간 미성년 임대소득만 2500억 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 강원도가 지급보증한 레고랜드 테마파크 대출 자산유동화기업어음(ABCP)이 결국 부도처리되면서 지방자치단체 보증 프로젝트 파이낸싱(PF) 사업에 비상이 걸렸다. 금융투자(증권)업계에 따르면 레고랜드 테마파크 기반 조성사업을 추진한 강원중도개발공사(GJC)가 필요자금을 조달하기 위해 설립한 특수목적법인(SPC) '아이원제일차'가 부도 처리됐다. 강원도는 GJC의 최대 주주로서 지분 44%를 보유하고 있다. 강원도는 최문순 전 지사 시절 춘천 중도 레고랜드 테마파크 조성 기반 공사를 맡은 강원중도개발(GJC)이 2050억 2신라젠 내일 상폐 여부 결정…16만 개미 '노심초사' 3KB證 "엠게임, 중국서 흥행 중인 '열혈강호 온라인' 주목" 4삼성전자 사들이기 시작한 외국인…분위기 반전될까 5코스피, 1.78% 하락한 2193.02 출발 1정유업계, 원유 감산에 정제마진 올랐어도 실적 '불투명'…왜? 정제마진 악화로 실적부진을 보인 국내 정유업계가 산유국들의 원유 감산 발표로 정제마진에 숨통이 트일 조짐이다. 하지만 경기 침체에 따른 석유제품 수요 감소가 예상돼 하반기 실적의 복병이 될 전망이다. 11일 관련 업계에 따르면 석유수출국기구(OPEC)와 러시아 등 주요 산유국들의 협의체인 '오펙 플러스'는 내달 원유 생산량을 이달보다 하루 평균 200만 배럴 줄이는데 합의했다. 이는 코로나19 이후 지난 3년 간 최대 감산 폭이다. 특히 정제마진이 0달러 또는 마이너스를 기록하며 실적 부진이 극심했던 국내 정유업계는 대 2"우크라이나 삼성 입주 빌딩 파괴 당시 삼성 주재원들 사전 피신" 33분기 국내 주식시장 시총 630조 증발…카카오 '반토막' 4국토부 '스마트 모빌리티 물류 산업전'…기관 50곳 참여 5국민 10명 중 5명 "전기차' 선호"…화재 등 안전문제는 걸림돌 1"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 '손목 위 주치의'를 표방하는 스마트워치의 안전 문제가 수면 위로 부상하고 있다. 11일 외신과 업계에 따르면 최근 국내외에서 애플워치와 갤럭시워치에서 발화, 화상 문제를 경험했다는 주장이 잇달아 제기되고 있다. IT 전문매체 나인투파이브맥에 따르면 최근 한 애플워치7 사용자가 자신의 워치가 과열로 인해 폭발하기 직전의 모습처럼 불이 붙고 연기가 났다고 주장했다. 해당 사용자는 애플워치7을 착용하고 있다가 기기가 비정상적으로 뜨거워짐을 느껴 기기 상태를 확인했는데, 워치에 금이 가있는 것을 확인했다. 급격한 2알테오젠 "불법 공매도 대응 무상증자 결정…금감원 진정서 제출" 3文정부 성과 지우기?…'데이터바우처 지원사업' 예산 삭감 4 '망값 협상'에 통행세 횡포? 구글의 이중잣대 5뷰노, 가정용 심전도 측정 의료기기 식약처 인증 획득 1신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 그룹 신화의 멤버 신혜성(본명 정필교·43)씨가 도난 차량에서 자던 중 발견돼 음주측정을 거부한 혐의로 현행범 체포됐다. 11일 경찰에 따르면 서울 송파경찰서는 이날 오전 1시40분께 서울 송파구 탄천2교 인근 도로에서 도로교통법상 음주측정거부 및 절도 혐의로 신씨를 체포해 조사 중이다. 신씨는 도난 차량 안에서 자던 중 신고를 받고 출동한 경찰관의 음주측정 요구를 거부한 혐의를 받는다. 경찰은 신씨가 타고 있던 차량이 도난 신고가 접수된 것을 확인, 절도 혐의를 추가해 조사 중이다. 해당 차주는 신씨를 알지 2국회 화장실서 60대 기자 쓰러져 병원 이송…심정지 추정 3유명 래퍼, 대학축제서 다이빙하다 추락…"아무도 안 잡아줘" 4조사 거부로 '감사원법 위반' 고발된 文 전 대통령…처벌 가능성 있나 5①대한민국, 사람이 없어진다…2030년 '인구지진' 직면 1부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 경기 부천서 가정불화로 80대 아버지를 흉기로 찔러 숨지게 한 60대 아들이 경찰에 붙잡혔다. 부천 오정경찰서는 존속살해 혐의로 A(60대)씨를 붙잡아 조사중이라고 11일 밝혔다. A씨는 전날 오전 10시18분께 부천시 오정동의 한 빌라에서 아버지 B(80대)씨의 왼쪽 목 부위를 흉기로 찔러 숨지게 한 혐의를 받고 있다. A씨는 범행 후 112에 전화를 걸어 "아버지 B씨를 흉기로 찔렀다"라고 신고했으며 이후 B씨는 119구급대에 의해 인근 병원으로 옮겨졌지만 결국 숨졌다. 회사원인 A씨는 술에 취해 2軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 3연휴 뒤 출근길 아침 10도 이하 '쌀쌀'…큰 일교차 유의 4서울투자청, '국제 M&amp;A' 설명회…"벤처 출구전략 모색" 5인천, 출근길 바람 불어 더 춥다…낮부터 기온 올라 '큰 일교차' 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 강원도가 지급보증한 레고랜드 테마파크 대출 자산유동화기업어음(ABCP)이 결국 부도처리되면서 지방자치단체 보증 프로젝트 파이낸싱(PF) 사업에 비상이 걸렸다. 금융투자(증권)업계에 따르면 레고랜드 테마파크 기반 조성사업을 추진한 강원중도개발공사(GJC)가 필요자금을 조달하기 위해 설립한 특수목적법인(SPC) '아이원제일차'가 부도 처리됐다. 강원도는 GJC의 최대 주주로서 지분 44%를 보유하고 있다. 강원도는 최문순 전 지사 시절 춘천 중도 레고랜드 테마파크 조성 기반 공사를 맡은 강원중도개발(GJC)이 2050억 2'보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 3軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 4"집에 와서 허겁지겁 먹어" 제주 병설 유치원 '매운 급식' 논란 5동료들 보는데 부하직원 엉덩이 때린 간부…결과는 '정직 1개월' 1뮤지컬 '드라큘라', 김진환·유승우 합류...11월 개막 뮤지컬 '드라큘라'가 3년여 만에 돌아온다. 11일 제작사 글로벌컨텐츠에 따르면 '드라큘라'는 11월15일 서울 송파구 올림픽공원 우리금융아트홀에서 개막한다. 1897년 발간된 브람 스토커의 소설이 원작이다. 1995년 체코 프라하에서 초연된 후 독일, 프랑스, 러시아, 스위스, 폴란드, 벨기에, 한국 등에서 공연하며 약 500만명 이상 관객을 동원한 유럽 뮤지컬의 대표작이다. 브로드웨이 뮤지컬과는 차별화된 유럽식 대형 뮤지컬로 죽을 수 없는 형벌을 받은 비운의 남자 드라큘라의 매혹적인 이야기에 감미로운 음악을 더 2‘부산 밤이 보라색으로 물든다’...부산시, BTS 공연 연계 ‘보라해부산’ 조성 3자전거여행·워케이션…MZ취향 담은 관광앱들 두각 4"문화재청 내년 청와대 문화재 보전관리 예산은 '0원'" 5CJ ENM 등 K콘텐츠기업들 스페인서 성과…758억 투자상담 1두산 "구단 방향성 고려, 김태형 감독과 재계약 안해" 두산 베어스가 11일 올 시즌을 끝으로 계약 기간이 만료되는 김태형 감독과 재계약을 하지 않기로 결정했다고 밝혔다. 김 감독은 2015시즌부터 두산 베어스의 지휘봉을 잡아 2022시즌까지 정규시즌에서 645승 19무 485패를 거뒀다. 또한 2015년부터 2021년까지 7년 연속 한국시리즈 진출에 성공했고, 세 차례 한국시리즈 우승을 이끌었다. 두산 베어스 관계자는 "구단 전성기를 이끌어준 김태형 감독의 노고에 감사드린다. 팀의 장기적인 방향성 등을 고려해 이같은 결정을 했다"고 말했다. 두산은 마무리 훈련과 내 2이영표 부회장 "아시안컵 유치, 축구통해 국민 하나로" 3'투타 조화' SSG, 2022년 가장 빛났다…LG 역대급 2위 4진화한 이정후·돌아온 에이스 김광현…2022년 빛낸 스타 5손흥민의 토트넘, '나무 심기'로 故 벤트로네 코치 추모 1선우은숙, 4세 연하 아나운서 유영재와 재혼 탤런트 선우은숙(63)이 아나운서 유영재(59)와 재혼했다. 소속사 스타잇엔터테인먼트는 11일 "선우은숙씨가 좋은 인연을 만나 결혼의 결실을 맺게 됐다"며 "상대는 아나운서 유영재"라고 알렸다. "두 사람은 기독교 신자라는 공통점 아래 신앙과 신뢰를 쌓았다"며 "최근 혼인신고와 양가 상견례를 마쳤다. 새로운 출발에 따뜻한 관심·응원을 부탁드린다"고 했다. 선우은숙은 1978년 KBS 특채탤런트로 데뷔했다. 1981년 탤런트 이영하(72)와 결혼, 26년만인 2007년 이혼했다. 당시 선우은숙은 기자회견을 열고 "나쁜 2신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 3현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 4예비신부 김연아, 한복 화보…"♥고우림이 반할 만" 5공효진, 뉴욕 결혼식…10세 연하 케빈오와 백년가약 이 시간 Top 종합 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 경북대병원 제왕절개, 강원대병원보다 100만원 이상 비싸 권익현 군수, '세계로 웅비하는 부안 대도식 비약' 최선 "다음에 또 만나요" 괴산군, 외국인 계절근로자 환송 [부고]박찬수(한국거래소 파생상품시장본부 상무)씨 부친상 검찰, 자신의 아내 성폭행 오해 동료살해 40대 공무직 징역 24년 구형 제주 사회적경제기업 4곳 중 1곳 제조·도·소매업 국내외 식품안전정보, 조건 제약 없이 검색한다 의정부 행복로서 14일 뷰티 페스티벌 열린다 러 외무부 "美, 우크라에 호전적 분위기 조장 말라" 브이원텍, LG전자와 33억 규모 공급계약 체결 [포천소식] 시, 신재생에너지 융복합지원사업 공모 선정 등 野 "대통령실 새 진입로? 尹, 도어스테핑 피하려는 꼼수" 금감원, 금융사 직원에 '프리패스 출입증' 발급 경북대병원 제왕절개, 강원대병원보다 100만원 이상 비싸 野 "대통령실 새 진입로? 尹, 도어스테핑 피하려는 꼼수" 구인모 거창군수 "더 큰 거창 힘찬도약 다짐" 금감원장 "은행권 경영진, 법률상 내부통제 의무 부과해야" 국민연금 이사장, 수익률 제고 방안에 "운용발전위서 논의" 민주당 광주시당, 10개 상설위 위원장 공모 시민단체 "하계 아시안게임 광주·대구 공동 유치, 공론화부터" 박지원, 강대강 대치 여·야에 "북핵실험 5일 남아…이럴 때 아냐" "SKT 구축 버스 공공와이파이 공유기 교체 비율 유독 높아" '초등 임용합격→발령' 광주 4.8개월·전남 4.6개월…서울 15.6개월 전재수 의원, 행정안전부 특별교부세 9억원 확보 러 외무부 "美, 우크라에 호전적 분위기 조장 말라" 美 철도파업 위기감 다시 고조…노사합의안 반대 57% 연료전지 CATL, 3분기 순익 최대 1.9조원 3배 급증 국제사회, 우크라 향한 러의 미사일 공습 규탄 시위 물결 中, 대만 국경일에도 무력시위…臺국방부장 "中 도발" 9월 중국 승용차 판매량 194만대...전년비 21%↑ 베네수엘라, 재앙 수준의 산사태로 최소 36명 사망 우크라 외무 "푸틴, 우크라에 보복 테러…영토 수복 작전 계속"(종합) 신생아 7명 살해한 '죽음의 천사'…인슐린·공기 주사 주입 BOE 추가 시장 안정대책에도 英 국채 금리 오히려 급등 국제사회, 유엔총회서 러 대규모 미사일 공격 강력 규탄(종합) 이란 석유·가스 노동자들도 반정부 시위 가세…"총성·폭발음 들려" 금감원, 금융사 직원에 '프리패스 출입증' 발급 제주 사회적경제기업 4곳 중 1곳 제조·도·소매업 이엔플러스, 2차전지 양산 설비 반입…공장 완공 박차 국민연금 이사장, 수익률 제고 방안에 "운용발전위서 논의" 美 철도파업 위기감 다시 고조…노사합의안 반대 57% 연료전지 CATL, 3분기 순익 최대 1.9조원 3배 급증 김포-하네다 운항 횟수 2배 증가…30일부터 28회→56회 9월 중국 승용차 판매량 194만대...전년비 21%↑ 시티랩스, 운전면허 명의도용 방지 안면인증 솔루션 도입 올해 태풍에 침수차 2만대…중고차 환불 특약사항 필수 한전 사장 "핵심 해외사업 매각 바람직하지 않아…최대한 지킬 것"(종합) 이복현 "은행권에 금리인하 요구권 개선책 요구" 브이원텍, LG전자와 33억 규모 공급계약 체결 이엔플러스, 2차전지 양산 설비 반입…공장 완공 박차 금감원장 "은행권 경영진, 법률상 내부통제 의무 부과해야" 국민연금 이사장, 수익률 제고 방안에 "운용발전위서 논의" 에스엠, 12~13일 기업설명회 신한투자증권, 해외주식 실전투자대회 개최 현대카드, 인플루언서 대상 '인플카 현대카드' 출시 보험업계, 최근 10년 새 PF대출 10배 증가 한창, 2차전지 장비업체 셀틱 조건부 투자계약 체결 시티랩스, 운전면허 명의도용 방지 안면인증 솔루션 도입 이복현 금감원장, 우리은행 횡령에 "있을 수 없는 일" 씨아이에스, 195억 규모 2차전지 전극공정 장비 공급계약 체결 국내외 식품안전정보, 조건 제약 없이 검색한다 농협조합장선거 앞두고 광주·전남 무자격조합원 6750명 적발 TSMC, 삼성전자 제치고 반도체 매출 '세계 1위' 오른다 롯데제과, 빵빠레 샌드 카스타드 아이스크림 전량 회수 인쇄·복사·스캔 한번에…한국엡손, 스마트 복합기 3종 출시 김대중컨벤션센터서 광주식품대전 개막…13~16일 한화디펜스 첨단 다목적무인차량, 美육군 성능시연 참가 롯데케미칼, 일진머티리얼즈 인수…2.7조원 본계약 체결 토요타 후원 소외계층 오케스트라 연주회 개최 선생님들의 교수법 토론의 장…구몬 '학습연구대회' 성료 "ESG 리스크, 인권·안전 등 이슈 대응에 달려" 김포-하네다 운항 횟수 2배 증가…30일부터 28회→56회 국내외 식품안전정보, 조건 제약 없이 검색한다 카카오게임즈, '가디언 테일즈' 주제 오케스트라 예매 오픈 파수, 문서관리 플랫폼 ‘랩소디’에 저장소 통제 기능 추가 "SKT 구축 버스 공공와이파이 공유기 교체 비율 유독 높아" 美 애브포인트, 에센셜 인수…韓 SaaS 시장 본격 진출 롤러코스터 탔다가 911 부재중전화 왜?…"아이폰14가 구조요청 보내" 팬데믹 기간 전세계 '수면 질' 감소…韓 수면시간 늘었지만 평균 이하 박원재 부원장 "NIA, 지능정보시대 도약 견인차 역할" 경북도, '포스텍 연구중심 의대 설립' 박차… 바이오·의료산업 전문인력 양성 울산대·KAIST, 친환경 초고내구성 아연-공기전지 개발 "韓폭우·美폭염 등 기후위기 현실화"…정부, 과학기술로 해법 찾는다 동탄성심병원, 원격협진시스템 검증…"의료격차 해소" 검찰, 자신의 아내 성폭행 오해 동료살해 40대 공무직 징역 24년 구형 제주 사회적경제기업 4곳 중 1곳 제조·도·소매업 국내외 식품안전정보, 조건 제약 없이 검색한다 '국민은행 강도살인' 첫 재판 내달로 연기…이승만 '일부 혐의 부인' 노상방뇨 지적한 노인 무차별 폭행한 50대 실형 농협조합장선거 앞두고 광주·전남 무자격조합원 6750명 적발 연세대 K-NIBRT사업단, 싸이티바 코리아와 인력양성 등 업무협약 시민단체 "하계 아시안게임 광주·대구 공동 유치, 공론화부터" 경남도교육청, 9급 건축직 경력자 15명 뽑는다 '한동훈 어록집' 출판사 "韓 장관, 말만 하면 확대 재생산...조회수 등 신드롬" 김태우 강서구청장 "경쟁력 키워 잘 사는 도시 만들 것" 울산 청년 여성 10명 중 2.4명 매년 떠나…학업·취업 기회 부족 검찰, 자신의 아내 성폭행 오해 동료살해 40대 공무직 징역 24년 구형 의정부 행복로서 14일 뷰티 페스티벌 열린다 [포천소식] 시, 신재생에너지 융복합지원사업 공모 선정 등 파주시, 12월까지 긴급복지지원제도 확대 지원 고양시, 일산문화공원→'일산문화광장'으로 명칭 변경 ‘인천항 스마트 오토밸리 조성사업’ 운영사업자 선정 재공모 추진 이동환 고양시장 "국토부 1기 신도시 정비사업 로드맵 환영" 김태우 강서구청장 "경쟁력 키워 잘 사는 도시 만들 것" [화성소식] 시, U-만성질환관리센터 무료 심전도검사 등 진행 등 돌아온 마포나루 새우젓축제…"김장·콘서트 즐겨요" "용돈 주마" PC방서 여고생 2명 유인·추행한 40대 입건 화성 반려문화 축제 15일 개최…시민 참여·체험형으로 경북대병원 제왕절개, 강원대병원보다 100만원 이상 비싸 "다음에 또 만나요" 괴산군, 외국인 계절근로자 환송 제주 사회적경제기업 4곳 중 1곳 제조·도·소매업 '국민은행 강도살인' 첫 재판 내달로 연기…이승만 '일부 혐의 부인' 제9대 대구시의회 개원 100일…"선진 정책 의회 지향" 민주당 광주시당, 10개 상설위 위원장 공모 농협조합장선거 앞두고 광주·전남 무자격조합원 6750명 적발 '행사 취소에 환불 않고 추가입장'…세계군문화엑스포 '물의' 시민단체 "하계 아시안게임 광주·대구 공동 유치, 공론화부터" 해남군, 농식품부 '가루쌀 교육·컨설팅사업' 5개소 선정…전국 최다 세계지방정부연합 총회 개막…14일까지 이어져 충북, 전화금융사기 피해건수·금액 갈수록 동반 상승 "수계식·다비식때 왜 사진기 들이대냐 핀잔 들었는데...지금은 보물" 마산국화축제장에 국내 최장 200m 국화터널 만든다 3년 만에 돌아온 부산자갈치축제…13일 개막 2022경기국제웹툰페어 폐막, 관람객 2만2795명 방문 수원시 선정 아름다운 가을명소…광교산 수변 산책로 등 10곳 소개 "고궁 수유실, 男 이용제지 차별"…문화재청, 시정 조치 박보균 장관 "한미동맹, 문화로 새 지평"…美·멕시코 출장 3년 만의 동래읍성역사축제, 올 가을 다시 만난다 강경젓갈축제, '젓갈과 상월고구마'가 만나 '풍성' 서울예술교육 16년을 한눈에… 2022 예술교육축제 개최 "문화재 도난 15년간 100% 증가 특사경은 14명 불과" 전남도, 문화재 보수 국비 469억 확보…전년대비 110억 증가 김주형은 될성부른 나무…한국 무대서도 최연소 기록 KPGA 김한별, 골프채 부러뜨리고 캐디에 폭언…상벌위 회부 '이경규가 간다' 잇는다…'안정환의 히든 카타르' 편성 김승기 캐롯 감독, 가입비 미납에 "제가 말씀드릴 입장 아니다" 두산 "구단 방향성 고려, 김태형 감독과 재계약 안해" [백보드]허웅 vs 두경민 등 새 시즌 라이벌 열전 "따라올 테면 따라와 봐"…프로농구 10개 구단 감독 출사표 '2년차' 스트라이더, 애틀랜타와 최대 7년 1320억원 계약 2022~2023시즌 프로농구 타이틀스폰서에 SK텔레콤 '복싱영웅' 파키아오 메타버스로…"아바타로 팬과 소통" 'WC 출루율 5할' 김하성, 디비전시리즈서도 펄펄 날까 KBL '가입비 미납' 캐롯에 최후통첩…"13일까지 내라" 美 래퍼 더 게임, 국내 공연 앞두고 일방적 불참 통보 조성하 "결혼할 때 쥐뿔도 없었다…母도 말려" 클라씨, 컴백 카운트다운…'데이 앤드 나이트' 일정 공개 '이경규가 간다' 잇는다…'안정환의 히든 카타르' 편성 케플러, 첫 팬미팅 성료..."더 많이 못해줘서 미안" 이지현, 이혼소송 두번으로 보낸 30대…"부모님께 나는 죄인" 박시은♥진태현, 아픔 딛고 일터 복귀…"오랜만에 광고 촬영" '진검승부' 도경수·김상호, 본격 라면 독대…아웅다웅 케미 공효진, 뉴욕 결혼식…절친 정려원·엄지원 참석(종합) '복싱영웅' 파키아오 메타버스로…"아바타로 팬과 소통" '스맨파' 2번째 탈락 크루는 누구?…메가 크루 미션 후반전 시작 (여자)아이들 '아이 러브', 선주문 70만장 돌파 많이 본 기사 1신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 2국회 화장실서 60대 기자 쓰러져 병원 이송…심정지 추정 3유명 래퍼, 대학축제서 다이빙하다 추락…"아무도 안 잡아줘" 4조사 거부로 '감사원법 위반' 고발된 文 전 대통령…처벌 가능성 있나 5[창사기획-인구절벽]①대한민국, 사람이 없어진다…2030년 '인구지진' 직면 6부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 7'보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 1선우은숙, 4세 연하 아나운서 유영재와 재혼 2신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 3"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 6예비신부 김연아, 한복 화보…"♥고우림이 반할 만" 7공효진, 뉴욕 결혼식…10세 연하 케빈오와 백년가약 기자수첩 국내 의약품 허가심사 수수료 인상의 당위성 식품업계 가격 줄인상 불편한 3가지 이유 피플 김진부 경남도의회 의장 "행정통합 공감하나 실현 힘들 것" 박완수 경남지사 "행정통합, 정치권 결단·주민 의지로 가능" 세상에 이런 일이 검찰, 자신의 아내 성폭행 오해 동료살해 40대 공무직 징역 24년 구형 "용돈 주마" PC방서 여고생 2명 유인·추행한 40대 입건 '보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 '스토킹하고 음란 영상 보여주고' 30대 남성 징역 6개월 쏠쏠정보 명품도 '중고거래'…판매자 된 나, 이것 반드시 지켜라[알아봅시다] '독감주사 맞자' 언제?…11월 중순·오후 3시 이전, 월화수[알아봅시다] 3년 만에 열리는 '여의도 불꽃축제'…교통통제는 어디? "마음 튼튼해지는 950가지 방법"…궁금하면 이곳 클릭 "저축성보험은 예·적금과 달라"…금감원, 소비자 유의 당부 서비스 전체보기 뉴스 실시간 정치 국제 경제 금융 산업 사회 수도권 지방 문화 IT·바이오 스포츠 연예 포토 뉴시스 TV 광장 기자수첩 스토리칼럼 아트클럽 기고 인터뷰 기획특집 섹션코너 데일리뉴시스 인사 부고 동정 포토·영상 국내사진 영상 해외사진 테마포토 그래픽 패밀리사이트 프라임뉴스 위클리뉴시스 모바일앱서비스 Android IOS 제휴사 AP통신 新華通訊 회사소개 광고 · 제휴 문의 제휴사 안내 콘텐츠 판매 저작권 규약 고충처리 기사제보 이용약관 개인정보 · 청소년보호정책 개인정보처리방침 알립니다. 대표이사 : 김형기 주소 : 서울 중구 퇴계로 173 남산스퀘어빌딩 (구 극동빌딩) 12층 사업자등록번호 : 102-81-36588 발행인 : 김형기 편집인 : 김형기 고충처리인 : 박상권 통신판매업신고 : 서울중구 0398호 문의 02-721-7400 webmaster@newsis.com 뉴시스의 모든 콘텐츠는 저작권법의 보호를 받는 바, 무단 전재ㆍ복사ㆍ배포를 금합니다. Copyright © NEWSIS.COM All rights reserved. 99+</t>
+  </si>
+  <si>
+    <t>제주도, 올해 상반기 제주관광진흥기금 특별융자 추천 완료 - 전국 &gt; 기사 - 더팩트 HOME &gt; NEWS &gt; 전국 &gt; 제주 제주도, 올해 상반기 제주관광진흥기금 특별융자 추천 완료 입력: 2021.03.22 17:44 / 수정: 2021.03.22 17:44 제주도는 2021년 상반기 제주관광진흥기금 융자추천 대상을 총 381개 업체, 671억원 규모로 확정했다고 22일 밝혔다. / 제주도 제공 추천서 381건, 총 671억원 발급...경영안정자금 오는 6월 30까지 대출 실행[더팩트｜제주=문형필 기자] 제주도는 2021년 상반기 제주관광진흥기금 융자추천 대상을 총 381개 업체, 671억원 규모로 확정했다고 22일 밝혔다.제주도는 지난 16일 제주관광진흥기금 운용심의위원회를 개최해 이 같은 내용을 심의·의결했다.이번 특별융자는 당초 2000억 규모로 관광사업체 경영안정자금과 개보수 자금을 지원 계획됐으나 총 395건, 690억원이 접수됐고, 그 중 381건, 671억원의 추천서가 발급됐다.미발급 된 추천서는 14건 19억원으로 타 기금 중복 지원 등의 사유로 제외됐다.추천서 발급결과 총 신청건수의 96.45%, 신청금액의 97.39%로 신청 업체 대부분이 제주관광진흥기금 추천 대상이 됐다.업종별로는 여행업 105건 77억원(11%), 관광숙박업 44건 201억원(30%), 일반숙박업 23건 26억원(4%), 렌트카 51건 98억원(14%), 전세버스업 53건 46억원(4%), 관광식당업 21건 30억원(14%) 등이 추천서가 발급됐다.제주도는 코로나19로 인해 관광사업체 경영난이 가속화됨에 따라 1월 25일부터 조기 접수 시작, 많은 관광사업체 혜택을 받을 수 있도록 기존 2월말까지였던 접수기간을 3월 12일까지 2주간 연장했다.지난해 관광사업체 매출이 평년 대비 대폭 감소한 만큼 올해는 코로나 이전 3개년 평균 매출액 기준으로 융자금 지원규모를 선정했다.또한 담보능력이 부족해 대출이 어려운 전세버스업체 자금난 해소를 위해 전세버스 특례보증 추천서 26건 7억8000만 원을 발급하는 등 관광업계 어려움을 해소하기 위해 노력했다.융자 추천대상자로 선정된 업체는 제주도내에 소재한 제주관광진흥기금 융자협약 금융기관을 방문해 신청하면 된다.다만, 경영안정자금은 오는 6월 30일까지, 시설 개·보수 자금은 8월 31일까지 대출을 실행해야 한다.김재웅 도 관광국장은 "코로나19 장기화와 사회적 거리두기 집합제한으로 위기에 처한 관광업계의 경영난을 조금이나마 덜어 줄 수 있기를 기대"한다고 했다.이어, "융자 지원 제도개선 등을 통해 도민들이 실질적인 혜택을 받을 수 있도록 기금운용 정책을 발굴해 지속 추진하겠다"고 덧붙였다.한편, 도는 지난해 1679개 업체, 2069억원을 융자 추천한 바 있다.hyejun@tf.co.kr 발로 뛰는 &lt;더팩트&gt;는 24시간 여러분의 제보를 기다립니다. ▶카카오톡: '더팩트제보' 검색 ▶이메일: jebo@tf.co.kr ▶뉴스 홈페이지: http://talk.tf.co.kr/bbs/report/write - 네이버 메인 더팩트 구독하고 [특종보자▶] - 그곳이 알고싶냐? [영상보기▶] AD 인기기사 실시간 TOP10 정치 경제 사회 연예</t>
+  </si>
+  <si>
+    <t>미디어제주 × 전체기사 뉴스 전체 정치 경제 사회 문화 교육 스포츠 사람들 포토뉴스 Advertorial section 기획특집 전체 생생스포츠현장 박물관, 그리고 제주 이야기 이사람 이주민, 그들을 말한다 다 함께 사는 세상 해외 특파원 보고 교육! 학교 현장 기획특집 미디어누리 전체 어린이기자 시민기자 청소년기자 오피니언 전체 미디어窓 미디어칼럼 건강칼럼 기고 미디어TV 전체 영상뉴스 UCC동영상콘테스트 유치부축구대회 시정가이드 전체 제주시 서귀포시 최종편집 2022-10-11 14:45 (화) 로그인 회원가입 모바일웹 전체 뉴스 전체기사 정치 경제 사회 문화 교육 스포츠 사람들 포토뉴스 Advertorial section 기획특집 박물관, 그리고 제주 이야기 이사람 다 함께 사는 세상 해외 특파원 보고 교육! 학교 현장 미디어누리 어린이기자 시민기자 기사쓰기 오피니언 미디어窓 미디어칼럼 건강칼럼 기고 행사 유치부 축구대회 아름다운 동행 기사검색 검색 S2N3 이전 다음 “제주도-롯데관광개발 짬짜미 의혹” 감사 청구 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 뉴스 사회 “제주도-롯데관광개발 짬짜미 의혹” 감사 청구 홍석준 기자 승인 2021.03.23 13:52 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 제주참여환경연대, 23일 제주도감사위원회에 감사 청구 접수 제주참여환경연대와 제주도와 드림타워 사업자인 롯데관광개발의 유착 의혹과 관련, 제주도감사위원회에 감사를 청구했다. 사진은 제주 드림타워 복합리조트 전경. /사진=롯데관광개발㈜ [미디어제주 홍석준 기자] 제주참여환경연대가 드림타워 카지노 사업자인 롯데관광개발과 제주도의 유착 의혹을 제기하고 나섰다. 카지노산업 영향평가서 작성을 위한 도민 의견수렴 과정과 관련, 롯데관광개발측이 제주도의 지침이 제정되기도 전에 도민 의견수렴을 위한 조사를 진행한 것으로 드러났다는 이유에서다. 특히 참여환경연대는 사업자측이 지난달 23일 ‘도민 의견수렴 조사가 제주도 지침에 따라 진행됐다’고 해명한 것을 두고 “스스로 제주도정과 유착 의혹을 실토하기에 이르렀다”면서 롯데관광개발과 제주도 관광국 카지노정책과의 유착 의혹에 대해 제주도감사위원회에 감사를 청구했다고 23일 밝혔다. 참여환경연대는 감사 청구서에서 사업자측이 지난 2월 24일 보도자료를 통해 카지노산업 영향평가서 작성 항목 중 하나인 도민 의견조사 조작 의혹을 해명하는 과정에서 ‘도민의견 수렴 방식도 제주도 지침에 따라 진행하도록 돼있었다’고 밝히면서 ‘제주도에서 정한 도민의견 수렴방식은 ①공인된 전문 설문조사 기관에 의뢰하여 ②지역사회에 미칠 영향에 대해 제주도에서 확정한 16개 항목을 설문지로 구성하고 ③600표본(노형동 주민 300명, 제주 도민 300명) 이상을 조사하며 ④도민의 알권리를 충족시킬 수 있도록 의견 수렴 전에 주민 설명회, 언론 홍보 등을 할 수 있도록 했다’고 해명한 내용을 그대로 청구 사유에 적시했다. 도민 의견조사 시기와 관련해서도 롯데관광개발이 코로나19 대규모 확산과 제주도의 사회적 거리두기 방침 때문에 대규모 주민 설명회 설문 계획을 취소하고 1대1 길거리 대면 설문과 소규모 주민 설명회로 변경, 지난해 3월 21일부터 27일까지 일주일간 도민 661명을 대상으로 설문조사를 진행했다고 밝힌 내용을 전했다. 하지만 이와 관련 제주참여환경연대는 “제주도 홈페이지와 도 카지노정책과 담당 주무관에게 지난 3월 16일 확인한 결과 롯데관광개발이 도민 의견수렴을 위해 따랐다는 제주도의 ‘카지노산업 영향평가 심의위원회 구성 및 운영 지침’은 사업자가 도민 의견조사를 시작한 2020년 3월 21일로부터 사흘 후인 2020년 3월 24일 제정된 것을 확인했다”고 밝혔다. 제주참여환경연대가 “어떻게 도민 의견조사 방법이 상세히 나와있는 제주도의 지침이 제정되기도 전에 사업자가 해당 지침에 따라 도민 의견조사를 먼저 진행할 수 있느냐”는 의혹을 제기한 이유가 여기에 있다. 이에 대해 참여환경연대는 “결국 제주도가 카지노산업 영향평가와 관련해 사업자인 롯데관광개발과의 사전 조율 및 유착을 통해 절차가 진행됐다고밖에 볼 수 없다”고 지적했다. 이같은 의혹 제기에 대해 제주도는 ‘이미 지난 2019년 12월 21일자로 카지노업 관리 및 감독에 관한 조례와 시행규칙이 제정됐고, 조례 및 시행규칙에 영향평가 작성 방법과 영향평가 세부 항목 등이 규정돼 있어 이를 근거로 여론조사를 실시하게 됐던 것’이라고 해명했다. 하지만 참여환경연대는 이에 대해 “도 카지노정책과가 말하는 ‘조례 및 시행규칙’에는 카지노산업 영향평가 주민 의견조사에 대한 조사 방법과 조사 내용, 표본의 수, 공청회 가능 여부 등이 명시돼 있지 않다”면서 “조례와 시행규칙을 보고 해당 주민 의견조사가 가능하다는 제주도의 해명은 거짓이 명백하다”고 도의 해명 내용을 정면 반박했다. 이에 더해 롯데관광개발은 2월 24일 보도자료를 통해 밝힌 해명 내용에 대한 말을 바꿔 지난 3월 21일 ‘도민 의견수렴과 관련한 전체 과정은 2019년 5월 제주도가 진행한 ‘제주 카지노산업 영향평가 제도 마련을 위한 연구’ 최종 보고서와 2019년 12월 31일 공표한 시행규칙에 따라 철저하게 따랐다’고 말을 바꿨다. 참여환경연대는 이에 대해 “참여환경연대의 문제 제기를 피하기 위해 두 차례의 해명에서 다른 자료를 보고 여론조사를 실시했다고 주장하고 있는 것”이라고 거듭 의혹을 제기했다. 이어 참여환경연대는 “최종 용역 보고서를 보고 도민 의견수렴 절차를 진행했다는 사업자의 해명도 조악하기 짝이 없다”고 지적했다. 용역은 그야말로 제주도의 조례 제정과 절차에 참고하기 위한 사전 조사로, 어떠한 법적 구속력도 없고 심지어 용역 보고서의 내용 그대로 카지노산업 영향평가가 구성되지도 않았기 때문이다. 이에 참여환경연대는 “사업자의 이같은 말바꾸기는 단지 상황을 모면하기 위한 속임수에 불과하다”며 “카지노 대형화에 대해 도민 신뢰를 얻기 위해 제주도가 전국 최초로 시행했다는 카지노산업 영향평가가 결국 사업자와 제주도정의 유착 의혹으로까지 번지는 것은 제주도민을 기만하는 것을 넘어 도민의 삶의 질을 우선 책임져야 할 행정이 그 본연의 임무를 방기하는 있을 수 없는 일”이라고 문제를 제기했다. 저작권자 © 미디어제주 무단전재 및 재배포 금지 홍석준 기자 다른기사 보기 관련기사 제주도 드림타워 내 초대형 카지노 이전 허가 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 댓글입력 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 실시간 댓글 동굴 몇개 살리자구 하수처리장 이전하면 그돈은 니그들이 낼거냐 일본 후쿠시마 원전페수 방수하는데가서 아주 죽 욱 살면서 대모혀라 실제 월정리 주민들은 그간 동굴과 하수처리장 문제로 골머리를 앓고 있어 새로운 동굴이 발견되면 보호구역 확대에 의한 토지 수용이나 제한으로 재산상 손해가 생길까봐 동굴이 없는게 오히려 좋겠다는 분들도 계십니다. 월정리가 동굴마을로 지정되어 제한만 할께 아니라 하수처리장 철거로 완전한 동굴보호 마을의 역할을 하게해서 마을에 실질적 도움이 될 수 있는 조처도 취해져야 합니다 오늘 강순석 제주지질연구소장님의 새로운 본류 동굴 존재 할 수 있다는 기자회견은 다년간 지질연구하시면서 현장에서 느끼는 전문가의 촉이 있으신것 같습니다. 제주의회 정밀탐사 촉구도 있었으니 하수처리장 존재에 영향을 받지 않을 학술적 가치에 중점인 정밀 지질 탐사가 다시 이루어지기를 기대해 봅니다. 2009년 이후 탐사기법도 더욱 발전 했으니 더 정밀한 탐사가 가능할 것 입니다. 월정리는 만장굴. 사굴과도 마을 경계상에 위치해 있고 그 밑으로 용천굴. 당처물 동굴. 남지미 동굴이 계속 발견되었는데 올 6월에는 제주 의회에서도 정밀 탐사가 필요하다는 의견이 있었습니다만 구체적 탐사 움직임은 보이지 않는것 같습니다 2007년 탐사 ~2009년 보고서는 매우 과학적 동굴탐사인 지표투과 레이더 탐사도 했다지만 그 당시 현장을 지켜본 마을분 증언에 의하면 하수처리장 근처로는 탐사를 회피하는 듯 했다고도 합니다. 지금까지 과정을 보면 보호구역도 하수처리장 경계로 갑자기 2구역에서 4구역으로 완화되게 설정되어 있습니다. 문제의 하수처리장 보호를 위해 안간힘을 써 온것 같은데 하수처리장 철거가 되어야 동굴 탐사도 객관적으로 학술적으로 실제적으로 가능한게 아닌가 의구심을 가져 봅니다 가장 많이 읽은 기사 1제주시, 청년월세 월 20만원씩 최대 12개월 지원 2일상의 배려, 성숙된 시민의식 빛낸다. 3서귀포시, 올해 교통유발부담금 21억 원 부과 4‘2022 Trans Jeju 국제 트레일러닝대회’ 성황리에 폐막 5&lt;정정보도&gt; 해수부 규정 어긴 영상 공모전 입상 의혹, 사실 아닌 것으로 확인 6코로나19 이후 큰 폭 증가 제주 실업자수, 점차 회복세 7최고가 다투는 제주 휘발유 값, 제주도 2차 민간조사 돌입 SPONSORED 신문사소개 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 중앙로 270-1 5층(이도이동, 백두빌딩) 대표전화 : 064-725-3456 팩스 : 064-725-3458 명칭 : (주) 미디어제주 제호 : 미디어제주 등록번호 : 제주 아 01003 등록일 : 2005-10-17 발행인 : 고승영 편집인 : 고승영 청소년보호책임자 : 고승영 미디어제주 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 미디어제주. All rights reserved. mail to mediajeju@mediajeju.com 위로</t>
+  </si>
+  <si>
+    <t>제주도, 관광개발사업장 사업추진실태 점검 &lt; 자치행정 &lt; 정치행정 &lt; 기사본문 - 제주도민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 전체 뉴스 정치행정 생활경제 사회 교육 문화 스포츠 오피니언 데스크논단 기고 기자수첩 칼럼 기획·특집 인터뷰 기획·분석 지난기획/분석 도민광장 일과 사람들 인물 시민기자 열린광장 공지사항 facebook twitter kakaostory e-mail 검색버튼 네이버 뉴스스탠드 기사검색 검색 로그인 회원가입 최종편집 : 2022-10-11 14:20 (화) 본문영역 이전 기사보기 다음 기사보기 제주도, 관광개발사업장 사업추진실태 점검 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 정치행정 자치행정 제주도, 관광개발사업장 사업추진실태 점검 기자명 진순현 기자 입력 2021.03.22 11:42 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 투자실적·고용실태·지역건설업체 참여율 등 승인조건 확인 제주도가 도내 대규모 관광개발사업장 사업추진실태 점검에 나선다. 제주특별자치도는 대규모 관광개발사업장을 대상으로 투자실태, 고용실태 등 사후관리 차원에서 전반적인 사업추진 실태를 점검한다고 22일 밝혔다. 점검대상은 도내 대규모 관광개발사업장 43개소(운영 중인 사업장 36곳, 공사 중인 사업장 7곳)이며 관광개발사업장이 23개소, 유원지가 20개소이다. 제주도는 상·하반기 2회에 걸쳐 투자실적과 도민 고용 및 지역건설업체 참여 실적 등 개발사업 시행 승인 시 부여된 승인조건의 이행여부를 중점적으로 확인한다. 추진실적은 상·하반기에 홈페이지를 통해 공표할 계획이다. 이를 통해 지역 업체 생산자재나 물품, 지역 농수축산물 등을 구매토록 해 실질적으로 지역주민의 소득과 연계돼 지역경제 활성화로 이어지는 토대가 될 것으로 기대하고 있다. 도 관계자는 “앞으로도 정기 점검을 통해 지역주민과 관광객 만족도를 높이는 지속가능 관광개발, 지역과 상생발전을 도모하는 사업추진이 이뤄질 수 있도록 대규모 개발사업장에 대한 관리체계를 강화해 나갈 방침”이라고 밝혔다. 진순현 기자 jinjin3808@naver.com 다른기사 보기 저작권자 © 제주도민일보 무단전재 및 재배포 금지 당신만 안 본 뉴스 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 제주에서 드론으로 4일간 피자 배달나서 혈세 투입 ‘제주도 법정계획’...타 지자체 용역 그대로 베껴 이선화 ICC 사장 후보자, 자질 부족 속 청문 결과 ‘적격’ 해외입국자 입국 1일차 PCR 의무검사 중단 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ 국힘 제주도당 "이선화 임명은 吳도정 인사참사" '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 투자유치 희망 기업 JDC 파트너스데이 개최 제주개발공사 주최 ‘제12회 제주물 세계포럼’ 개막 제주관광공사 "메타버스에서 만나는 제주 "크리에이터 공모전 제12회 아시아기후변화교육센터 국제워크숍 개최…10월 6일 오늘의 주요뉴스 [자치행정] ‘15분 도시 제주’ 상상이 현실로...멘토에게 묻다 [경제일반] 제주에서 드론으로 4일간 피자 배달나서 [사회일반] 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ [관광] 7일 시작된 한글날 연휴, 제주 찾는 행렬 18만명 넘어 [정치일반] 다목적 헬기 한라매, 골든타임 확보로 도민 안전 지킴이 "톡톡" 제주향토자원이야기Ⅶ 불교의 상징 보리수나무…심혈관계 개선 '약재' 효과 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 마을 지켜주던 신목 '생달나무'…약재·건축자재 활용 다양 관절 특효 '쇠무릎'…닭발과 환상 콜라보 흔하디 흔한 잡초 '쇠비름'…효능만은 '만병통치약' 제주 들녘에 흔한 '엉겅퀴'…음주전후 숙취해소 '탁월' 백숙에 넣는 음나무…한약재·길상목 넘어 향장산업 '노크' 한의학서 보약 제주광나무, 향장 원료 '발돋움' 사건사고 한림읍 월령리 게스트하우스서 화재 애월읍 광령리에서 창고 화재 한림서 수영 중 파도에 떠밀려가던 男 구조 조천읍 함덕에서 숙박시설 화재 서귀포 비닐하우스 화재…인명피해 없어 인기뉴스 댓글많은기사 실시간댓글 1 제주에서 드론으로 4일간 피자 배달나서 2 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ 3 40년 만 미국 덮친 인플레이션...제주경제 돌파구는? 4 제주시, 투기 목적 농업법인에 “칼 빼” 5 제주지방기상청, 9월 태풍 폭우로 얼룩져…고온 동반 6 ‘1인 40만원’ 제주 어업인수당 11월 지급 7 7일 시작된 한글날 연휴, 제주 찾는 행렬 18만명 넘어 8 ‘금호건설 컨소시엄’ 제주하수처리장 현대화사업 첫 우위 9 ‘대한민국 드론 메카’ 제주서 드론산업 발전방안 논의 10 내달 24일부터 1회용품 종이컵, 빨대 등도 제공·사용금지 1 다목적 헬기 한라매, 골든타임 확보로 도민 안전 지킴이 "톡톡" 2 ‘15분 도시 제주’ 상상이 현실로...멘토에게 묻다 3 제주시 3층 상가건물 화재…전기적 요인 추정 4 “오영훈 취임 100일 기자회견, 미래도 희망도 보이지 않아” 5 제주시, 투기 목적 농업법인에 “칼 빼” 6 ‘1인 40만원’ 제주 어업인수당 11월 지급 7 제주에서 드론으로 4일간 피자 배달나서 8 ‘경유·휘발유 값’ 전국서 가장 비싼 곳은 ‘제주도’ 1 조사 발표하면 싸집니까 ? 도 홈페이지를 방문해서 확인하는 사람이 몇명이나 있을까요 ? 2 악수하면 처 웃을ㄸㅐ냐 민개당아 지역 경제 좀 활성화 시켜라 ㅅㅂ 3 공항건설도 거부한 민주당 놈에게 바랄걸 바래라 4 신공항이나 만들어라 하는짓 보면 개 가 굴러가며 웃겠다 5 제2공항건설하여 서귀시민 불편해소하자 비행기타러 제주공항갈때는 욕이절로나온다 6 개소리 설레발 떨지말구 효과없이 불필요한 "과속방지턱" 이나 절반 없애라 그래야 차두 안망가지고 사고도 덜난다 선진국에서 는 방지턱 없애는것이 추세다 자슥아 7 이제 하늘도 안심할 수 있는 공간이 아닌건가... 웽웽웽..... 언제 떨어질지 몰라 이리저리 피하느라 힘들것네. 제주날씨 11일 제주, 당분간 쌀쌀해…한라산에는 서리 내려 ::: 지난기획 / 분석 ::: 문근식칼럼 한라대기획 제주향토자원이야기Ⅰ 제주향토자원이야기Ⅱ 제주향토자원이야기Ⅲ 제주향토자원이야기Ⅳ 제주향토자원이야기V 제주향토자원이야기Ⅵ 제주특성화고 알암수과 특성화고 2019다문화가정 제주 바로알기 JDC와 함께하는‘지역마을 공동체 JDC와 함께하는 제주형국제자유도시 좌승훈 칼럼 jeju&amp;joy 창간1주년 특집 10대 뉴스 신년 특집 창간2주년 특집 Photo 에세이 제주체육, 이제는 달라져야 한다 당신의 오늘은 어떻습니까 생생교육 환경자산, 제주의경쟁력 스마트그리드 미래 국제자유도시 10년 질좋은 일자리가 희망 리스타트 하천파괴 온난화 바다의 경고 지역신문 위기와 기회를 말한다 제주생활사 이삭줍기 인권을말하다 제주미래 성장동력을 찾아라 제주 속 제주사람들 오늘 이사람 재능기부 꿈틀 20대 이정원의 영화는 맛있다 주민참여예산제도가 답이다 동행 아이스 심포니 월드를 말한다 사랑의 프로보노 추억의 제주섬 예술사 월요일에 만난 사람 바이오 산업 한미 FTA 쉽게 보는 (제주의)신+재생에너지 건강한식탁 로컬푸드 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 제주특별자치도 제주시 백포남길 6-1 Tel : (064)744-9494 Fax : (064)744-9497 e-mail : domin@jejudomin.co.kr 발행인 : 성일승 편집인 : 진순현 사업자등록번호 : 616-86-06273 인터넷신문사업등록번호 : 제주 아-01046 창간일 : 2010-06-05 등록일 : 2013-06-19 청소년보호책임자 : 진순현 Copyright © 2022 제주도민일보. All rights reserved. mail to domin@jejudomin.co.kr 위로 전체메뉴 전체기사 정치행정 전체 정치일반 이슈 자치행정 6.1지방선거 생활경제 전체 경제일반 관광 농수축산 이슈 생활일반 2019조합장선거 사회 전체 사회일반 국제 복지 이슈 날씨 교육 전체 교육일반 대학 이슈 문화 전체 문화일반 전시·공연 BooK 이슈 축제 연예 전체 방송/연예 스포츠 전체 이슈 스포츠일반 오피니언 전체 데스크논단 기고 기자수첩 칼럼 기획·특집 전체 인터뷰 기획·분석 지난기획/분석 도민광장 전체 공지사항 열린광장 자유게시판 일반기고 일과 사람들 민원 119 인물 주민제안창구 시민기자 포토 전체 정치 생활경제 자치행정 사회 교육 문화 스포츠 국제/연예 오피니언 해군기지 제92회 전국체육대회 국제 화보 4·3 제주해녀 4·11총선 사진으로 보는 추억의 제주 독자공감 시정뉴스 전체 제주시 서귀포시 Today 전체 행사 화촉 부고 제2공항 전체 지역마을시선 행정당국시선 시민사회시선 이모저모 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>관광전망 밝은 제주도…금융권 특화상품 봇물 미래를 보는 경제신문 2022 | 10 | 11 15.2℃ 전자ICT 모바일·반도체 디스플레이·부품소재 게임·IT 통신·미디어 금융증권 정책·통화 은행 증권 보험·카드 시황·환율 재테크 일반 건설 정책 부동산 건설사 자동차 기업일반 신차출시 시승기 미래모빌리티 항공 택배 철강조선 기업일반 시황 수발주 친환경·스마트 에너지 정유·에너지 석유화학 정밀화학 첨단소재 제약·바이오 유통 채널 식품 패션·뷰티 호텔·가구 많이 본 기사 둔촌주공 입주권 1주일 만에 1억7000 빠져 재건축 최대어 둔촌주공아파트의 입주권 가격이 2년 전보다 낮아졌다. 공사 중단이 길어지면서 사업성에 대한 불안감이 커진 상황에 예상 분담금 규모는 날로 커지고 있기 때문이다. 오는 12월 입주권 거래제한이 풀리면 팔고싶어도 팔지 못했던 물량까지 쏟아져 나오면서 가격 하락은 더 가팔라 질 것으로 예상된다.11일 국토교통부 실거래가공개시스템에 따르면 지난 노도강 전용 84㎡ 6억대 거래…'영끌'족 패닉 2030세대 영끌 수요가 몰렸던 강북3구(노원·도봉·강북구)에서 아파트 하락 거래가 이어지고 있다. 일부 단지에서는 '국평'(국민평형)으로 불리는 전용면적 84㎡ 아파트가 5억~6억원대에 거래되는 사례가 생겼고, 이에 매도자들이 매물 호가를 낮추면서 추가 하락 거래 가능성이 커졌다.11일 국토교통부 실거래가 공개시스템에 따르면 노원구 상계동 우방아파트 [단독] '평택판 GGM' 나올까…쌍용차, 노후공장 개선방안 마련 KG그룹 품에 안긴 쌍용자동차가 경영 정상화를 달성하기 위한 첫 번째 과제로 노후화된 평택공장에 대한 생산설비 교체에 나설 것으로 보이는데, 광주 글로벌모터스(GGM)와 비슷한 방안을 고려하는 것으로 알려졌다.특히 평택공장 설비 교체에 수천억원에 달할 수 있는 비용이 들어갈 것으로 예상되는 만큼 지역과 상생하면서도 투자 지원을 통한 비용 절감 차원에서 외국인 불법 공매도 잡힐까…당국 "실명제 검토" 정무위 국정감사에서 제기된 '깜깜이 공매도 논란'에 금융당국이 외국인 불법 공매도 발생 시 실명을 공개하는 방안을 검토하고 있다고 밝혔다. 금융시장 변동성이 극심해지자 당국도 불법 공매도를 차단할 방법을 고심중인 것이다.11일 국회와 금융투자업계에 따르면 지난 6일 김주현 금융위원장은 정무위 국정감사에서 외국인 불법 공매도와 관련해 유의동 국민의힘 의원 네이버·카카오 '와르르'…개미 피눈물 삼성전자와 함께 국민주 대열에 합류했던 네이버·카카오의 주가가 폭포수처럼 떨어지고 있다. 하락장에서도 반등할 것이라는 기대감을 갖고 매수에 나섰던 개미(개인투자자)들의 곡소리가 끊이지 않고 있다.11일 한국거래소에 따르면 올해(1월 3일~10월 7일) 네이버 주가는 37만8500원에서 16만원으로 57.73% 급락했다. 같은 기간 카카오 주가도 11만2 KT스카이라이프, 해양 폐플라스틱으로 '친환경 셋톱박스' 만든다 KT스카이라이프는 11일 해양 폐플라스틱을 수거하는 비치코밍 행사를 진행했다고 밝혔다. 스카이라이프는 수거한 폐플라스틱으로 친환경 소재 셋톱박스를 제작하는 등 ESG 환경경영에도 앞장선다.인천대교 기념관 부근 제방에서 열린 이번 행사에는 스카이라이프 임직원 외에 KT그룹 희망나눔재단과 녹색연합 등 약 40명이 참여했다. 비치코밍 참여자들은 2개조로 구역 진원생명과학, 美 자회사 VGXI 신규공장 준공 진원생명과학은 지난 7일 플라스미드 DNA 위탁개발생산(CDMO) 기업인 자회사 VGXI가 미국 텍사스주 콘로시 데이슨 테크놀로지 파크(Deison Technology Park)에 건설한 신규공장의 준공식을 개최했다고 11일 밝혔다.준공식에는 미국 하원 케빈 브래디(Kevin Brady) 의원, 주휴스턴 대한민국 총영사관 안명수 총영사, 시공사 BE&amp;am 캠코, 창립 60주년 기념 사회공헌 수기 공모 한국자산관리공사는 창립 60주년을 맞아 오는 24일까지 '캠코 희망리플레이' 사회공헌 수기 공모전을 개최한다고 11일 밝혔다.이번 공모전은 캠코 창립 60주년을 기념하고 캠코의 사회공헌활동을 통해 직·간접적인 도움을 받은 이들의 이야기를 담기 위해 마련됐다.'캠코 사회공헌활동 관련 수기'를 주제로 진행되는 이번 공모는 사회공헌 프로그램에 참여한 국민이 국토부 "K-스마트시티 기술, 태국·튀르키예 수출한다" 국토교통부와 대한무역투자진흥공사(KOTRA), 스마트도시협회가 스마트시티 분야 국내 유망 중소기업의 해외 수출을 지원하기 위해 지난 6~7일과 10~11일에 각각 태국 방콕, 튀르키예(터키) 이스탄불에서 로드쇼를 개최했다고 11일 밝혔다.태국과 튀르키예는 교통 체증, 환경, 에너지 등 도시 문제와 홍수, 지진 등 재난 상황에 대비하는 스마트시티 건설에 조선 빅 3, 올해도 수주 목표 초과 달성 유력…흑자도 넘본다 한국조선해양·대우조선해양이 올해 수주 목표를 벌써 넘겼고 삼성중공업도 목표 달성을 눈앞에 두고 있다. 대형 조선 3사는 작년에 이어 올해도 나란히 수주 목표를 초과 달성할 것으로 보인다. 맏형 한국조선해양은 3분기부터 흑자전환할 전망이다.11일 조선업계에 따르면 한국조선해양은 지난 7월 초 올해 수주 목표를 이미 채웠다. 현재까지 183척, 218억30 로그인 회원가입 전자ICT 모바일·반도체 디스플레이·부품소재 게임·IT 통신·미디어 금융증권 정책·통화 은행 증권 보험·카드 시황·환율 재테크 일반 건설 정책 부동산 건설사 자동차 기업일반 신차출시 시승기 미래모빌리티 항공 택배 철강조선 기업일반 시황 수발주 친환경·스마트 에너지 정유·에너지 석유화학 정밀화학 첨단소재 제약·바이오 유통 채널 식품 패션·뷰티 호텔·가구 오피니언 기자수첩 외부칼럼 피플 인사 부고 동정 유료기사 화학 철강뉴스 조선·물류 코스피 2,186.76 ▼ 46.08(-2.06%) 코스닥 669.08 ▼ 29.41(-4.21%) USD$ 1436.4 ▲ 7.4 EUR€ 1390.2 ▲ 2.6 JPY¥ 985.5 ▲ 5.0 CNY¥ 199.7 ▼ 0.0 BTC 27,350,000 ▼ 355,000(-1.28%) ETH 1,832,000 ▼ 50,500(-2.68%) XRP 704 ▼ 50(-6.63%) BCH 159,750 ▼ 7,300(-4.37%) EOS 1,495 ▼ 110(-6.85%) 전자ICT 금융증권 건설 자동차 철강조선 에너지 유통 공유 인쇄 텍스트 축소 확대 url복사 관광전망 밝은 제주도…금융권 특화상품 봇물 송고 2021.03.19 14:45 | 수정 2021.03.19 14:45 EBN 강승혁 기자 (kang0623@ebn.co.kr) 제주은행-제주개발공사, '제주삼다수카드' 24일 출시…양사 전략상품신한카드, 단·장기 제주 체류고객 선호도 반영한 '혼디모앙 카드' 선봬농협은행은 제주 전기차 수요 공략…도민 대출금리 우대 방안 마련 중제주은행과 제주특별자치도개발공사는 '제주삼다수카드' 출시를 위한 업무협약을 체결했다.ⓒ제주은행금융권이 제주도 특화상품 출시에 열을 올리고 있다. 우리 경제 전반적으로 내수 위축 영향을 받고 있는 가운데 제주도는 관광에 따른 소비수요를 기대할 수 있어서다. 렌터카 등의 용도로 전기차 보급이 활성화된 특수한 환경도 관련 사업에 용이하다.19일 업계에 따르면 제주은행은 제주특별자치도개발공사와 오는 24일 '제주삼다수카드'를 출시할 예정이다. 청정제주의 대표 브랜드인 제주삼다수의 가치를 제고하기 위한 PLCC(상업자 표시 신용카드)카드다. 최근 국내 카드업계에서 유행하는 PLCC를 차용해 은행과 공사가 함께 긴밀하게 상품을 기획했다는 점에서 전략상품으로 풀이된다.신용카드는 △전국 모든 정유사 대상 리터당 100원 청구할인 △생활영역통합할인서비스(GS편의점, 스타벅스, 투썸플레이스 5% 청구할인)을 제공하고, 체크카드는 △대중교통 10%청구할인 △영화관 최대 3000원 할인 △커피전문점(스타벅스, 카페베네, 엔제리너스) 20% 청구할인 혜택을 담았다.개발공사와 제주은행은 제휴카드 사업의 성공적인 정착을 위해 브랜드 홍보, 광고 및 프로모션 등을 공동 추진할 방침이다. 양측 관계자는 "제주삼다수카드의 출시를 통해 도내 최대 공기업인 개발공사와 따뜻한 금융을 실천하는 향토기업 제주은행이 지역사회 발전에 공동으로 기여할 수 있는 모범적인 제휴사업의 출발을 알리는 계기가 될 것"이라고 말했다.신한카드는 제주도민 및 여행객, 제주도에 자주 방문하는 고객에게 필요한 혜택을 담은 '신한카드 혼디모앙'을 출시했다. 상품명 혼디모앙은 '한데 모으다'라는 의미를 가진 제주도 방언으로, 최근 5년간 신한카드 제주 현지 빅데이터 분석을 통해 제주 지역에 거주·방문하는 고객들의 소비 패턴을 반영한 서비스를 새롭게 개발, 맞춤형 상품으로 설계됐다.전월 실적이나 한도 제한 없이 일시불·할부 이용금액의 0.2%가 마이신한포인트로 적립되며, 특히 제주도내 가맹점을 이용하는 경우는 최대 0.6%를 한도 제한 없이 추가 적립해준다. 여기에 추가해 최대 월 5만원 한도 내에서 실외골프장 5%, 에이바우트 커피 10%, 제주신화월드 5% 포인트 적립해준다.제주 지역 특성상 온라인 쇼핑이 많은 점을 감안, 도서산간지역 배송비 부과를 감안한 월 1회 2500원 할인 또한 지역 맞춤형 서비스로 제공한다. 특히 ESG 관점에서 대중교통(버스) 이용금액 10% 할인 및 전기차 충전소 이용금액 30% 적립 서비스는 탄소배출 감축을 유도해 제주 환경 보존에도 도움이 될 것으로 기대된다.NH농협은행은 전기차 구입시 0.3% 우대금리를 받을 수 있는 'NH간편오토론'을 출시했으며, 농협은행 제주법원지점에 제주지역 1호 업무용 전기차 배정을 시작으로 전기차 이용을 점차 확대해 나갈 예정이다. 농협은행은 제주특별자치도의 금고은행으로서 제주도민이 전기차 구매 시 대출금리우대 등 추가적으로 금융혜택을 받을 수 있는 방안을 마련 중이다.이는 제주특별자치도와 체결한 전기자동차 보급확대 협력을 위한 업무협약에 따른다. 제주도의 'Carbon Free Island(CFI·탄소 없는 섬) 2030' 비전 달성을 위한 목적이다. 이번 협약으로 농협은행은 전기차 보급확대를 위한 금융서비스개발과 제주지역 내 업무용 차량 및 임직원 차량의 전기차 전환 유도에 나선다.제주도 역시 코로나19가 지역경제에 악영향을 주고 있으나 관광이라는 요소가 긍정적으로 작용하는 모습이다. 한국은행 관계자는 "최근 제주경제는 코로나19의 영향으로 소비 부진 및 고용 감소가 지속했다"면서도 "다만 최근 관광객수가 내국인 관광을 중심으로 증가하고 소비심리도 다소 개선됐다"고 설명했다.올 2월중 제주방문 관광객 수는 사회적 거리두기 완화 조치 및 지난해 2월부터 코로나19가 본격화된 기저효과(2020년 2월 -43.4%)등으로 전년 동월 대비 21.4% 증가했다. 같은 달 소비자심리지수는 전월대비 2.2p 상승한 93.4로 나타났다.©(주) EBN 무단전재 및 재배포 금지 관련기사 금융권 채용, 은행 공채 없애고 핀테크 경력직 선호 BNK금융, 금융권 최초 '연체이자 감면제도' 시행 금융권, 금소법 시행 앞두고 소비자보호 강화 결의 SKT, SC제일은행과 마이데이터 클라우드 구축…1금융권 최초 케이뱅크, 제2금융권 연계대출 출시 전체 댓글 0 로그인 후 댓글을 작성하실 수 있습니다. 베스트 클릭 1 둔촌주공 입주권 1주일 만에 1억7000 빠져 2 노도강 전용 84㎡ 6억대 거래…'영끌'족 패닉 3 [단독] '평택판 GGM' 나올까…쌍용차, 노후공장 개선방안 마련 4 외국인 불법 공매도 잡힐까…당국 "실명제 검토" 5 네이버·카카오 '와르르'…개미 피눈물 이슈종합 더보기 10일: 금통위 빅스텝, 5대 은행장, 유가 상승세, 태양광 대출 등 9일: 美, 반도체장비 中수출 금지…삼성·SK '예의주시', TDF시장 '급성장' 등 8일: 中 반도체 시장 위축되나…삼성·SK, 美 고강도 규제 예의주시 등 오피니언 더보기 비탈릭 부테린을 위한 변명 ESG시대의 스타트업(2/2) 美 정부의 바이오 행정명령과 대응 상속재산조회서비스 코로나19와 경주 최부자댁 시황 코스피 코스닥 환율 KOSPI 2,186.76 ▼ 46.08(-2.06) KOSDAQ 669.08 ▼ 29.41(-4.21) 매매기준율 USD$ 1436.4 ▲7.4 EUR€ 1390.2 ▲2.6 JPY¥ 985.5 ▲5.0 CNY¥ 199.7 ▼0 코인시세 비트코인 이더리움 리플 비트코인캐시 이오스 시세제공 업비트 빗썸 코빗 업비트 10.11 14:53 27,350,000 ▼ 355,000 (1.28%) 빗썸 10.11 14:53 27,364,000 ▼ 333,000 (1.2%) 코빗 10.11 14:53 27,370,000 ▼ 340,000 (1.23%) 업비트 10.11 14:53 1,832,000 ▼ 50,500 (2.68%) 빗썸 10.11 14:53 1,832,000 ▼ 50,000 (2.66%) 코빗 10.11 14:53 1,833,000 ▼ 50,000 (2.66%) 업비트 10.11 14:53 704 ▼ 50 (6.63%) 빗썸 10.11 14:53 704.7 ▼ 48.3 (6.41%) 코빗 10.11 14:53 704.6 ▼ 49.2 (6.53%) 업비트 10.11 14:53 159,750 ▼ 7,300 (4.37%) 빗썸 10.11 14:53 159,900 ▼ 7,000 (4.19%) 코빗 10.11 14:53 159,600 ▼ 7,600 (4.55%) 업비트 10.11 14:53 1,495 ▼ 110 (6.85%) 빗썸 10.11 14:53 1,496 ▼ 105 (6.56%) 코빗 10.11 14:53 1,491 ▼ 119 (7.39%) 등락률 : 24시간 기준 (단위: 원) 인사/부고/동정 더보기 ● [부고] 지영흔(하나은행 홍보팀장)씨 부친상 ● [부고] 박찬수(한국거래소 파생상품시장본부 상무)씨 부친상 ● [부고] 성인모(한국금융투자협회 수석전무)씨 부친상 ● [부고]이정렬(반도건설 대표)씨 모친상 포토뉴스 대·중소유통 상생협의회 출범 서울미디어홀딩스패밀리미디어 실시간 뉴스 “왜 코 푸냐” “놀고 앉았네” 사장님이 지켜보고 있다 尹대통령 “北 핵위협 앞에 어떤 우려가 정당화되나” 美 반도체 통제에…中관영지 “희토류 수출 금지하자” 푸틴 ‘피의 보복’… 우크라 시민 때렸다 北 저수지서 SLBM 도발…우리 軍, 탐지 못했다 38만 가구 집 팔아도 빚 못갚아…8%대 주담대 온다 엔저 미끼 던지고 빗장 푼 日…한국인 관광 몰린다 새만금 7200배 먹튀에도...무면허 용역 준 한전자회사 “한동훈, 이재명 수사 방미” vs “김의겸, 내부고발 하나” 문재인 전 대통령, ‘문프셀러’ 현상에 “출판계 도움돼 기쁘다” 삼성 파운드리, 내년 MPW 횟수 20% 늘린다 국세청, 홈택스 상담업체에 21억 손배소 기준금리 3% 시대 임박…한은, 두 번째 빅스텝에 무게 '친북' VS '친일' 프레임 놓고 여야 '안보 정쟁' 정승일 한전 사장 “한전 부실 원인은 연료비 폭등…해외 핵심사업 매각 안 한다” 이티에듀-한국IT교육재단, 재직자·예비취업자 IT교육 협력 PM업계 "탄소 중립 넘어 탄소 네거티브로" 카카오페이손보 공식 출범…“디지털 혁신으로 아날로그 보험 생태계 혁파” 현대차 자율주행 서비스 '로보라이드' 잠정 연기 신한, 시중은행 첫 뱅킹앱 전용 코어뱅킹 분리 [STOP 푸틴] 크림대교 폭발이 핵전쟁으로? 푸틴, ‘개인적 모욕’ 여길 공산 커 [최현호의 무기인사이드] 러시아 해군의 보복 수단 ‘칼리브르 순항미사일’ [포착] 크림대교 폭발은 우크라 소행? ‘의문의 물결’ CCTV에… 어린이 350명 살해한 희대의 살인마 ‘안데스 괴물’ 어디에 [여기는 남미] [지구를 보다] 우주에서 본 용암과 연기…伊 스트롬볼리섬 화산 또 폭발 [이광식의 천문학+] 소행성이 과연 지구를 완전히 파괴할 수 있을까? ‘시각 장애인’도 전쟁터 나가!…러 당국, 징집 할당량에 ‘허덕’ 코끼리 피해 강에 뛰어들었는데, 악어가 공격…팔다리 잃은 남성 수감자간 총들고 칼들고…에콰도르서 교도소 폭동 15명 사망 “이러다 다 죽어!”…중국 어선 3000여 척, 갈라파고스서 오징어 싹쓸이 광고문의 회사소개 제휴문의 개인정보취급방침 이메일주소 무단수집거부 저작권 규약 이용약관 (주)이비뉴스산업경제 l 등록번호 : 서울 아00054 l 등록일 : 2005.09.13 l 제호 : 이비엔(EBN)뉴스센터 l 발행인 : 김영락 l 편집인 : 정재웅 주소 : 서울 서초구 양재대로2길 22-16 호반파크1관 7층 (주)이비뉴스산업경제 ㅣ 대표번호 : 02-6952-9776 청소년보호정책(책임자 정재웅) | 메일문의 : ebnews@ebn.co.kr Copyright (c) 2011 by (주)이비뉴스산업경제 Co.,Ltd. All right reserved EBN 미래를 보는 경제신문</t>
+  </si>
+  <si>
+    <t>미디어제주 × 전체기사 뉴스 전체 정치 경제 사회 문화 교육 스포츠 사람들 포토뉴스 Advertorial section 기획특집 전체 생생스포츠현장 박물관, 그리고 제주 이야기 이사람 이주민, 그들을 말한다 다 함께 사는 세상 해외 특파원 보고 교육! 학교 현장 기획특집 미디어누리 전체 어린이기자 시민기자 청소년기자 오피니언 전체 미디어窓 미디어칼럼 건강칼럼 기고 미디어TV 전체 영상뉴스 UCC동영상콘테스트 유치부축구대회 시정가이드 전체 제주시 서귀포시 최종편집 2022-10-11 14:45 (화) 로그인 회원가입 모바일웹 전체 뉴스 전체기사 정치 경제 사회 문화 교육 스포츠 사람들 포토뉴스 Advertorial section 기획특집 박물관, 그리고 제주 이야기 이사람 다 함께 사는 세상 해외 특파원 보고 교육! 학교 현장 미디어누리 어린이기자 시민기자 기사쓰기 오피니언 미디어窓 미디어칼럼 건강칼럼 기고 행사 유치부 축구대회 아름다운 동행 기사검색 검색 S2N2 이전 다음 제주도관광협회, ‘리멤버 4.3’ 스탬프 투어 진행 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 뉴스 경제 제주도관광협회, ‘리멤버 4.3’ 스탬프 투어 진행 김형훈 기자 승인 2021.03.24 17:31 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 제주특별자치도관광협회가 제주에 오는 관광객을 대상으로 ‘리멤버 4.3’ 다크투어리즘 모바일 스탬프 투어를 진행한다. 참가할 이들은 ‘제이스탬프’ 모바일 앱을 다운받아 4.3평화공원 등 지정유적지와 참여업체를 찾아 모바일 스탬프 또는 QR코드를 인증하면 소정의 기념품을 제공받는다. 기간은 3월 29일부터 5월 31일까지이다. 저작권자 © 미디어제주 무단전재 및 재배포 금지 김형훈 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 댓글입력 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 실시간 댓글 동굴 몇개 살리자구 하수처리장 이전하면 그돈은 니그들이 낼거냐 일본 후쿠시마 원전페수 방수하는데가서 아주 죽 욱 살면서 대모혀라 실제 월정리 주민들은 그간 동굴과 하수처리장 문제로 골머리를 앓고 있어 새로운 동굴이 발견되면 보호구역 확대에 의한 토지 수용이나 제한으로 재산상 손해가 생길까봐 동굴이 없는게 오히려 좋겠다는 분들도 계십니다. 월정리가 동굴마을로 지정되어 제한만 할께 아니라 하수처리장 철거로 완전한 동굴보호 마을의 역할을 하게해서 마을에 실질적 도움이 될 수 있는 조처도 취해져야 합니다 오늘 강순석 제주지질연구소장님의 새로운 본류 동굴 존재 할 수 있다는 기자회견은 다년간 지질연구하시면서 현장에서 느끼는 전문가의 촉이 있으신것 같습니다. 제주의회 정밀탐사 촉구도 있었으니 하수처리장 존재에 영향을 받지 않을 학술적 가치에 중점인 정밀 지질 탐사가 다시 이루어지기를 기대해 봅니다. 2009년 이후 탐사기법도 더욱 발전 했으니 더 정밀한 탐사가 가능할 것 입니다. 월정리는 만장굴. 사굴과도 마을 경계상에 위치해 있고 그 밑으로 용천굴. 당처물 동굴. 남지미 동굴이 계속 발견되었는데 올 6월에는 제주 의회에서도 정밀 탐사가 필요하다는 의견이 있었습니다만 구체적 탐사 움직임은 보이지 않는것 같습니다 2007년 탐사 ~2009년 보고서는 매우 과학적 동굴탐사인 지표투과 레이더 탐사도 했다지만 그 당시 현장을 지켜본 마을분 증언에 의하면 하수처리장 근처로는 탐사를 회피하는 듯 했다고도 합니다. 지금까지 과정을 보면 보호구역도 하수처리장 경계로 갑자기 2구역에서 4구역으로 완화되게 설정되어 있습니다. 문제의 하수처리장 보호를 위해 안간힘을 써 온것 같은데 하수처리장 철거가 되어야 동굴 탐사도 객관적으로 학술적으로 실제적으로 가능한게 아닌가 의구심을 가져 봅니다 가장 많이 읽은 기사 1제주시, 청년월세 월 20만원씩 최대 12개월 지원 2일상의 배려, 성숙된 시민의식 빛낸다. 3서귀포시, 올해 교통유발부담금 21억 원 부과 4‘2022 Trans Jeju 국제 트레일러닝대회’ 성황리에 폐막 5&lt;정정보도&gt; 해수부 규정 어긴 영상 공모전 입상 의혹, 사실 아닌 것으로 확인 6코로나19 이후 큰 폭 증가 제주 실업자수, 점차 회복세 7최고가 다투는 제주 휘발유 값, 제주도 2차 민간조사 돌입 SPONSORED 신문사소개 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 중앙로 270-1 5층(이도이동, 백두빌딩) 대표전화 : 064-725-3456 팩스 : 064-725-3458 명칭 : (주) 미디어제주 제호 : 미디어제주 등록번호 : 제주 아 01003 등록일 : 2005-10-17 발행인 : 고승영 편집인 : 고승영 청소년보호책임자 : 고승영 미디어제주 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 미디어제주. All rights reserved. mail to mediajeju@mediajeju.com 위로</t>
+  </si>
+  <si>
+    <t>제주도, 코로나 일상대비 '안전제주관광' 이미지 높힌다 - 전국 &gt; 기사 - 더팩트 HOME &gt; NEWS &gt; 전국 &gt; 제주 제주도, 코로나 일상대비 '안전제주관광' 이미지 높힌다 입력: 2021.03.08 13:16 / 수정: 2021.03.08 13:16 제주도는 제주형 사회적 거리두기 완화 연장 시행으로 인해 자칫 느슨해지기 쉬운 도내 관광사업체 방역현장에 대한 지속 관리를 위해 민·관 합동의 상시 점검체계를 구축해 추진하고 있다고 8일 밝혔다. / 제주도 제공민관합동 도내 관광사업체 방역현장 상시 점검체계 구축[더팩트｜제주=문형필 기자] 제주도는 제주형 사회적 거리두기 완화 연장 시행으로 인해 자칫 느슨해지기 쉬운 도내 관광사업체 방역현장에 대한 지속 관리를 위해 민·관 합동의 상시 점검체계를 구축해 추진하고 있다고 8일 밝혔다.이는 제주가 지난달 15일 제주형 사회적 거리두기 1.5단계로 완화되면서 3월 중 제주를 찾는 여행객들이 급격하게 증가할 수 있다는 우려가 제기돼 코로나 일상의 ‘안전한 관광 제주’를 지켜내기 위함이다.도는 행정시와 관광협회 및 공사 등 민·관 합동의 요일별 기관담당 점검반을 구축하고, 보다 정밀하고 지속적인 현장점검으로 코로나19 감염 재확산 방지뿐만 아니라, 관광수용 태세 재정비로 도내 관광산업의 조기회복을 위해 노력하고 있다.관광사업체에 손소독제 등 방역물품을 지속 제공하고 있으며 특히 올해부터는 사업체별 자율방역체계 구축 지원을 위한 방역비 지원사업을 추진하고 있다.방역비는 업체당 100만원 이내로 지원될 예정이다.도는 방역 상시점검 시 코로나로 인해 어려움을 겪고 있는 관광업체의 현장의 소리를 직접 청취해 애로사항에 대해 유관기관과 협업을 통해 적극적으로 해결해 나갈 예정이다.지난 2월 방역현장에서 청취했던 관광호텔 내 연회장 사용 인원제한(200명 미만)에 대한 업체 건의를 적극 수렴해 이번 연장 시에는 500명 미만으로 완화되는 등 상시 현장점검을 통해 코로나19 속에서도 어려운 제주경제 회복에 안간힘을 다하는 사업체들의 소통 역할을 해나가고 있다.한편 도는 관광사업체의 경제적 어려움을 지원하기 위해 올해 지원사업으로 156억원을 편성, 지난 1월 25일부터 3월 15일까지 관광진흥기금 특별융자지원을 신청받고 있다.안전 관광제주 구축을 통한 관광산업 조기 회생을 위해 도내 관광사업체에 대한 방역비 지원, 온라인 마켓 ‘탐나오’ 관광상품 판매 확대, 건전 관광질서 수용태세 확립을 위한 키오스크, 모바일 도어락 시스템 등을 운영한다.이어 패턴별 여행 상품 개발에 따른 상품개발비와 차량 임차료를 지원하고, 도내 여행사업체 등에 보증보험 지원 등 34억 원을 상반기에 집중투입해 지원할 예정이다.김재웅 도 관광국장은 "코로나 사태로 전국 지자체 중 가장 직격탄을 맞고 있는 제주의 관광산업의 어려움을 헤아리고, 이에 대한 다양하고 실속 있는 현장의 소리를 공유함으로서 행정과 관광사업체가 하나가 되어 제주관광산업의 조기회복을 위해 적극대응할 것"이라고 했다.hyejun@tf.co.kr 발로 뛰는 &lt;더팩트&gt;는 24시간 여러분의 제보를 기다립니다. ▶카카오톡: '더팩트제보' 검색 ▶이메일: jebo@tf.co.kr ▶뉴스 홈페이지: http://talk.tf.co.kr/bbs/report/write - 네이버 메인 더팩트 구독하고 [특종보자▶] - 그곳이 알고싶냐? [영상보기▶] AD 인기기사 실시간 TOP10 정치 경제 사회 연예</t>
+  </si>
+  <si>
+    <t>제주도 블록체인 관광방역 앱, 이용자 34만명 돌파 - 파이낸셜뉴스 메뉴 펼치기 기사 검색 검색 취소 검색 파이낸셜뉴스닫기 검색 경제 정치 사회 IT 국제 라이프 기자ON 사설 칼럼 fnSURVEY 구독신청 광고/제휴문의 네이버 MY뉴스 설정 부산파이낸셜뉴스 블록포스트 가이드포스트 fn아이포커스 파이낸셜뉴스재팬 fnMICE fn이노에듀 fn투어 이벤트메뉴 경제 금융 증권 부동산 산업 경제 일반 정치 청와대 국회·정당 북한 외교·국방 사회 사건·사고 검찰·법원 행정·지자체 교육 IT 통신·방송 게임 인터넷 블록체인 의학·과학 국제 국제경제 국제정치 국제사회 라이프 생활경제 연예 스포츠 푸드·리빙 레저·문화 Special 기자ON 파인애플 fnSurvey 검색 경제 금융 증권 부동산 산업 경제 일반 정치 청와대 국회·정당 북한 외교·국방 사회 사건·사고 검찰·법원 행정·지자체 교육 IT 통신·방송 게임 인터넷 블록체인 의학·과학 국제 국제경제 국제정치 국제사회 라이프 생활경제 연예 스포츠 푸드·리빙 레저·문화 Special 기자ON 파인애플 fnSurvey fn특별기획 검색 블록체인 &gt; 제주도 블록체인 관광방역 앱, 이용자 34만명 돌파 파이낸셜뉴스입력 2021.03.09 11:41수정 2021.03.09 11:41 페이스북 공유하기 트위터 공유하기 블로그 공유하기 카카오톡 공유하기 파인애플 페이지 URL 복사하기 인쇄 글자 작게 글자 크게 페이스북 공유하기 트위터 공유하기 블로그 공유하기 카카오톡 공유하기 파인애플 페이지 URL 복사하기 아이콘루프 '제주안심코드', 4만개 업장서 구축블록체인 통한 보안강화 및 편의성 개선 강점 [파이낸셜뉴스] 블록체인 기반 제주 관광방역 시스템 '제주안심코드'가 본 서비스 개시 2개월만에 설치 업장 수 4만여 곳, 이용자 34만명을 넘겼다. 아이콘루프는 제주특별자치도에서 서비스 중인 블록체인 기반 제주형 관광방역 시스템 ‘제주안심코드’가 정식 출시 2개월 만에 설치 업장 4만여 곳, 이용자 수 34만 명을 돌파했다고 9일 밝혔다. 9일 국내 대표 블록체인 기업 아이콘루프는 제주특별자치도에서 서비스 중인 블록체인 기반 제주형 관광방역 시스템 ‘제주안심코드’가 정식 출시 2개월 만에 누적 사용 횟수 200만 회를 돌파했다고 밝혔다. ‘제주안심코드’는 아이콘루프와 제주도가 민관협력 협약을 통해 공동 개발한 시스템으로, 외부 방문객의 유입이 많고 밀집도 높은 장소의 방문율이 높은 제주도의 지역적 특성상 발생할 수 있는 방역의 공백, 동선 추적의 어려움 등에 대비해 관광지에 최적화된 지속가능형 관광방역 시스템을 구축하고자 마련됐다. 아이콘루프와 제주도는 작년 8월 공공기관 및 제주도청 인근 업장을 중심으로 본 시스템의 시범 운영을 실시한 뒤 연말부터 본격 운영을 시행해 왔다. 아이콘루프 관계자는 ‘제주안심코드’가 단기간 내에 빠르게 확산될 수 있었던 가장 큰 이유로 편리한 사용성 및 도민, 관광객의 관심과 참여를 꼽았다. 이용자 휴대폰에서 QR코드를 생성하는 기존 방식과 달리, ‘제주안심코드’는 업장에 비치된 QR코드를 휴대폰으로 촬영하기만 하면 빠르고 간편한 출입인증이 가능하다. ‘제주안심코드 앱’의 경우 별도 회원 가입 없이 쉽게 이용할 수 있으며, 업장주 또한 별도 단말기나 앱 설치 없이 프린트된 QR코드만 비치하면 이용할 수 있어 편리하고 부담이 적다. 블록체인 기술을 활용해 방문자 정보의 위변조가 불가능하다는 점도 본 시스템의 강점이다. ‘제주안심코드’ 이용 시 개인의 신원정보 및 방문기록정보는 암호화 후 분산저장되며, 본 출입인증 정보는 확진자 역학조사 목적으로만 사용된다. 현재 도내 일반 음식점, 카페 등 고위험시설로 분류되지는 않으나 다수 방문객이 오가는 업장에서의 사용률이 높아 도내 생활방역의 체계를 강화하는 데 큰 몫을 하는 것으로 평가되고 있다. 아이콘루프는 이용 편의를 위한 기능 업데이트를 통해 ‘제주안심코드’를 지속적으로 고도화해 나가고 있다. 현재 ‘제주안심코드 앱’에서는 이용자 본인의 인증 이력을 직접 확인할 수 있고, GPS 기능 또한 탑재돼 보다 명확하게 동선 위변조를 방지할 수 있다. 향후에도 아이콘루프는 이용자들의 편의 향상을 위한 다양한 기능 업데이트를 통해 생활 속 방역 체계를 보다 견고히 할 수 있도록 지원할 계획이다. 아이콘루프 김종협 대표는 “아이콘루프의 블록체인 기술을 적용한 ‘제주안심코드’가 많은 관광객, 제주도민에게 쉽고 간편하게 이용할 수 있는 서비스로 자리잡아 가고 있는 듯해 뿌듯하다”며 “이에 그치지 않고 제주도민, 관광객 모두 안심할 수 있는 관광방역, 생활방역 체계가 구축될 수 있도록 시스템 고도화에 최선을 다할 것”이라 말했다. srk@fnnews.com 김소라 기자 키워드#아이콘루프 #제주안심코드 #블록체인 #코로나19 #관광방역 ※ 저작권자 ⓒ 파이낸셜뉴스, 무단전재-재배포 금지 fn 회사소개 광고/제휴문의 개인정보취급방침 저작권규약 이메일주소무단수집거부 구독신청 고충처리 rss 사이트맵 주소: 서울 서초구 강남대로 315 Tel. 02-2003-7114 인터넷신문 등록번호: 서울 아04510 등록일자: 2017.05.08 회장: 전재호 부회장·발행인: 전선익 사장·인쇄인·편집인: 변동식 편집국장: 양형욱 청소년보호정책(책임자:이대율) Copyright ⓒ파이낸셜뉴스. All rights reserved. 회사소개 지면보기 사이트맵 Copyright ⓒ파이낸셜뉴스. All rights reserved.</t>
+  </si>
+  <si>
+    <t>제주도, '관광진흥기금' 지원기간 오는 12일까지 연장 :: 공감언론 뉴시스통신사 :: 2022.10.11 (화) 서울 15℃ K-Artprice 프라임뉴스 위클리뉴시스 실시간 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 광장 포토 뉴시스 TV 경찰, 대전 현대 아웃렛 참사 관련 현대백화점그룹 본사 압색 [속보]尹 "文정부 폐지한 '학업성취도' 전수 평가 실시" [속보]코스피, 1.78% 하락한 2193.02 출발 [속보]尹, 이재명 '친일'공세에 "핵 위협 앞 어떤 우려가 정당화될 수 있나" [속보]尹 "한미일 안보협력, 비핵화에 유효...핵 통해 얻을것 없다" [속보]尹, 이재명 친일공세에 "국민들이 잘 판단할 것" '출근길 최저 3도' 출근길 기온 뚝…서울 아침 6도 지방 지방최신 세종 부산 대구/경북 광주/전남 대전/충남 울산 강원 충북 전북 경남 제주 제주도, '관광진흥기금' 지원기간 오는 12일까지 연장 등록 2021.03.02 10:30:32 작게 크게 한산한 제주공항.[제주=뉴시스] 강정만 기자 = 제주특별자치도는 지난달 26일까지 신청기간인 제주관광진흥기금 특별융자 신청기간을 오는 3월 12일까지 연장 접수한다고 2일 밝혔다. 이 기금은 신종 코로나 바이러스 감염증(코로나19)으로 직격탄을 맞은 관광사업체의 경영위기 극복 등을 지원하기 위해 융자되고 있다. 도는 당초 2월말까지 총 2000억 규모를 특별융자 제공할 계획이었으나 현재 289개 사업체 600억 원 융자를 신청한 것으로 나타났다. 도는 기간 내 신청하지 못한 관광사업체가 있을 것으로 보고 신청기간을 3월 12일까지 연장하기로 했다. 올해 제주관광진흥기금 융자규모는 총 2000억원으로 여행업계, 관광숙박업 등의 경영난 해소를 위한 경영안정자금 1800억을, 시설 개·보수 자금에 200억을 배정했다. 지원은 융자추천액 대출 실행에 따른 이자차액을 보전해 주는 방식으로 이뤄진다. 대출 금리는 2021년 1분기 기준으로 개인 등 중소기업은 0.51%를, 대기업은 1.26%의 금리가 적용될 예정이다.  융자 기간은 2년 거치 3년 균등 상환 조건이다. ◎공감언론 뉴시스 kjm@newsis.com Copyright © NEWSIS.COM, 무단 전재 및 재배포 금지 뉴시스 기획특집 거래절벽 도미노 태양광 뇌관 터지나 망값전쟁 오피니언 팝밴드 레이니 최고 뮤지션 아니지만 현재의 우리는 최고 국내 의약품 허가심사 수수료 인상의 당위성 뉴시스 PIC 국제사회, 우크라 향한 러의 미사일 공습 규탄 시위 물결 '문자 논란' 유병호 "송구스럽다… 소통은 정상적인 것" 베네수엘라, 재앙 수준의 산사태로 최소 36명 사망 윤석열 대통령 출근길 문답 "북한, 핵으로 얻을 수 있는 것 없어" 이시간 핫 뉴스 장성규 "부모님 재산, 주식으로 날렸다" 재결합설 있더니… 선우은숙, 연하 아나운서와 재혼 '쇼핑몰 대박' 강민경, 65억 건물 매입…"직원 다 울어" 고우석, 바람의 가문에 장가 간다…이종범 딸과 결혼 현미 "유부남인 줄 모르고 임신…돌아가라 하니 방망이 들어" 공효진, 뉴욕 결혼식…절친 정려원·엄지원 참석 김신영에 "넌 보물될 거야" 예언한 전유성 근황 보니 신화 신혜성, 도난차량서 음주측정 거부하다 체포 오늘의 헤드라인 "'학업성취도 평가' 5년만에 부활  기초학력 수준 정밀하게 가린다 5년 전 폐지됐던 학력 전수평가가 사실상 부활한다.기초학력 미달 학생이 늘어나는 현실을 타개하기 위한 고육책이다. 교육부는 11일 국무회의에서 제1차 기초학력 보장 종합계획을 보고했다고 밝혔다. 이번 계획은 올해 시행된 기초학력보장법에 따른 첫 종합 방안으로, 국가가 모든 학생의 기초학력을 보장해야 한다는 법적 책임을 담보하기 위해 마련됐 "軍, 北 저수지 미사일에 "킬체인 의식 궁여지책" "감사원 국감 시작부터 '감사위원 배석' 놓고 파행 "경찰, 대전 아웃렛 화재 관련 현대百 본사 압수수색 "경찰, 이준석 2차 소환…성접대 여부 곧 판단할 듯 "코레일 운영 수도권 역사 절반이 외주…악순환 반복 "소상공인 과태료 최대 70% 감면 추진…법령 정비 "러 외무부 "美, 우크라에 호전적 분위기 조장 말라" 많이 본 기사 종합 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 1선우은숙, 4세 연하 아나운서 유영재와 재혼 탤런트 선우은숙(63)이 아나운서 유영재(59)와 재혼했다. 소속사 스타잇엔터테인먼트는 11일 "선우은숙씨가 좋은 인연을 만나 결혼의 결실을 맺게 됐다"며 "상대는 아나운서 유영재"라고 알렸다. "두 사람은 기독교 신자라는 공통점 아래 신앙과 신뢰를 쌓았다"며 "최근 혼인신고와 양가 상견례를 마쳤다. 새로운 출발에 따뜻한 관심·응원을 부탁드린다"고 했다. 선우은숙은 1978년 KBS 특채탤런트로 데뷔했다. 1981년 탤런트 이영하(72)와 결혼, 26년만인 2007년 이혼했다. 당시 선우은숙은 기자회견을 열고 "나쁜 2신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 3"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 1"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 김정은 국무위원장의 부인 리설주가 한미를 겨냥한 북한군의 대규모 무력 시위 현장에 모습을 드러냈다. 김정은이 미사일 발사 현장에 리설주를 동행시킨 것이 공개된 것은 이번이 사실상 처음이다 노동신문 등 북한 관영 매체들은 노동당 창건 77주년인 10일 김정은이 지난달 25일부터 이달 9일까지 북한군 전술핵운용부대를 비롯해 장거리포병부대·공군비행대의 훈련을 지도한 내용을 사진과 함께 보도했다. 매체는 리설주의 참관 사실을 직접 언급하지는 않았지만, 리설주가 김정은과 나란히 초대형 방사포(KN-25) 발사 훈련을 지켜보는 2'YTN 최대 주주' 한전KDN 사장, 與의 지분 매각 요구에 "하겠다" 3'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 4尹, 이재명 친일공세에 "국민들이 잘 판단할 것" 5尹, 이재명 '친일'공세에 "핵 위협 앞 어떤 우려가 정당화될 수 있나" 1뉴욕증시, JP모건 '경기침체' 경고에 하락 마감…나스닥 1.04%↓ 미국 뉴욕증시 주요 지수는 10일(현지시간) 하락 마감했다. CNBC, 마켓워치에 따르면 이날 뉴욕증권거래소(NYSE)에서 다우존스 30 산업평균지수는 전장보다 93.91포인트(0.32%) 내린 2만9202.88로 거래를 마쳤다. 스탠더드앤드푸어스(S&amp;P) 500 지수는 전장보다 27.27포인트(0.75%) 밀린 3612.39로 장을 닫았다. 기술주 중심의 나스닥지수는 전장보다 110.30포인트(1.04%) 떨어진 1만542.10에 장을 마쳤다. 나스닥 지수는 2020년 7월28일 이후 약 2년 만에 최저치를 2한국인 오늘부터 무비자 일본 관광 시작…항공권 예약 급증 3우크라전 229일, 러 키이우 등 전역 미사일 공습…최소 111명 사상(종합) 4LA 시의회 의장, 인종차별 발언· 욕설로 의장직 사임 5유엔총회, 러 우크라 병합 규탄 결의안 논의 시작…공개투표 결정 1뉴욕증시, JP모건 '경기침체' 경고에 하락 마감…나스닥 1.04%↓ 미국 뉴욕증시 주요 지수는 10일(현지시간) 하락 마감했다. CNBC, 마켓워치에 따르면 이날 뉴욕증권거래소(NYSE)에서 다우존스 30 산업평균지수는 전장보다 93.91포인트(0.32%) 내린 2만9202.88로 거래를 마쳤다. 스탠더드앤드푸어스(S&amp;P) 500 지수는 전장보다 27.27포인트(0.75%) 밀린 3612.39로 장을 닫았다. 기술주 중심의 나스닥지수는 전장보다 110.30포인트(1.04%) 떨어진 1만542.10에 장을 마쳤다. 나스닥 지수는 2020년 7월28일 이후 약 2년 만에 최저치를 2①대한민국, 사람이 없어진다…2030년 '인구지진' 직면 3KB證 "엠게임, 중국서 흥행 중인 '열혈강호 온라인' 주목" 4삼성전자 사들이기 시작한 외국인…분위기 반전될까 5엄빠찬스 증가세…5년간 미성년 임대소득만 2500억 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 강원도가 지급보증한 레고랜드 테마파크 대출 자산유동화기업어음(ABCP)이 결국 부도처리되면서 지방자치단체 보증 프로젝트 파이낸싱(PF) 사업에 비상이 걸렸다. 금융투자(증권)업계에 따르면 레고랜드 테마파크 기반 조성사업을 추진한 강원중도개발공사(GJC)가 필요자금을 조달하기 위해 설립한 특수목적법인(SPC) '아이원제일차'가 부도 처리됐다. 강원도는 GJC의 최대 주주로서 지분 44%를 보유하고 있다. 강원도는 최문순 전 지사 시절 춘천 중도 레고랜드 테마파크 조성 기반 공사를 맡은 강원중도개발(GJC)이 2050억 2신라젠 내일 상폐 여부 결정…16만 개미 '노심초사' 3KB證 "엠게임, 중국서 흥행 중인 '열혈강호 온라인' 주목" 4삼성전자 사들이기 시작한 외국인…분위기 반전될까 5코스피, 1.78% 하락한 2193.02 출발 1정유업계, 원유 감산에 정제마진 올랐어도 실적 '불투명'…왜? 정제마진 악화로 실적부진을 보인 국내 정유업계가 산유국들의 원유 감산 발표로 정제마진에 숨통이 트일 조짐이다. 하지만 경기 침체에 따른 석유제품 수요 감소가 예상돼 하반기 실적의 복병이 될 전망이다. 11일 관련 업계에 따르면 석유수출국기구(OPEC)와 러시아 등 주요 산유국들의 협의체인 '오펙 플러스'는 내달 원유 생산량을 이달보다 하루 평균 200만 배럴 줄이는데 합의했다. 이는 코로나19 이후 지난 3년 간 최대 감산 폭이다. 특히 정제마진이 0달러 또는 마이너스를 기록하며 실적 부진이 극심했던 국내 정유업계는 대 2"우크라이나 삼성 입주 빌딩 파괴 당시 삼성 주재원들 사전 피신" 33분기 국내 주식시장 시총 630조 증발…카카오 '반토막' 4국토부 '스마트 모빌리티 물류 산업전'…기관 50곳 참여 5국민 10명 중 5명 "전기차' 선호"…화재 등 안전문제는 걸림돌 1"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 '손목 위 주치의'를 표방하는 스마트워치의 안전 문제가 수면 위로 부상하고 있다. 11일 외신과 업계에 따르면 최근 국내외에서 애플워치와 갤럭시워치에서 발화, 화상 문제를 경험했다는 주장이 잇달아 제기되고 있다. IT 전문매체 나인투파이브맥에 따르면 최근 한 애플워치7 사용자가 자신의 워치가 과열로 인해 폭발하기 직전의 모습처럼 불이 붙고 연기가 났다고 주장했다. 해당 사용자는 애플워치7을 착용하고 있다가 기기가 비정상적으로 뜨거워짐을 느껴 기기 상태를 확인했는데, 워치에 금이 가있는 것을 확인했다. 급격한 2알테오젠 "불법 공매도 대응 무상증자 결정…금감원 진정서 제출" 3文정부 성과 지우기?…'데이터바우처 지원사업' 예산 삭감 4 '망값 협상'에 통행세 횡포? 구글의 이중잣대 5뷰노, 가정용 심전도 측정 의료기기 식약처 인증 획득 1신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 그룹 신화의 멤버 신혜성(본명 정필교·43)씨가 도난 차량에서 자던 중 발견돼 음주측정을 거부한 혐의로 현행범 체포됐다. 11일 경찰에 따르면 서울 송파경찰서는 이날 오전 1시40분께 서울 송파구 탄천2교 인근 도로에서 도로교통법상 음주측정거부 및 절도 혐의로 신씨를 체포해 조사 중이다. 신씨는 도난 차량 안에서 자던 중 신고를 받고 출동한 경찰관의 음주측정 요구를 거부한 혐의를 받는다. 경찰은 신씨가 타고 있던 차량이 도난 신고가 접수된 것을 확인, 절도 혐의를 추가해 조사 중이다. 해당 차주는 신씨를 알지 2국회 화장실서 60대 기자 쓰러져 병원 이송…심정지 추정 3유명 래퍼, 대학축제서 다이빙하다 추락…"아무도 안 잡아줘" 4조사 거부로 '감사원법 위반' 고발된 文 전 대통령…처벌 가능성 있나 5①대한민국, 사람이 없어진다…2030년 '인구지진' 직면 1부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 경기 부천서 가정불화로 80대 아버지를 흉기로 찔러 숨지게 한 60대 아들이 경찰에 붙잡혔다. 부천 오정경찰서는 존속살해 혐의로 A(60대)씨를 붙잡아 조사중이라고 11일 밝혔다. A씨는 전날 오전 10시18분께 부천시 오정동의 한 빌라에서 아버지 B(80대)씨의 왼쪽 목 부위를 흉기로 찔러 숨지게 한 혐의를 받고 있다. A씨는 범행 후 112에 전화를 걸어 "아버지 B씨를 흉기로 찔렀다"라고 신고했으며 이후 B씨는 119구급대에 의해 인근 병원으로 옮겨졌지만 결국 숨졌다. 회사원인 A씨는 술에 취해 2軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 3연휴 뒤 출근길 아침 10도 이하 '쌀쌀'…큰 일교차 유의 4서울투자청, '국제 M&amp;A' 설명회…"벤처 출구전략 모색" 5인천, 출근길 바람 불어 더 춥다…낮부터 기온 올라 '큰 일교차' 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 강원도가 지급보증한 레고랜드 테마파크 대출 자산유동화기업어음(ABCP)이 결국 부도처리되면서 지방자치단체 보증 프로젝트 파이낸싱(PF) 사업에 비상이 걸렸다. 금융투자(증권)업계에 따르면 레고랜드 테마파크 기반 조성사업을 추진한 강원중도개발공사(GJC)가 필요자금을 조달하기 위해 설립한 특수목적법인(SPC) '아이원제일차'가 부도 처리됐다. 강원도는 GJC의 최대 주주로서 지분 44%를 보유하고 있다. 강원도는 최문순 전 지사 시절 춘천 중도 레고랜드 테마파크 조성 기반 공사를 맡은 강원중도개발(GJC)이 2050억 2'보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 3軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 4"집에 와서 허겁지겁 먹어" 제주 병설 유치원 '매운 급식' 논란 5동료들 보는데 부하직원 엉덩이 때린 간부…결과는 '정직 1개월' 1뮤지컬 '드라큘라', 김진환·유승우 합류...11월 개막 뮤지컬 '드라큘라'가 3년여 만에 돌아온다. 11일 제작사 글로벌컨텐츠에 따르면 '드라큘라'는 11월15일 서울 송파구 올림픽공원 우리금융아트홀에서 개막한다. 1897년 발간된 브람 스토커의 소설이 원작이다. 1995년 체코 프라하에서 초연된 후 독일, 프랑스, 러시아, 스위스, 폴란드, 벨기에, 한국 등에서 공연하며 약 500만명 이상 관객을 동원한 유럽 뮤지컬의 대표작이다. 브로드웨이 뮤지컬과는 차별화된 유럽식 대형 뮤지컬로 죽을 수 없는 형벌을 받은 비운의 남자 드라큘라의 매혹적인 이야기에 감미로운 음악을 더 2‘부산 밤이 보라색으로 물든다’...부산시, BTS 공연 연계 ‘보라해부산’ 조성 3자전거여행·워케이션…MZ취향 담은 관광앱들 두각 4"문화재청 내년 청와대 문화재 보전관리 예산은 '0원'" 5CJ ENM 등 K콘텐츠기업들 스페인서 성과…758억 투자상담 1두산 "구단 방향성 고려, 김태형 감독과 재계약 안해" 두산 베어스가 11일 올 시즌을 끝으로 계약 기간이 만료되는 김태형 감독과 재계약을 하지 않기로 결정했다고 밝혔다. 김 감독은 2015시즌부터 두산 베어스의 지휘봉을 잡아 2022시즌까지 정규시즌에서 645승 19무 485패를 거뒀다. 또한 2015년부터 2021년까지 7년 연속 한국시리즈 진출에 성공했고, 세 차례 한국시리즈 우승을 이끌었다. 두산 베어스 관계자는 "구단 전성기를 이끌어준 김태형 감독의 노고에 감사드린다. 팀의 장기적인 방향성 등을 고려해 이같은 결정을 했다"고 말했다. 두산은 마무리 훈련과 내 2이영표 부회장 "아시안컵 유치, 축구통해 국민 하나로" 3'투타 조화' SSG, 2022년 가장 빛났다…LG 역대급 2위 4진화한 이정후·돌아온 에이스 김광현…2022년 빛낸 스타 5손흥민의 토트넘, '나무 심기'로 故 벤트로네 코치 추모 1선우은숙, 4세 연하 아나운서 유영재와 재혼 탤런트 선우은숙(63)이 아나운서 유영재(59)와 재혼했다. 소속사 스타잇엔터테인먼트는 11일 "선우은숙씨가 좋은 인연을 만나 결혼의 결실을 맺게 됐다"며 "상대는 아나운서 유영재"라고 알렸다. "두 사람은 기독교 신자라는 공통점 아래 신앙과 신뢰를 쌓았다"며 "최근 혼인신고와 양가 상견례를 마쳤다. 새로운 출발에 따뜻한 관심·응원을 부탁드린다"고 했다. 선우은숙은 1978년 KBS 특채탤런트로 데뷔했다. 1981년 탤런트 이영하(72)와 결혼, 26년만인 2007년 이혼했다. 당시 선우은숙은 기자회견을 열고 "나쁜 2신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 3현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 4예비신부 김연아, 한복 화보…"♥고우림이 반할 만" 5공효진, 뉴욕 결혼식…10세 연하 케빈오와 백년가약 이 시간 Top 종합 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 경북대병원 제왕절개, 강원대병원보다 100만원 이상 비싸 권익현 군수, '세계로 웅비하는 부안 대도식 비약' 최선 "다음에 또 만나요" 괴산군, 외국인 계절근로자 환송 [부고]박찬수(한국거래소 파생상품시장본부 상무)씨 부친상 검찰, 자신의 아내 성폭행 오해 동료살해 40대 공무직 징역 24년 구형 제주 사회적경제기업 4곳 중 1곳 제조·도·소매업 국내외 식품안전정보, 조건 제약 없이 검색한다 의정부 행복로서 14일 뷰티 페스티벌 열린다 러 외무부 "美, 우크라에 호전적 분위기 조장 말라" 브이원텍, LG전자와 33억 규모 공급계약 체결 [포천소식] 시, 신재생에너지 융복합지원사업 공모 선정 등 野 "대통령실 새 진입로? 尹, 도어스테핑 피하려는 꼼수" 금감원, 금융사 직원에 '프리패스 출입증' 발급 경북대병원 제왕절개, 강원대병원보다 100만원 이상 비싸 野 "대통령실 새 진입로? 尹, 도어스테핑 피하려는 꼼수" 구인모 거창군수 "더 큰 거창 힘찬도약 다짐" 금감원장 "은행권 경영진, 법률상 내부통제 의무 부과해야" 국민연금 이사장, 수익률 제고 방안에 "운용발전위서 논의" 민주당 광주시당, 10개 상설위 위원장 공모 시민단체 "하계 아시안게임 광주·대구 공동 유치, 공론화부터" 박지원, 강대강 대치 여·야에 "북핵실험 5일 남아…이럴 때 아냐" "SKT 구축 버스 공공와이파이 공유기 교체 비율 유독 높아" '초등 임용합격→발령' 광주 4.8개월·전남 4.6개월…서울 15.6개월 전재수 의원, 행정안전부 특별교부세 9억원 확보 러 외무부 "美, 우크라에 호전적 분위기 조장 말라" 美 철도파업 위기감 다시 고조…노사합의안 반대 57% 연료전지 CATL, 3분기 순익 최대 1.9조원 3배 급증 국제사회, 우크라 향한 러의 미사일 공습 규탄 시위 물결 中, 대만 국경일에도 무력시위…臺국방부장 "中 도발" 9월 중국 승용차 판매량 194만대...전년비 21%↑ 베네수엘라, 재앙 수준의 산사태로 최소 36명 사망 우크라 외무 "푸틴, 우크라에 보복 테러…영토 수복 작전 계속"(종합) 신생아 7명 살해한 '죽음의 천사'…인슐린·공기 주사 주입 BOE 추가 시장 안정대책에도 英 국채 금리 오히려 급등 국제사회, 유엔총회서 러 대규모 미사일 공격 강력 규탄(종합) 이란 석유·가스 노동자들도 반정부 시위 가세…"총성·폭발음 들려" 금감원, 금융사 직원에 '프리패스 출입증' 발급 제주 사회적경제기업 4곳 중 1곳 제조·도·소매업 이엔플러스, 2차전지 양산 설비 반입…공장 완공 박차 국민연금 이사장, 수익률 제고 방안에 "운용발전위서 논의" 美 철도파업 위기감 다시 고조…노사합의안 반대 57% 연료전지 CATL, 3분기 순익 최대 1.9조원 3배 급증 김포-하네다 운항 횟수 2배 증가…30일부터 28회→56회 9월 중국 승용차 판매량 194만대...전년비 21%↑ 시티랩스, 운전면허 명의도용 방지 안면인증 솔루션 도입 올해 태풍에 침수차 2만대…중고차 환불 특약사항 필수 한전 사장 "핵심 해외사업 매각 바람직하지 않아…최대한 지킬 것"(종합) 이복현 "은행권에 금리인하 요구권 개선책 요구" 브이원텍, LG전자와 33억 규모 공급계약 체결 이엔플러스, 2차전지 양산 설비 반입…공장 완공 박차 금감원장 "은행권 경영진, 법률상 내부통제 의무 부과해야" 국민연금 이사장, 수익률 제고 방안에 "운용발전위서 논의" 에스엠, 12~13일 기업설명회 신한투자증권, 해외주식 실전투자대회 개최 현대카드, 인플루언서 대상 '인플카 현대카드' 출시 보험업계, 최근 10년 새 PF대출 10배 증가 한창, 2차전지 장비업체 셀틱 조건부 투자계약 체결 시티랩스, 운전면허 명의도용 방지 안면인증 솔루션 도입 이복현 금감원장, 우리은행 횡령에 "있을 수 없는 일" 씨아이에스, 195억 규모 2차전지 전극공정 장비 공급계약 체결 국내외 식품안전정보, 조건 제약 없이 검색한다 농협조합장선거 앞두고 광주·전남 무자격조합원 6750명 적발 TSMC, 삼성전자 제치고 반도체 매출 '세계 1위' 오른다 롯데제과, 빵빠레 샌드 카스타드 아이스크림 전량 회수 인쇄·복사·스캔 한번에…한국엡손, 스마트 복합기 3종 출시 김대중컨벤션센터서 광주식품대전 개막…13~16일 한화디펜스 첨단 다목적무인차량, 美육군 성능시연 참가 롯데케미칼, 일진머티리얼즈 인수…2.7조원 본계약 체결 토요타 후원 소외계층 오케스트라 연주회 개최 선생님들의 교수법 토론의 장…구몬 '학습연구대회' 성료 "ESG 리스크, 인권·안전 등 이슈 대응에 달려" 김포-하네다 운항 횟수 2배 증가…30일부터 28회→56회 국내외 식품안전정보, 조건 제약 없이 검색한다 카카오게임즈, '가디언 테일즈' 주제 오케스트라 예매 오픈 파수, 문서관리 플랫폼 ‘랩소디’에 저장소 통제 기능 추가 "SKT 구축 버스 공공와이파이 공유기 교체 비율 유독 높아" 美 애브포인트, 에센셜 인수…韓 SaaS 시장 본격 진출 롤러코스터 탔다가 911 부재중전화 왜?…"아이폰14가 구조요청 보내" 팬데믹 기간 전세계 '수면 질' 감소…韓 수면시간 늘었지만 평균 이하 박원재 부원장 "NIA, 지능정보시대 도약 견인차 역할" 경북도, '포스텍 연구중심 의대 설립' 박차… 바이오·의료산업 전문인력 양성 울산대·KAIST, 친환경 초고내구성 아연-공기전지 개발 "韓폭우·美폭염 등 기후위기 현실화"…정부, 과학기술로 해법 찾는다 동탄성심병원, 원격협진시스템 검증…"의료격차 해소" 검찰, 자신의 아내 성폭행 오해 동료살해 40대 공무직 징역 24년 구형 제주 사회적경제기업 4곳 중 1곳 제조·도·소매업 국내외 식품안전정보, 조건 제약 없이 검색한다 '국민은행 강도살인' 첫 재판 내달로 연기…이승만 '일부 혐의 부인' 노상방뇨 지적한 노인 무차별 폭행한 50대 실형 농협조합장선거 앞두고 광주·전남 무자격조합원 6750명 적발 연세대 K-NIBRT사업단, 싸이티바 코리아와 인력양성 등 업무협약 시민단체 "하계 아시안게임 광주·대구 공동 유치, 공론화부터" 경남도교육청, 9급 건축직 경력자 15명 뽑는다 '한동훈 어록집' 출판사 "韓 장관, 말만 하면 확대 재생산...조회수 등 신드롬" 김태우 강서구청장 "경쟁력 키워 잘 사는 도시 만들 것" 울산 청년 여성 10명 중 2.4명 매년 떠나…학업·취업 기회 부족 검찰, 자신의 아내 성폭행 오해 동료살해 40대 공무직 징역 24년 구형 의정부 행복로서 14일 뷰티 페스티벌 열린다 [포천소식] 시, 신재생에너지 융복합지원사업 공모 선정 등 파주시, 12월까지 긴급복지지원제도 확대 지원 고양시, 일산문화공원→'일산문화광장'으로 명칭 변경 ‘인천항 스마트 오토밸리 조성사업’ 운영사업자 선정 재공모 추진 이동환 고양시장 "국토부 1기 신도시 정비사업 로드맵 환영" 김태우 강서구청장 "경쟁력 키워 잘 사는 도시 만들 것" [화성소식] 시, U-만성질환관리센터 무료 심전도검사 등 진행 등 돌아온 마포나루 새우젓축제…"김장·콘서트 즐겨요" "용돈 주마" PC방서 여고생 2명 유인·추행한 40대 입건 화성 반려문화 축제 15일 개최…시민 참여·체험형으로 경북대병원 제왕절개, 강원대병원보다 100만원 이상 비싸 "다음에 또 만나요" 괴산군, 외국인 계절근로자 환송 제주 사회적경제기업 4곳 중 1곳 제조·도·소매업 '국민은행 강도살인' 첫 재판 내달로 연기…이승만 '일부 혐의 부인' 제9대 대구시의회 개원 100일…"선진 정책 의회 지향" 민주당 광주시당, 10개 상설위 위원장 공모 농협조합장선거 앞두고 광주·전남 무자격조합원 6750명 적발 '행사 취소에 환불 않고 추가입장'…세계군문화엑스포 '물의' 시민단체 "하계 아시안게임 광주·대구 공동 유치, 공론화부터" 해남군, 농식품부 '가루쌀 교육·컨설팅사업' 5개소 선정…전국 최다 세계지방정부연합 총회 개막…14일까지 이어져 충북, 전화금융사기 피해건수·금액 갈수록 동반 상승 "수계식·다비식때 왜 사진기 들이대냐 핀잔 들었는데...지금은 보물" 마산국화축제장에 국내 최장 200m 국화터널 만든다 3년 만에 돌아온 부산자갈치축제…13일 개막 2022경기국제웹툰페어 폐막, 관람객 2만2795명 방문 수원시 선정 아름다운 가을명소…광교산 수변 산책로 등 10곳 소개 "고궁 수유실, 男 이용제지 차별"…문화재청, 시정 조치 박보균 장관 "한미동맹, 문화로 새 지평"…美·멕시코 출장 3년 만의 동래읍성역사축제, 올 가을 다시 만난다 강경젓갈축제, '젓갈과 상월고구마'가 만나 '풍성' 서울예술교육 16년을 한눈에… 2022 예술교육축제 개최 "문화재 도난 15년간 100% 증가 특사경은 14명 불과" 전남도, 문화재 보수 국비 469억 확보…전년대비 110억 증가 김주형은 될성부른 나무…한국 무대서도 최연소 기록 KPGA 김한별, 골프채 부러뜨리고 캐디에 폭언…상벌위 회부 '이경규가 간다' 잇는다…'안정환의 히든 카타르' 편성 김승기 캐롯 감독, 가입비 미납에 "제가 말씀드릴 입장 아니다" 두산 "구단 방향성 고려, 김태형 감독과 재계약 안해" [백보드]허웅 vs 두경민 등 새 시즌 라이벌 열전 "따라올 테면 따라와 봐"…프로농구 10개 구단 감독 출사표 '2년차' 스트라이더, 애틀랜타와 최대 7년 1320억원 계약 2022~2023시즌 프로농구 타이틀스폰서에 SK텔레콤 '복싱영웅' 파키아오 메타버스로…"아바타로 팬과 소통" 'WC 출루율 5할' 김하성, 디비전시리즈서도 펄펄 날까 KBL '가입비 미납' 캐롯에 최후통첩…"13일까지 내라" 美 래퍼 더 게임, 국내 공연 앞두고 일방적 불참 통보 조성하 "결혼할 때 쥐뿔도 없었다…母도 말려" 클라씨, 컴백 카운트다운…'데이 앤드 나이트' 일정 공개 '이경규가 간다' 잇는다…'안정환의 히든 카타르' 편성 케플러, 첫 팬미팅 성료..."더 많이 못해줘서 미안" 이지현, 이혼소송 두번으로 보낸 30대…"부모님께 나는 죄인" 박시은♥진태현, 아픔 딛고 일터 복귀…"오랜만에 광고 촬영" '진검승부' 도경수·김상호, 본격 라면 독대…아웅다웅 케미 공효진, 뉴욕 결혼식…절친 정려원·엄지원 참석(종합) '복싱영웅' 파키아오 메타버스로…"아바타로 팬과 소통" '스맨파' 2번째 탈락 크루는 누구?…메가 크루 미션 후반전 시작 (여자)아이들 '아이 러브', 선주문 70만장 돌파 많이 본 기사 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 2'보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 3軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 4"집에 와서 허겁지겁 먹어" 제주 병설 유치원 '매운 급식' 논란 5동료들 보는데 부하직원 엉덩이 때린 간부…결과는 '정직 1개월' 6울산시 전국체전 해외 동포선수단 만찬…타 시도와 자매결연 710월1~10일 무역수지 '적자'로 시작…수출 118억·수입 156억 달러 1선우은숙, 4세 연하 아나운서 유영재와 재혼 2신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 3"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 6예비신부 김연아, 한복 화보…"♥고우림이 반할 만" 7공효진, 뉴욕 결혼식…10세 연하 케빈오와 백년가약 기자수첩 국내 의약품 허가심사 수수료 인상의 당위성 식품업계 가격 줄인상 불편한 3가지 이유 피플 김진부 경남도의회 의장 "행정통합 공감하나 실현 힘들 것" 박완수 경남지사 "행정통합, 정치권 결단·주민 의지로 가능" 세상에 이런 일이 검찰, 자신의 아내 성폭행 오해 동료살해 40대 공무직 징역 24년 구형 "용돈 주마" PC방서 여고생 2명 유인·추행한 40대 입건 '보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 '스토킹하고 음란 영상 보여주고' 30대 남성 징역 6개월 쏠쏠정보 명품도 '중고거래'…판매자 된 나, 이것 반드시 지켜라[알아봅시다] '독감주사 맞자' 언제?…11월 중순·오후 3시 이전, 월화수[알아봅시다] 3년 만에 열리는 '여의도 불꽃축제'…교통통제는 어디? "마음 튼튼해지는 950가지 방법"…궁금하면 이곳 클릭 "저축성보험은 예·적금과 달라"…금감원, 소비자 유의 당부 서비스 전체보기 뉴스 실시간 정치 국제 경제 금융 산업 사회 수도권 지방 문화 IT·바이오 스포츠 연예 포토 뉴시스 TV 광장 기자수첩 스토리칼럼 아트클럽 기고 인터뷰 기획특집 섹션코너 데일리뉴시스 인사 부고 동정 포토·영상 국내사진 영상 해외사진 테마포토 그래픽 패밀리사이트 프라임뉴스 위클리뉴시스 모바일앱서비스 Android IOS 제휴사 AP통신 新華通訊 회사소개 광고 · 제휴 문의 제휴사 안내 콘텐츠 판매 저작권 규약 고충처리 기사제보 이용약관 개인정보 · 청소년보호정책 개인정보처리방침 알립니다. 대표이사 : 김형기 주소 : 서울 중구 퇴계로 173 남산스퀘어빌딩 (구 극동빌딩) 12층 사업자등록번호 : 102-81-36588 발행인 : 김형기 편집인 : 김형기 고충처리인 : 박상권 통신판매업신고 : 서울중구 0398호 문의 02-721-7400 webmaster@newsis.com 뉴시스의 모든 콘텐츠는 저작권법의 보호를 받는 바, 무단 전재ㆍ복사ㆍ배포를 금합니다. Copyright © NEWSIS.COM All rights reserved. 99+</t>
+  </si>
+  <si>
+    <t>제주도 ‘장애물 없는’ 관광 환경 조성에 공 들인다-국민일보 시사 시사 &gt; 전체기사 제주도 ‘장애물 없는’ 관광 환경 조성에 공 들인다 입력 : 2021-03-07 14:30/수정 : 2021-03-07 15:41 트위터로 퍼가기 페이스북으로 퍼가기 구글로 퍼가기 인쇄하기 글자 크게 글자 작게 제주도가 장애물 없는 관광 환경 조성에 공을 들이고 있다. 휠체어 유모차 등 관련 장비를 관광지 곳곳에 폭넓게 갖추고 수유시설과 점자 블록 등을 설치해 관광 약자들의 이동에 더 편리한 도시 환경을 만들어가고 있다. 제주도는 노인 장애인 임산부 영유아 등 이동 약자들의 관광 기회를 확대하기 위해 ‘2021 장애물 없는 관광환경 조성사업’을 추진한다고 7일 밝혔다.우선 15일부터 제주관광협회 홈페이지를 통해 ‘관광약자 편의시설 정비지원 사업’ 대상자를 공모한다.이는 제주지역에 가장 많은 사설 관광지와 숙박업, 음식업 등 관광객들이 제주 여행에서 가장 많이 접하는 시설을 대상으로 편의 시설 설치 비용을 지원하는 사업이다.지원 규모는 업체당 600만원이다. 수유시설, 계단 손잡이, 점자 블록, 장애인 화장실 등을 설치할 수 있다. 휠체어나 유모차, 자동심장충격기 등 장비 구입도 가능하다. 단, 전체 공사 및 구입 비용의 30%는 업체가 개별 부담해야 한다.도는 또 도내 관광지에 대한 접근성을 모니터링하고 관광약자 접근성 안내센터를 통해 관광약자가 이용하기에 편리한 관광지를 안내하고 있다.지난해부터는 무장애 관광지를 선정하고 코스를 개발해 제주관광공사 홈페이지를 통해 공유하고 있다.특히 올해부터는 청각 장애인을 위해 도내 주요 관광지에 대한 설명을 담은 수어해설 영상을 제작하고 있다.앞서 도는 지난해까지 26억5000만원을 투입해 전세버스 12대와 렌터카 5대에 대해 관광약자 전용 리프트 제작을 지원했다.휠체어 무료대여 사업도 지속적으로 추진하고 있다. 제주 관광 중 휠체어가 필요한 경우 제주관광공사, 제주도관광협회, 관광약자센터를 통해 신청하면 된다.김재웅 관광국장은 “차별 없는 관광환경 조성을 위해 다양한 사업을 추진하고 있다”며 “앞으로도 관련 의견을 적극 수렴해 복지 관광 활성화에 앞장서겠다”고 밝혔다.제주=문정임 기자 moon1125@kmib.co.kr GoodNews paper ⓒ 국민일보(www.kmib.co.kr), 무단전재 및 수집, 재배포금지 당신이 좋아할 만한 기사 ‘naver.pay’ 주소, 속았다…8천만원 사기친 피싱사이트 “발렛 직원이 준 차 몰았다”…신혜성, 음주운전에 절도 혐의까지 버스타는 女, 신체 만지고 도망…6급 교육공무원이었다 ‘이자 폭탄’ 예고… 38만가구, 집 팔아도 빚 못 갚는다 오토바이와 ‘툭’… “괜찮다”더니 병원 20번 갔다 [영상] “예전 개념”…박수홍 울린 친족상도례, 69년만에 바뀌나 ‘풀소유’ 논란후 2년, 혜민 근황…“따가운 시선에 상처” [영상] 삼성전자 우크라 지사 건물, 러 미사일에 파손 ‘90년대 강남 큰 손’ 조춘자, 또 사기 행각…징역 7년 ‘무주 일가족 중독’ 합동감식 “보일러 연통, 그을음으로 막혀” [단독] 시중은행도 당했다… 신종 전세사기 일당 검거 14살 제자와 성관계 후 “진짜 사랑”… 전문가 “그냥 범죄” 라이브리 댓글 작성을 위해 JavaScript를 활성화해주세요 실시간 뉴스 스페인에선 주전… 94분 뛴 이강인, 팀내 최고평점 부하 직원 엉덩이 때렸는데 정직 1개월…‘솜방망이’ 논란 김영환 지사 “현금복지 후퇴 없다…양해구한다” 한화 창립 70주년, 김승연 회장 “어제를 경계하고 늘 새로워지자” 3년만의 제약 바이오 채용박람회 “프로농구 우승 후보는?” 감독에게 물었더니…SK·KT 막상막하 과학·미래 가치 담았다…UCLG 총회 ‘대전트랙’ 시작 정진석 ‘식민사관’ 발언 논란…유승민 “천박한 발언, 사퇴해야” 경찰 ‘제2의 n번방’ 18명 검거, 3명 구속 잇따르는 경기침체 경고…JP모건 CEO “미·세계 경제에 침체 올 것” 이재호 연수구청장, MZ세대와 소통…역사·문화 공유 최인호 “코레일·SR, 간부급 경조사비 5년간 14억 지급” 대구서 전국동시조합장선거 관련 첫 고발 전주, 후백제∼조선 유산 묶는 ‘왕의 궁원’ 프로젝트 추진 JP모건 CEO “S&amp;P 20% 더 빠질 수 있다” [3분 미국주식]</t>
+  </si>
+  <si>
+    <t>"제주도 제2공항 반드시 추진돼야"…도 관광협회 강력 촉구 :: 매일경제TV 뉴스 매일경제 MBN MBNGOLD 매경증권아카데미 매경이코노미 매경LUXMEN CITYLIFE GFW M-PRINT 로그인 회원가입 고객센터 TV TV홈 채널안내 편성표 전체프로그램 뉴스 뉴스홈 전체 경제&amp;금융 증권 산업 부동산 지방뉴스 증권 증권홈 현재가 투자전략 뉴스 시세 마이스탁 부동산 온에어 채널안내 편성표 통합검색 종목검색 검색 닫기 "제주도 제2공항 반드시 추진돼야"…도 관광협회 강력 촉구 기사입력 2021-03-14 17:16 협회 "제2공항은 국가 차원 핵심 인프라" 원희룡 제주도지사가 지난 10일 도청에서 제주 제2공항 사업에 대한 도의 입장을 발표하고 있다. (사진=제주도 제공) [제주=매일경제TV] 제주특별자치도관광협회는 오늘(14일) 제주경제 재도약과 미래를 위해 제2공항이 반드시 추진돼야 한다고 밝혔습니다. 이날 협회는 입장문을 내고 "관광패턴과 트렌드가 빠르게 변화하는 관광산업 특성상 선제적으로 대응하기 위해서도 제2공항의 역할은 매우 중요하고 대한민국 발전을 위한 국가적 차원의 핵심 인프라이기도 하다"며 "제2공항 추진이 좌초되는 순간 제주경제는 순식간에 무너질 것이 불 보듯 뻔하다"고 강조했습니다. 이어 "제2공항 추진동력이 제힘을 받지 못하는 것은 제주경제가 다시 과거로 회귀하는 현상으로 밖에 볼 수 없다"고 지적했습니다. 또 "제주관광의 지속적인 성장을 통한 제주경제 활성화를 위해서라도 국토부는 제2공항 건설을 추진해달라"고 촉구했습니다. 원희룡 제주도지사는 지난 10일 열린 기자회견에서 "국토부가 제2공항을 정상추진해달라"는 입장을 밝히기도 했습니다. 하지만 제2공항 반대단체 등이 여전히 '제2공항 전면 백지화'를 주장하고 있어 지역사회 내에서도 갈등이 계속되고 있습니다. [ 손세준 기자 / mkssejun@mk.co.kr ] [ⓒ 매일경제TV &amp; mktv.co.kr, 무단전재 및 재배포 금지 ] 화제의 뉴스 · 코스피 2% 가까이 하락…2,193.02 개장 · [특징주] LG전자, 3분기 실적 실망에 장 초반 하락세 · 이달 10일까지 수출 20%감소…무역적자 38억 달러 · 오늘부터 일본 무비자 관광 가능…2년 7개월 만 · 오늘부터 개량백신 접종 시작 오늘의 이슈픽 인기 영상 영상아이콘 삼성전자 3분기 '어닝쇼크'…반도체 수요 감소·가격 하락에 영업이익 32... 영상아이콘 제약바이오업계, 4분기 채용문 '활짝'…종근당·대웅제약 등 80여개사, ... 영상아이콘 볼보의 수입차 3위 도약 '비밀병기' S60·V60, 동시 출격 영상아이콘 이재준 수원시장 "시민 주체 행정혁신"…취임 100일 비전 선포 게시물 삭제기준 가장 많이 본 뉴스 1우크라전에 정신 빼앗겨 '뒷마당'도 못챙기는 러시아 2돌고래 250마리 또 집단 폐사…왜 이런 일 반복될... 3"꼬박꼬박 국민연금 낸 우린 뭔가"…기초연금 40만... 4"밀크티 싸다 좋아했죠? 사실 우유 안 넣었다"…가... 5청년들 몰려 월세마저 품귀…"집도 안 보고 계약금 ... 6신라젠·코오롱티슈진 증시퇴출 여부 이달 결론 7[주간증시전망] 한국은행 금통위·미국 CPI에 주목 8[주간증시전망] 실적 부진·금리 인상에 변동성 확대... 9평택시, 고덕 삼성반도체에 8개월간 수도 요금 5배... 10"이럴거면 왜 미리 발표했나"…행복주택 공급일정 줄... 투데이 포커스 코스피 2% 가까이 하락…2,193.02 개장 [특징주] LG전자, 3분기 실적 실망에 장 초반 하락세 뉴욕증시, CPI·실적 대기 속에 하락…나스닥 1% 내려 오늘부터 개량백신 접종 시작 [오늘 날씨] 전국 출근길 5도 내외…낮 최고 21... 화제의 뉴스 제조업 4분기 경기 전망 먹구름…신산업·ICT도 부진 근로소득 상위 0.1%·평균 연봉 8억인데 세금 '0원'인 사람 8명 7년간 외국인이 국내 아파트 3만 채 구입…중국인 62% 마요네즈·국수 3개월 연속 가격 올랐다 지난해 조세회피 투자 100억 달러 넘어…해외투자 15% 차지 포토뉴스 매일경제TV 소개 이용약관 개인정보취급방침 기타운영정책 고객센터 시청자제보 광고제휴안내 RSS Family Site MBN 매일경제 매경닷컴 MBNGOLD 매경이코노미 CITYLIFE M-PRINT 방송프로그램 02-2000-4999 매일경제TV의 모든 기사 및 영상(콘텐츠)은 저작권법의 보호를 받으며, 무단 전재, 복사, 배포를 금합니다. (주)매일경제TV I 대표이사 장용수 I 서울시 중구 퇴계로 190 매경미디어센터 Copyright © 매일경제TV All rights reserved.</t>
+  </si>
+  <si>
+    <t>제주도-제주도관광협회 “관광지 경쟁력 강화로 코로나19 위기극복” &lt; 제주 &lt; 전국 &lt; 기사본문 - 시사매거진 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 시작페이지 즐겨찾기 홈 로그인 회원가입 English 中文 日本語 العربية Español Français 번역 제공 검색 기사검색 검색 UPDATED.2022-10-11 14:55 (화) 실시간 뉴스 결혼정보회사 가연, 좋은 인연 위한 미팅파티 마련 진아름 결혼소감, ♥남궁민과 "성숙하고 예쁘게 살 것" 바비모, ‘시카 리페어 부스트 크림’ 출시 답변하는 이복현 금융감독원장 ‘마리엔펠트’ 30주년 기념 비스포크 행사 성료 금융감독원 국정감사 실시하는 정무위 이재명 "일본을 한반도에 끌어들이는 자충수 중단해야" 이재명 "한미일 군사훈련, 좌시할 수 없는 국방참사·안보자해행위" 두산베어스, 김태형 감독과 결별... "조만간 사령탑 인선" 발언하는 양무진 북한대학원대학교 총장 광산구 "올겨울 함께 할 희망의 메시지를 찾습니다" 2022 광산아트페스티벌 ‘별무리 예술장터’ 개최 HOME 뉴스 정치 경제 사회 생활/문화 교육 세계 IT과학 만화 동영상 보도자료 오피니언 인터뷰 칼럼 스페셜 인물열전 명인명사 포토 포토 엔터테인먼트 연예 스포츠 방송 오늘의 날씨 책 여행·레저 제 292호(2022-10) 오세훈 서울시장이 말하는 ‘약자와의 동행, 매력 특별시’ 구독하기 본문영역 이전 기사보기 다음 기사보기 제주도-제주도관광협회 “관광지 경쟁력 강화로 코로나19 위기극복” 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 전국 제주 제주도-제주도관광협회 “관광지 경쟁력 강화로 코로나19 위기극복” 기자명 오형석 기자 입력 2021.03.18 13:29 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 [시사매거진/제주] 제주특별자치도와 제주특별자치도관광협회(회장 부동석)는 코로나19 여파로 관광객의 발길이 줄어든 도내 관광지의 경쟁력을 강화하고 관광객 유치를 위해‘관광지 지속가능 프로그램 지원사원 공모’를 3월 17일부터 접수받고 있다. 코로나19 여파로 침체된 도내 관광지의 자생력 확보를 위하여 단순한 기존 볼거리 위주 관광에서 탈피하는 체험 관광 상품을 관광지에서 직접 구상하여 마을공동체와 함께 운영하는 사업으로 관광객과 관광사업체, 나아가 지역사회까지 만족도를 높일 수 있다. 이번 사업은 도내 관광지의 체험프로그램과 관광지 주변마을 자연환경 또는 시설을 연계한 상품을 개발한 관광사업체에게 프로그램 운영비와 온‧오프라인 홍보비 일부를 지원해준다. 사업공모 접수는 3월 17일부터 31일까지 15일간 제주특별자치도관광협회로 방문 및 우편‧전자우편(E-Mail)으로 신청이 가능하다. 오형석 기자  yonsei6862@gmail.com 새시대 새언론 시사매거진 오형석 기자 yonsei6862@gmail.com 다른기사 보기 저작권자 © 시사매거진 무단전재 및 재배포 금지 당신만 안 본 뉴스 프로골퍼 박결, 갑작스런 누리꾼 관심... 근황·나이·프로필 화제 골프선수 유현주 프로, 인스타 속 여신 자태 '이종범 딸·이정후 여동생' 이가현 누구? 나이·직업·프로필 공개 송가인, 다음 콘서트는 천안...목포 인증샷 "흥겹고 즐거워" 오늘날씨 월요일, 강원도 "첫눈오나" 서울날씨 "8도 기온뚝" [2022 더팩트 뮤직 어워드] 8일 개막 '라인업·중계·시작시간은?' 로또1등당첨지역 1036회 "9명 28억씩" 대박 프로골퍼 박결, 갑작스런 누리꾼 관심... 근황·나이·프로필 화제 주요기사 국회, 감사원 국감 날 선 공방 예고 11일 코로나19 신규 확진자 1만 5476명 '위중증 313명·사망자 10명' 러시아, 우크라이나 미사일 공격... 유엔 긴급특별총회 소집 오늘날씨 화요일, 서울날씨 아침6도 기온뚝 '얼음, 눈오는 경기북부' 대통령실, 이재명 '친일 국방' 겨냥해 "말이 아닌 현실의 문제" 토트넘 손흥민, 케인과 43번째 합작골 '시즌 2호 도움' 팀은 승리 최신뉴스 결혼정보회사 가연, 좋은 인연 위한 미팅파티 마련 진아름 결혼소감, ♥남궁민과 "성숙하고 예쁘게 살 것" 바비모, ‘시카 리페어 부스트 크림’ 출시 답변하는 이복현 금융감독원장 ‘마리엔펠트’ 30주년 기념 비스포크 행사 성료 포토뉴스 결혼정보회사 가연, 좋은 인연 위한 미팅파티 마련 진아름 결혼소감, ♥남궁민과 "성숙하고 예쁘게 살 것" 바비모, ‘시카 리페어 부스트 크림’ 출시 답변하는 이복현 금융감독원장 인기뉴스 1 프로골퍼 박결, 갑작스런 누리꾼 관심... 근황·나이·프로필 화제 2 골프선수 유현주 프로, 인스타 속 여신 자태 3 '이종범 딸·이정후 여동생' 이가현 누구? 나이·직업·프로필 공개 4 송가인, 다음 콘서트는 천안...목포 인증샷 "흥겹고 즐거워" 5 오늘날씨 월요일, 강원도 "첫눈오나" 서울날씨 "8도 기온뚝" 6 [2022 더팩트 뮤직 어워드] 8일 개막 '라인업·중계·시작시간은?' 7 로또1등당첨지역 1036회 "9명 28억씩" 대박 8 선우은숙 재혼, 유영재 아나운서와 혼인신고... 나이·프로필 눈길 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 서울특별시 강남구 테헤란로25길 20, 8층 813호(역삼동,역삼현대벤쳐텔) 대표전화 : 02-790-5116 팩스 : 02-2086-7272 청소년보호책임자 : 김길수 법인명 : 시사매거진 제호 : 시사매거진 등록번호 : 강남 라 00906 등록일 : 1997-09-12 발행일 : 2017-05-01 발행인 : 김길수 편집인 : 김영규 사장 : 천진철 시사매거진 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 시사매거진. All rights reserved. mail to webmaster@sisamagazine.co.kr 위로 전체메뉴 전체기사 뉴스 전체 정치 경제 사회 생활/문화 교육 세계 IT과학 만화 동영상 오피니언 전체 인터뷰 칼럼 스페셜 인물열전 명인명사 포토 전체 포토 엔터테인먼트 전체 연예 스포츠 방송 책 여행·레저 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>LG헬로비전 영남방송 지역 방송국 찾기 지역방송국 지역방송 홈 즐겨찾기 지역방송 홈 별 모양 즐겨찾기를 클릭 하시면 관심지역으로 설정됩니다. 서울 양천방송 즐겨찾기 양천방송 은평방송 즐겨찾기 은평방송 경기/인천 북인천방송 즐겨찾기 북인천방송 부천김포방송 즐겨찾기 부천김포방송 나라방송 즐겨찾기 나라방송 강원 영동방송 즐겨찾기 영동방송 영서방송 즐겨찾기 영서방송 강원방송 즐겨찾기 강원방송 충청 충남방송 즐겨찾기 충남방송 전라 전북방송 즐겨찾기 전북방송 호남방송 즐겨찾기 호남방송 아라방송 즐겨찾기 아라방송 대구/경북 대구방송 즐겨찾기 대구방송 신라방송 즐겨찾기 신라방송 영남방송 즐겨찾기 영남방송 부산/경남 해운대기장방송 즐겨찾기 해운대기장방송 금정방송 즐겨찾기 금정방송 중부산방송 즐겨찾기 중부산방송 중앙방송 즐겨찾기 중앙방송 경남/마산/하나방송 즐겨찾기 경남/마산/하나방송 가야방송 즐겨찾기 가야방송 본문 바로가기 헬로tv &amp; 인터넷 헬로모바일 헬로렌탈 영남방송 뉴스/편성 예능/교양 바로가기 헬로tv&amp; 인터넷 헬로모바일 헬로모바일다이렉트 광고다이렉트몰 일시정지 재생 방송국소개 뉴스 프로그램 편성표 광고소개 제보참여 공지사항 오늘의뉴스 | 뉴스 | 영남방송 | LG HelloVision 뉴스 지역방송 메인 지역방송 뉴스 오늘의 뉴스 뉴스 다시보기 오늘의 뉴스 내륙의 제주도 '봉화 오록마을' 관광 자원화 구분사회(이하영 기자) 2021.03.16 18:54:48 SNS 공유 facebook 공유 url 복사 &lt;앵커&gt; 돌담이 아름다워내륙의 제주도라 불리는봉화 오록마을이관광 문화마을로 탈바꿈합니다.올해 경상북도 한옥 집단마을 관광자원 개발사업에 선정되면서다양한 기반 조성사업이 추진됩니다.이하영 기잡니다. 마을 입구에 들어서자울창한 소나무 숲이 반깁니다.300년이 넘은 고목이 지키고 있는 봉화군 물야면 오록마을.높은 산 아래 한옥들이 고즈넉하게 자리를 잡고 있습니다.인터뷰) 김윤섭봉화군 오록리봉화군 내에서는 옛날 기와집으로 치면 제일 많아요.고택으로 말하면 우리 동네가 제일 많더라고요.다른데 가면 몇 집 없는데 우리는 10여 가구가 2백 년 넘은 고택들이니까….시골마을의 정취가 고스란히 전해지는 옛 가옥은소박하지만 기품이 흐릅니다.경상북도 문화재 자료 150호인 장암정과한석봉이 쓴 글씨로 유명한 노봉정사 등불천위를 모신 사당과 정자도 6곳이나 됩니다.스탠딩)풍산 김씨의 집성촌인 이곳 오록마을은나지막한 돌담이 아름다워내륙의 제주도로 불립니다.전통 한옥과 돌담길 등 다양한 매력을 지닌오록마을이 관광 문화마을로 탈바꿈합니다.봉화군은 올해 사업비 1억 5천만 원을 투입해한옥 집단마을 관광자원 개발사업을 추진합니다. 인터뷰) 박민홍봉화군 관광개발팀장물야면 오록마을이 2021년도 경상북도 한옥 집단 관광자원화사업에 선정됐습니다. 이를 통해 옛날식 담장 보수,황토길보수, 지역 주민들이 쉴 수 있는 정자, 마을 입구에무궁화길 조성 등 다양한 인프라를 확충할 계획에 있습니다.또, 인근에 있는 오전약수 관광지와 물야 저수지를 연계해 친환경 탐방로를 조성하는 등 새로운 형태의 관광 자원을 개발할 계획입니다.헬로tv뉴스 이하영입니다. &lt; 가장 빠르고 정확한 지역소식 ©LG헬로비전, 무단 전재·재배포금지 &gt; [전화연결]경북교육청, AI융합교육 전문교사 양성 [지역 인물 탐구]손끝으로 완성한 종이 예술, 송인영 한지 그림 명인 목록 전국 주요뉴스 부천시, 아트센터 준공식·대규모 시민 대화 오늘(6일) 개최 통합메인방송 부천시, 아트센터 준공식·대규모 시민 대화 오늘(6일) 개최 공사를 마친 부천아트센터가 문을 열었습니다. 부천시는 오늘(6일) "황혼에도 출근합니다"…노인 일자리 활기 통합메인방송 "황혼에도 출근합니다"…노인 일자리 활기 시니어 근로자 70대 최병국 씨. 8개월 째 우체국에서 업무 보조 일을 2025년 초고령화…5명 중 1명이 노인 통합메인방송 2025년 초고령화…5명 중 1명이 노인 &lt;기자&gt; 경남 고성군 영현면. 지난 8월 말 기준 인구 861명이 살고 있 인천시 '치매 돌봄 특별시' 조성 통합메인방송 인천시 '치매 돌봄 특별시' 조성 &lt;기자&gt; 이곳은 인천시가 진행하고 있는 치매환자중심 돌봄 전문교육 링크공유 Close 복사 개인정보 처리방침 법적고지 이메일 무단수집 거부 정도경영 사이버신문고 고객서비스 헌장 광고문의 대표이사 송구영 | 개인정보보호책임자 이건호 | 사업자 등록번호 117-81-13423 서울특별시 마포구 월드컵북로56길 19 상암디지털드림타워 고객행복센터 1855-1000 070-7373-1002~3(무료/헬로전화 이용 시), 080-120-1012(무료/타사 전화 이용 시) © 2020 LG HelloVision All rights reserved. 본 웹사이트에 게시된 이메일 주소가 전자우편 수집 프로그램이나 그 밖의 기술적 장치를 이용하여 무단으로 수집되는 것을 거부하며, 이를 위반 시 정보통신망법에 의해 형사 처벌됨을 유념하시기 바랍니다. 게시일 : 2003년 3월 1일 닫기</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 제2차 이사회 개최 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 14:46 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도관광협회, 제2차 이사회 개최 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 사회 제주도관광협회, 제2차 이사회 개최 이창준 기자 headlinejeju@headlinejeju.co.kr 승인 2021.03.11 14:41 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 부동석 제주특별자치도관광협회장은 11일 제2차 이사회를 통해 업종별분과위원장단 선출 등 주요 현안사항을 처리했다고 밝혔다. 이에 업종별 분과위원장 18명 중 11명이 교체되고 협회 임원 46명이 임명되는 등 협회 운영에 혁신이 가속화될 것으로 전망됐다. 또한, 여행업분야, 호텔․숙박업분야, 관광지업분야, 기념품업분야, 교통(전세버스,렌트카)분야, 사업지원분야, 서귀포시관광협의회 등 부문별 특수성을 고려한 부회장단 8명이 지명되고, 자문위원단 및 인사위원회와 재정위원회가 구성되는 등 협회 재정비가 이뤄졌다. 부동석 회장은 오는 6월 계약기간이 만료되는 상근이사의 계약기간을 연장하는 등 선거 공약사항 이행을 위한 시동을 걸기도 했다. &lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 이창준 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 제주 병설유치원 매운급식 논란..."아이들이 밥을 못 먹어" 제주, 택배 추가배송비 부당 요구사례 접수 창구 운영 제주, 전국에서 가장 비싼 기름값 문제 대응 시장조사 나선다 제주도 실업급여 수급자↓...고용상황 회복세 전환 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 3 서귀포시, 2022년 교통유발부담금 21억원 부과 4 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 5 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 6 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 7 세상을 웃게 만드는 친절 8 제주시, 하반기 사무관 승진의결자 6명 승진 임용 9 서귀포시, 사무관 승진의결자 8명 승진임용 10 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 1 안녕하세요 2 네 3 네 4 지난 회차 이후 오랜만에 글 올려주셔서 너무 반가운 마음에 푹 빠져들어 읽었습니다. 오늘도 공감가는 좋은 글 올려주셔서 감사합니다. 따뜻한 마음의 양식 얻어갑니다. 저만 알고싶은 글 맛집이네요.^^. 5 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 6 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 7 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 8 지역발전의 초석이 되었으면 한다 9 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 10 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>(주)엘에스컴퍼니, 제주도 내 명소 관광과 액티비티 체험 상품 담은 ‘제주투어패스’ 오픈 &lt; 뉴스 &lt; 문화 &lt; 기사본문 - 문화뉴스 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 매체소개 기사제보 구독하기 보도자료 등록 naverpost facebook instargram twitter navertv MHN 편집 : 2022-10-11 14:55 (화) 문화 영화 연극 공연 미술·전시 음악 춤 뮤지컬·오페라 뉴스 자동차 전국 정치 정책 정부 법률 국회정당 외교 국방 북한 세계 경제 IT 산업 경제일반 경제정책 금융증권 과학 고용노동 세계경제 사회 사건/사고 부동산 인사/동정 미국 중국 일본 유럽 기타 라이프 패션뷰티 음식맛집 건강 리빙 교육 날씨 강연·문화센터 여행 스포츠 방송 드라마 책 국내 해외 피플 인터뷰 포토 오피니언 기고·칼럼 리뷰 커뮤니티 보도자료 회원정보 로그인 회원가입 전체메뉴 버튼 최신뉴스 세종시민극단 공감 네 번째 연극, '기쁜 우리 장례식' 한국브루크너협회 플룻티스트 마린 가브리엘 초청연주 개최 2022 M소나타 시리즈 백건우 피아노 리사이틀 그라나도스 ‘고예스카스’ 록-다큐 뮤지컬 '웨이스티드', 12월 초연...정연·홍지철 등 캐스팅 [김이율 작가의 문화안녕] 연극배우 권남희를 만나다 [최경헌의 유럽견문록] 10. 기한제 행복 서울문화재단, '서울예술교육축제' 개최...다채로운 예술교육 체험 원광종합병원 김수산 행정원장 "긍정적 투자로 지역주민과 상생할 것" 현대차그룹, 부산세계박람회 글로벌 SNS 콘텐츠 4천만뷰 돌파 난민 이의신청 절차, 더 투명해지고 공정해 진다 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 (주)엘에스컴퍼니, 제주도 내 명소 관광과 액티비티 체험 상품 담은 ‘제주투어패스’ 오픈 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 문화 뉴스 (주)엘에스컴퍼니, 제주도 내 명소 관광과 액티비티 체험 상품 담은 ‘제주투어패스’ 오픈 기자명 박정래 기자 입력 2021.03.16 09:00 댓글 1 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 구글+(으)로 기사보내기 네이버밴드(으)로 기사보내기 네이버블로그(으)로 기사보내기 핀터레스트(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 제주도 내 핫플레이스만 골라 다닐 수 있는 '제주투어패스'가 오픈한다. 16일 온라인 여행상품 전문 기업 (주)엘에스컴퍼니(대표 강대철)는 제주도 유명 카페, 테마파크, 액티비티 상품 등을 48시간 동안 자유롭게 이용할 수 있는 제주투어패스를 선보인다. 제주투어패스 구매 시 제주도민이 엄선한 제주도 내 핫플레이스를 직접 골라 즐기고 체험할 수 있다. 제주투어패스를 개발한 (주)엘에스컴퍼니 강대철 대표는 "신종 코로나바이러스 감염증(코로나19) 팬데믹이 장기화 되며 업체는 물론 여행객들의 주머니 사정도 어려워지고 있다"며 "소비자의 부담을 덜어내는 역할은 물론 관광지 방문율을 크게 향상 시킬 것"이라고 포부를 밝혔다. 현재 제주투어패스에는 제주도 핫플레이스 카페와 유명 테마파크, 다양한 액티비티 체험장들이 입점했다. 강 대표는 "제주도 핫플레이스 업체들이 관광 활성화를 위해 손익을 감수하고 기꺼이 뜻을 모아주었다"며 "제주도 관광이 다시 활기를 띠는 날이 하루빨리 오길 바란다"고 감사한 마음을 전했다. 제주투어패스는 포털사이트를 통해 구매 가능하다. '마음대로 골라가는 제주'라는 콘셉트로 48시간 동안 제주도 내 핫플레이스 투어를 할 수 있으며 중복 입장은 불가하다. 주요기사 연금복권의 현재가치 계산! 연금복권 720 +, 일시불로 따지면 얼마? 제임스 웹 망원경이 보내온 첫 번째 사진...허블 망원경과 차이점은? 2022년 9급 공무원 월급과 연봉...과연 최저시급보다 적을까? [포토] 한소희 '예쁜 미소' 박정래 기자의 다른 기사 보기 박정래 기자 eveleva@naver.com 독자와 공감을 통해 더 나은 내일을 만들겠습니다. 최신기사 인기기사 저작권자 © 문화뉴스 무단전재 및 재배포 금지 포토 신하균-한지민-이정은, '욘더'로 만나요 [포토] 신하균, 남다른 품격 [포토] 한지민, '욘더' 색다른 변신 기대하세요 [포토] 한지민, 러블리 가을 패션 [포토] 이정은, 부산국제영화제 첫 참석 [포토] 정진영, '욘더'로 인사드려요 [포토] 신하균, 목폴라도 품격있게 만든다 [포토] '욘더' 이준익 감독 [포토] 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 1 댓글 접기 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 댓글목록 최신순 추천순 욕설, 타인비방 등의 게시물은 예고 없이 삭제 될 수 있습니다. Jejut 2021-03-16 09:39:48 더보기 삭제하기 이거 하나만 있으면 제주여행이 엄청 편하겠어요! 답글쓰기 0 0 최신뉴스 세종시민극단 공감 네 번째 연극, '기쁜 우리 장례식' 한국브루크너협회 플룻티스트 마린 가브리엘 초청연주 개최 2022 M소나타 시리즈 백건우 피아노 리사이틀 그라나도스 ‘고예스카스’ 록-다큐 뮤지컬 '웨이스티드', 12월 초연...정연·홍지철 등 캐스팅 [김이율 작가의 문화안녕] 연극배우 권남희를 만나다 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 (04050) 서울특별시 마포구 양화로 156 (LG팰리스빌딩) 1727 대표전화 : 0269593256 팩스 : 023221666 법인명 : (주)엠에이치앤미디어 제호 : 문화뉴스 등록번호 : 서울 아 03015 등록일 : 2014-02-18 발행일 : 2014-02-18 발행·편집인 : 주진노 「열린보도원칙」 당 매체는 독자와 취재원 등 뉴스이용자의 권리 보장을 위해 반론이나 정정 보도, 추후보도를 요청할 수 있는 창구를 열어두고 있음을 알려드립니다.고충처리인 권혁재 02-6959-3256 press@mhns.co.kr Copyright © 2022 문화뉴스. All rights reserved. mail to eveleva@naver.com 위로 전체메뉴 전체기사 문화 전체 영화 연극 공연 미술·전시 음악 춤 뮤지컬·오페라 뉴스 자동차 전국 정치 전체 정책 정부 법률 국회정당 외교 국방 북한 세계 경제 전체 IT 산업 경제일반 경제정책 금융증권 과학 고용노동 세계경제 사회 전체 사건/사고 부동산 인사/동정 미국 중국 일본 유럽 기타 라이프 전체 패션뷰티 음식맛집 건강 리빙 교육 날씨 강연·문화센터 여행 스포츠 방송 드라마 책 국내 해외 피플 전체 인터뷰 오피니언 전체 기고·칼럼 리뷰 포토 보도자료 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도, '안전한 관광제주 지켜내기' 온 힘 &lt; 제주 &lt; 전국 &lt; 기사본문 - 국제뉴스 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 [급등주] 투비소프트 상승, 투비디티엑스-키월드 MOA 체결 [특징주] 대화제약 주가 하락 '요오드 관련주 수혜 끝났나' [급등주] 켐온, 코아스템과 흡수합병 진행 '27%↑' [특징주] 나노씨엠에스 주가 급등 '바이러스 사멸램프 성능 소개' [특징주] 해성산업 주가 상승 '계양전기 투자부문 분할흡수합병' [급등주] SCI평가정보 상승, 한은 두 번째 빅스텝 전망 [급등주] 코디엠 3거래일 지속 상승 '삼성전자 영향?' [급등주] 테라셈 상장폐지 앞두고 정리매매 '60%↑' [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' [특징주] 삼성전자 주가 하락 '세계 반도체 1위 뺏겼다' 2022-10-11 14:55 (화) 김포 사우동 횟집서 불…인명피해 없어 수원 팔달구 음식점서 불…인명피해 없어 전남 도서지역·해상서 응급환자 2명 발생 해경, 진도군 도서지역 골절 환자 '병원 이송' 화천서 SUV 차량 전복…2명 부상 정선서 승합차·화물차 추돌…3명 경상 진도군 도서지역서 응급 환자 발생..해경 육지로 이송 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 동해해경, 위험예보제 '주의보' 발령 인천 남동구 공장 기숙사서 불…인명피해 없어 인천 남동구 음식점서 불…인명피해 없어 원주 단계동 음식점 화재…인명피해 없어 시작페이지 즐겨찾기 홈 로그인 회원가입 정치 정치 대통령실 외교 국방 종합 청와대 경제 경제일반 산업/기업 부동산 종합 사회 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 문화 영화/공연 여행 연예 연예 종합 스포츠 국내스포츠 종합 국제 World News 종합 전쟁/난민 테러/시위 전국 서울 경기남부 경기북부 인천 강원 대전 충남 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 포토 종합 핫 포토 해외스포츠 해외경제 국제뉴스TV 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도, '안전한 관광제주 지켜내기' 온 힘 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 전국 제주 제주도, '안전한 관광제주 지켜내기' 온 힘 기자명 문서현 기자 입력 2021.03.07 15:13 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 민·관 합동의 상시 점검체계 구축 추진 도내 관광사업체 방역현장 지속 관리 (제주=국제뉴스) 문서현 기자 = 제주도는 제주형 사회적 거리두기 완화 연장 시행으로 인해 자칫 느슨해지기 쉬운 도내 관광사업체 방역현장에 대한 지속 관리를 위해 민·관 합동의 상시 점검체계를 구축해 추진하고 있다. 7일 제주도에 따르면 이는 지난달 15일 제주형 사회적 거리두기 1.5단계로 완화되면서 3월 중 제주를 찾는 여행객들이 급격하게 증가할 수 있다는 우려가 제기됨에 따라, 코로나 일상의 ‘안전한 관광제주’를 지켜내기 위해 진행하고 있다고 밝혔다. 이를 위해 도는 행정시와 관광협회 및 공사 등 민·관 합동의 요일별 기관담당 점검반을 구축하고, 보다 정밀하고 지속적인 현장점검으로 코로나19 감염 재확산 방지뿐만 아니라, 관광수용 태세 재정비로 도내 관광산업의 조기회복에 노력해 나가고 있다. 제주도는 관광사업체에 대해 손소독제 등 방역물품을 지속적으로 제공해 나가고 있으며, 특히 올해부터는 사업체별 자율방역체계 구축 지원을 위한 방역비 지원사업을 추진하고 있다. 또 방역 상시점검 시 코로나로 인해 어려움을 겪고 있는 관광업체의 현장의 소리를 직접 청취해 애로사항에 대해 유관기관과 협업을 통해 적극 해결해 나갈 예정이다. 한편 도는 관광사업체의 경제적 어려움을 지원하기 위해 올해 지원 사업으로 156억 원을 편성, 지난 1월 25일부터 3월 15일까지 관광진흥기금 특별융자지원을 신청받고 있다, 안전 관광제주 구축을 통한 관광산업 조기 회생을 위해 △도내 관광사업체에 대한 방역비 지원 △온라인 마켓‘탐나오’ 관광상품 판매 확대 △건전 관광질서 수용태세 확립을 위한 키오스크, 모바일 도어락 시스템 등을 운영한다. 이어 패턴별 여행 상품 개발에 따른 상품개발비와 차량 임차료를 지원하고, 도내 여행사업체 등에 보증보험 지원 등 34억 원을 상반기에 집중 투입해 지원할 예정이다. 민영뉴스통신사 국제뉴스/start-to@hanmail.net 키워드 #제주도 #방역 #안심코드 #키오스크 #제주 #관광사업체 #제주형 사회적거리두기 문서현 기자 start-to@hanmail.net 다른기사 보기 저작권자 © 국제뉴스 무단전재 및 재배포 금지 당신만 안 본 뉴스 [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 골프선수 박결, 꽃보다 아름다운 미모...나이 등 프로필 궁금증 오늘날씨 '가을축제·단풍, 핑크뮬리명소' 가볼만한곳, 서울날씨 이정후 여동생 이가현, 고우석과 결혼...나이·직업·얼굴·프로필 궁금증 토트넘·아스널 경기일정 "손흥민 무섭다" 중계채널시간 상생소비복권 '당첨자발표일' 100만원 당첨금 지급일 언제 박민영 열애설 주인공은 강종현 회장은 누구? [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 주요기사 [2022 10월 모의고사] 12일 진행 '시간표·9월 등급컷·난이도·수능날짜는?' 조쉬 오코지, '드라이브인' 송강호 첫 드라마 '삼식이 삼촌' 라인업·몇부작·출연진 누구? '보성 제암산자연휴양림' 가을 워크숍 인기 김종길 전 재경의령향우회 회장, 장학금 천만 원 기탁 유병호 감사원 사무총장 "문자 송구스러워…소통은 정상적" 최신뉴스 [2022 10월 모의고사] 12일 진행 '시간표·9월 등급컷·난이도·수능날짜는?' 조쉬 오코지, '드라이브인' 송강호 첫 드라마 '삼식이 삼촌' 라인업·몇부작·출연진 누구? '보성 제암산자연휴양림' 가을 워크숍 인기 김종길 전 재경의령향우회 회장, 장학금 천만 원 기탁 포토뉴스 [2022 10월 모의고사] 12일 진행 '시간표·9월 등급컷·난이도·수능날짜는?' 조쉬 오코지, '드라이브인' 송강호 첫 드라마 '삼식이 삼촌' 라인업·몇부작·출연진 누구? '보성 제암산자연휴양림' 가을 워크숍 인기 인기뉴스 1 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 2 우크라이나 러시아 전쟁, 노획 러군 탱크 3 [속보] 美 9월 실업률 3.5%…전월 대비 0.2%P 하락 4 러시아 우크라이나 자포리자 공격, 최소 3명 사망 5 해경, 진도군 도서지역 골절 환자 '병원 이송' 6 '뿌리면 옷이 된다' 파리패션위크 화제의 드레스 7 화천서 SUV 차량 전복…2명 부상 8 [지진 속보] 北, 함경북도 길주 39km 지역서 2.4 규모 지진 발생 하단영역 하단메뉴 매체소개 기사제보 광고문의 콘텐츠 판매 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 제휴사 매체정보 주소 : 서울특별시 송파구 동남로 103 (청송빌딩) 2층 국제뉴스 본사 정부인가번호 : 문화 나-00021호 등록일 : 2012-04-02 부가통신사업신고번호 : 제 2-01-22-0051 호 발행일 : 2011-11-16 대표전화 : 02-2281-5005 팩스 : 02-6455-5003 청소년보호책임자 : 김택수 법인명 : 국제뉴스 제호 : 국제뉴스 발행·편집인 : 김영규 국제뉴스의 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 국제뉴스. All rights reserved. mail to webmaster@gukjenews.com 위로 전체메뉴 전체기사 정치 전체 정치 대통령실 외교 국방 종합 청와대 경제 전체 경제일반 산업/기업 부동산 종합 사회 전체 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 전체 문화 영화/공연 여행 연예 전체 연예 종합 스포츠 전체 국내스포츠 종합 국제 전체 World News 종합 해외경제 전쟁/난민 테러/시위 전국 전체 서울 경기남부 인천 강원 충남 대전 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 종합 경기북부 포토 전체 종합 핫 포토 라이프·헬스 소셜 / sns 영상 세계 전체 Korea News 해외스포츠 미분류 자동차(x) 전체 종합 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도·도관광협회, 관광지 지속가능 프로그램 지원사업 공모 &lt; 경제 &lt; 기사본문 - 제민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 로그인 회원가입 구독신청 한국어 영어 중국어 일본어 베트남어 스페인어 러시아어 경제 최종편집 2022-10-11 (화) 14:38 facebook twitter instagram youtube 기사검색 검색 제민방송 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 뉴스 정치 경제 사회/복지 교육 스포츠/레져 기획 진행 연재 지난 연재 오피니언 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 문화뉴스 공연/전시 출판/문학 방송/영화 Life/건강 WEEK&amp;팡 종교 연예 일과 사람들 동네방네 인사 화촉 부음 WeLove 진행 프로젝트 지난 프로젝트 해녀 특별기획 4∙3 4·3뉴스 4·3은 말한다 4·3기획 WEEK&amp;팡 진행연재 지난연재 コリアニユ-ス 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 본문영역 이전 기사보기 다음 기사보기 제주도·도관광협회, 관광지 지속가능 프로그램 지원사업 공모 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 경제 제주도·도관광협회, 관광지 지속가능 프로그램 지원사업 공모 기자명 신승은 기자 입력 2021.03.17 17:08 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 오는 3월 31일까지 제주특별자치도와 제주도관광협회는 이달말까지 관광지 지속가능 프로그램 지원사업을 공모한다. 모집 대상은 도내 사설관광지 중 관광객 대상 체험 프로그램을 운영하는 업체다. 올해는 관광지 체험 프로그램과 마을 체험 프로그램 연계 상품을 개발한 7곳을 선정해 업체당 1000만원(지원금 700만원·자부담 300만원)의 운영·홍보비용을 지원한다. 사업을 희망하는 업체는 도관광협회 홈페이지 내 공지사항에서 신청서와 사업계획서 등을 다운로드한 후 협회 방문 또는 우편, 전자우편으로 신청하면 된다. 신승은 기자 신승은 기자 cococo7272@naver.com 다른기사 보기 저작권자 © 제민일보 무단전재 및 재배포 금지 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 최신뉴스 제주대병원 권역정신응급의료센터 개소 [본사내방] 2022년 10월 11일 한경농협, 취약계층 주택용 소방시설 기증 제주, 서울대 지역균형전형 비율 2.4%...전국 최하위 제주타요렌터카, 매월 국·내외 아동에 정기 후원 포토뉴스 [포토뉴스] 은색 물드는 새별오름 [포토뉴스] 오늘은 犬이 주인공 [사진뉴스] "우리의 소중한 유산 무형문화재 함께 즐겨요" [포토뉴스] 추석 분위가 나는 제주시오일장 인기뉴스 1 오늘의운세 10월11일(음력9월16일) 2 제61회 탐라문화제 9일 일부 일정 10일로 연기 3 제103회 전국체전 4일차...메달 레이스 이어가 4 [제민포럼] 테슬라와 한라산소주 5 일본시장 활짝 제주관광 기대감속 우려도 6 1600여명 발 구름에 서귀포 가을 들썩 희망 의지 불끈 7 제주시 수중·핀수영협회 소속 8명 수상구조사 '합격' 8 장 발장 이야기 하단영역 하단메뉴 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 RSS 매체정보 발행·편집인 : 양치석 청소년보호책임자 : 김태음 제주특별자치도 제주시 평화로 2700 제민일보사 등록번호 : 제주특별자치도 아01133 등록일 : 2021-09-06 대표전화 : (064) 741-3111 팩스 : (064) 741-3117 기사제보 : (064) 741-3220 광고문의 : (064) 741-3121 제민일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제민일보. All rights reserved. mail to edijemin@chol.com 위로 전체메뉴 전체기사 제민방송 전체 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 정치 전체 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 경제 전체 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 사회 전체 사회종합 사건/사고 환경 해양 노동 복지 도민기자 마당 청소년기자 마당 날씨 교육 전체 교육종합 대학가 입시정보 우리학교소식 청소년/어린이 스포츠/레져 전체 스포츠종합 축구 야구 농구/배구 골프 경마 평화마라톤 백록기 제민기 기획 전체 진행 연재 지난 연재 오피니언 전체 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 전체 문화뉴스 공연/전시 출판/문학 방송/영화 연예 Life/건강 WEEK&amp;팡 종교 책 읽어주는 남자 강혜명의 제주아리아 일과 사람들 전체 동네방네 인사 화촉 부음 WeLove 전체 진행 프로젝트 지난 프로젝트 해녀 전체 특별기획 4∙3 전체 4·3뉴스 4·3은 말한다 4·3기획 제주4·3 이제는 기록유산으로 コリアニユ-ス 핫뉴스 전체 무공침 제민포커스 와이드 진단 해설 제민현장 지역뉴스 전체 종합 제주시 서귀포시 읍면동 농사정보 WEEK&amp;팡 전체 진행연재 지난연재 News Archive 전체 신년∙창간특집호 Voice 만화/만평 오늘의 운세 기타 독자게시판 제민일보 안내 전체 알림/사고 올해의 제주인 독자위원회의/윤리교육 주요 사업 코로나19 [6·1 지방선거] 안테나 전체 제주도지사 제주도교육감 도의원(제주시) 도의원(서귀포시) 교육의원 제주시을 국회의원 보궐선거 [2022 6·1지방선거] 우리동네 현안 해결사는 [2022 6·1지방선거] 파워인터뷰 [6·1 지방선거 및 보궐선거] 후보 주요 일정 제민일보 소개 회장인사말 비전 연혁 사업 출판 찾아오시는길 PDF 보기 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도, 관광약자 위한 여행 문턱 낮춘다 &lt; 경제 &lt; 기사본문 - 제민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 로그인 회원가입 구독신청 한국어 영어 중국어 일본어 베트남어 스페인어 러시아어 경제 최종편집 2022-10-11 (화) 14:38 facebook twitter instagram youtube 기사검색 검색 제민방송 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 뉴스 정치 경제 사회/복지 교육 스포츠/레져 기획 진행 연재 지난 연재 오피니언 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 문화뉴스 공연/전시 출판/문학 방송/영화 Life/건강 WEEK&amp;팡 종교 연예 일과 사람들 동네방네 인사 화촉 부음 WeLove 진행 프로젝트 지난 프로젝트 해녀 특별기획 4∙3 4·3뉴스 4·3은 말한다 4·3기획 WEEK&amp;팡 진행연재 지난연재 コリアニユ-ス 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 본문영역 이전 기사보기 다음 기사보기 제주도, 관광약자 위한 여행 문턱 낮춘다 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 경제 제주도, 관광약자 위한 여행 문턱 낮춘다 기자명 신승은 기자 입력 2021.03.07 17:47 수정 2021.03.07 18:01 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 도내 정류장 대상 대중교통 시설개선 장애물 없는 관광사업 조성사업 추진 제주특별자치도가 버스승차대 시설을 개선하고 무장애 관광환경을 조성하는 등 관광약자의 여행 문턱을 낮춘다. 제주도는 4일 저상버스 확대 등을 위한 승차대 시설개선 실시설계용역을 추진한다고 밝혔다. 이에 따라 실시설계용역비 9560만원을 투입해 도내 대중교통시설 100곳을 대상으로 연석을 일정 높이 이하로 조정하고, 점자블럭을 설치하는 등 승차대 시설을 장애인 맞춤용으로 개선한다. 도는 향후 저상버스 노선 및 향후 저상버스 검토노선에 대해 장애인단체와 협의해 단계적으로 확충하겠다는 계획이다. 현재 도내에서 운행중인 저상버스는 128대로 전체 일반노선 운행 버스의 15%다. 그동안 저상버스 운행대수가 부족하다는 지적은 꾸준히 제기돼 왔지만 승차대 연석 높이 등 설치여건이 마련되지 않아 보급·이용에 어려움이 있었다. 도는 올해까지 저상버스 대수를 148대 보급한다는 방침이다. 노인, 장애인, 임산부 등 관광약자의 관광여건 개선 등을 위한 '2021 장애물 없는 관광환경 조성사업'도 추진한다. 이에 따라 사설관광지 관광약자 편의시설 정비지원 사업을 공고하고 오는 3월 15일부터 26일까지 제주관광협회 홈페이지에서 도내 사설관광지 및 숙박업, 음식점 등 관광사업체를 대상으로 접수를 진행한다. 장애인화장실, 계단 핸드레일, 점자블록 등 시설부분과 휠체어, 유모차 등 장비부분으로 나눠 업체당 600만원(자부담 30%) 이내를 지원한다. 이와 함께 제주관광약자접근성안내센터를 통한 도내 관광지 접근성 모니터링과 컨설팅 사업을 추진하고, 제주관광공사 비짓제주 홈페이지에서 무장애 관광지와 관광코스, 관광지별 접근성 정보 등을 제공한다. 또 청각장애인을 위한 수어해설영상 및 QR코드를 제작해 도내 주요관광지에 배포한다. 신승은 기자 신승은 기자 cococo7272@naver.com 다른기사 보기 저작권자 © 제민일보 무단전재 및 재배포 금지 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 최신뉴스 제주대병원 권역정신응급의료센터 개소 [본사내방] 2022년 10월 11일 한경농협, 취약계층 주택용 소방시설 기증 제주, 서울대 지역균형전형 비율 2.4%...전국 최하위 제주타요렌터카, 매월 국·내외 아동에 정기 후원 포토뉴스 [포토뉴스] 은색 물드는 새별오름 [포토뉴스] 오늘은 犬이 주인공 [사진뉴스] "우리의 소중한 유산 무형문화재 함께 즐겨요" [포토뉴스] 추석 분위가 나는 제주시오일장 인기뉴스 1 오늘의운세 10월11일(음력9월16일) 2 제61회 탐라문화제 9일 일부 일정 10일로 연기 3 제103회 전국체전 4일차...메달 레이스 이어가 4 [제민포럼] 테슬라와 한라산소주 5 일본시장 활짝 제주관광 기대감속 우려도 6 1600여명 발 구름에 서귀포 가을 들썩 희망 의지 불끈 7 제주시 수중·핀수영협회 소속 8명 수상구조사 '합격' 8 장 발장 이야기 하단영역 하단메뉴 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 RSS 매체정보 발행·편집인 : 양치석 청소년보호책임자 : 김태음 제주특별자치도 제주시 평화로 2700 제민일보사 등록번호 : 제주특별자치도 아01133 등록일 : 2021-09-06 대표전화 : (064) 741-3111 팩스 : (064) 741-3117 기사제보 : (064) 741-3220 광고문의 : (064) 741-3121 제민일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제민일보. All rights reserved. mail to edijemin@chol.com 위로 전체메뉴 전체기사 제민방송 전체 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 정치 전체 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 경제 전체 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 사회 전체 사회종합 사건/사고 환경 해양 노동 복지 도민기자 마당 청소년기자 마당 날씨 교육 전체 교육종합 대학가 입시정보 우리학교소식 청소년/어린이 스포츠/레져 전체 스포츠종합 축구 야구 농구/배구 골프 경마 평화마라톤 백록기 제민기 기획 전체 진행 연재 지난 연재 오피니언 전체 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 전체 문화뉴스 공연/전시 출판/문학 방송/영화 연예 Life/건강 WEEK&amp;팡 종교 책 읽어주는 남자 강혜명의 제주아리아 일과 사람들 전체 동네방네 인사 화촉 부음 WeLove 전체 진행 프로젝트 지난 프로젝트 해녀 전체 특별기획 4∙3 전체 4·3뉴스 4·3은 말한다 4·3기획 제주4·3 이제는 기록유산으로 コリアニユ-ス 핫뉴스 전체 무공침 제민포커스 와이드 진단 해설 제민현장 지역뉴스 전체 종합 제주시 서귀포시 읍면동 농사정보 WEEK&amp;팡 전체 진행연재 지난연재 News Archive 전체 신년∙창간특집호 Voice 만화/만평 오늘의 운세 기타 독자게시판 제민일보 안내 전체 알림/사고 올해의 제주인 독자위원회의/윤리교육 주요 사업 코로나19 [6·1 지방선거] 안테나 전체 제주도지사 제주도교육감 도의원(제주시) 도의원(서귀포시) 교육의원 제주시을 국회의원 보궐선거 [2022 6·1지방선거] 우리동네 현안 해결사는 [2022 6·1지방선거] 파워인터뷰 [6·1 지방선거 및 보궐선거] 후보 주요 일정 제민일보 소개 회장인사말 비전 연혁 사업 출판 찾아오시는길 PDF 보기 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도 블록체인 기반 관광방역 시스템 ‘제주안심코드’ 이용자 34만명 돌파 &lt; 플랫폼/웹툰 &lt; IT &lt; 기사본문 - G밸리 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 기사제보 회원가입 로그인 전체메뉴 버튼 ESG ESG CSR 공익재단 경제 경제일반 금융 은행/증권 보험/화재 산업 산업일반 공기업 전자/통신 자동차/철도/항공 화학/중공업 건설/부동산 식품/제조 유통/물류 패션/뷰티 IT IT일반 게임/빅데이터 플랫폼/웹툰 스타트업 사회 사회일반 제약/바이오/병원 인터뷰 G밸리 문화 문화일반 여행/숙박 출판/교육 생활 인사/동정/부음 오피니언 포토/영상 포토/영상 보도자료 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도 블록체인 기반 관광방역 시스템 ‘제주안심코드’ 이용자 34만명 돌파 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 제주도 블록체인 기반 관광방역 시스템 ‘제주안심코드’ 이용자 34만명 돌파 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 바로가기 본문 글씨 키우기 본문 글씨 줄이기 한미진 기자 gvalley@gvalley.co.kr 다른기사 보기 플랫폼/웹툰 기자명 한미진 기자 입력 2021.03.09 17:21 댓글 0 국내 블록체인 기업 아이콘루프(ICONLOOP, 대표 김종협)는 제주특별자치도에서 서비스하고 있는 블록체인 기반 제주형 관광방역 시스템 ‘제주안심코드’가 가동 2개월여 만에 설치 업장 4만여 곳, 이용자 수 34만명을 돌파했다고 9일 밝혔다. 제주안심코드는 아이콘루프와 제주도가 민관 협력 협약으로 함께 개발한 시스템이다. 외부 방문객이 많고, 인구가 밀집되는 장소의 방문율이 높은 제주도 특성상 발생할 수 있는 방역 공백, 동선 추적의 어려움 등에 대비해 관광지에 최적화한 지속 가능형 관광방역 시스템 구축을 목표로 추진됐다. 아이콘루프와 제주도는 2020년 8월 공공기관 및 제주도청 인근 업장을 중심으로 시범 운영을 진행한 뒤 연말부터 본격적인 운영에 나섰다. 정식 가동 이후 2개월이 갓 지난 현재 4만곳 이상의 도내 업장이 제주안심코드를 이용하고 있으며, 이용자 수는 34만 명을 넘었다. 전체 사용 횟수도 200만회에 달한다. 특히 일반 음식점, 카페 등 고위험시설로 분류되진 않지만, 많은 방문객이 오가는 업장 내 사용률이 높아 도내 생활 방역 체계를 강화하는 데 큰 몫을 하는 것으로 평가되고 있다. 아이콘루프는 제주안심코드가 이른 시간 안에 빠르게 확산할 수 있었던 이유로 편리한 사용법과 도민, 관광객의 관심 및 참여를 꼽았다. 기존 출입 인증 방식은 이용자 휴대전화에서 QR 코드를 생성하는 식이었다. 하지만 제주안심코드는 업장에 있는 QR 코드를 휴대전화로 촬영하면 출입 인증이 끝난다. 제주안심코드 앱의 경우도 따로 회원 가입 없이 이용할 수 있으며, 업장주도 따로 단말기나 앱 설치 없이 프린트한 QR 코드만 놓으면 이용할 수 있어 편리하면서 부담이 적다. 블록체인 기술을 활용해 방문자 정보의 위변조가 불가능하다는 것도 제주안심코드의 강점이다. 제주안심코드 이용 시 개인의 신원 및 방문 기록은 암호화 뒤 분산 저장되며, 출입 인증 정보는 확진자 역학조사 목적으로만 쓰인다. 아이콘루프는 기능 업데이트를 통해 제주안심코드를 꾸준히 고도화하고 있다. 현재 제주안심코드 앱에서는 이용자 본인의 인증 이력을 직접 확인할 수 있으며, GPS 기능이 탑재돼 더 명확하게 동선 위변조를 방지할 수 있다. 아이콘루프는 앞으로도 이용자 편의 향상을 위한 다양한 기능 업데이트로 생활 속 방역 체계를 더 견고히 할 수 있도록 지원할 계획이다. 김종협 아이콘루프 대표는 “아이콘루프의 블록체인 기술을 적용한 제주안심코드가 많은 관광객, 제주도민에게 쉽고 간편하게 이용할 수 있는 서비스로 자리 잡아 가는 듯해 뿌듯하다”며 “여기서 그치지 않고 제주도민, 관광객 모두 안심하는 관광방역, 생활 방역 체계가 구축될 수 있게 시스템 고도화에 최선을 다할 것”이라 말했다. 제주안심코드 사업장 등록은 제주도청 홈페이지의 코로나19 상황실에서 할 수 있다. 제주안심코드 설치 시설을 찾는 이용자는 구글 플레이스토어(안드로이드) 또는 애플 앱스토어(iOS)에서 ‘제주안심코드’를 검색한 후 앱을 설치하면 이용할 수 있다. 한편 아이콘루프의 DID 신원인증 서비스 ‘쯩’ 앱으로도 제주안심코드를 이용할 수 있다. 쯩 앱 내 카메라로 업장에 있는 QR 코드를 촬영하면 이용자의 휴대전화 단말기에 DID 기반 제주안심코드가 저장돼, 업장 방문 시 개인 정보 노출 없이 출입 인증이 가능하다. 쯩은 구글 플레이스토어, 애플 앱스토어에서 검색해 설치하면 된다. 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 저작권자 © G밸리 무단전재 및 재배포 금지 개의 댓글 회원로그인 작성자 비밀번호 댓글 내용입력 0 / 400 등록 댓글 정렬 최신순 추천순 답글순 BEST댓글 BEST 댓글 답글과 추천수를 합산하여 자동으로 노출됩니다. 닫기 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 인기기사 1 뇌영양제 브랜드 종합선호도 1위 ‘광동패스신공’… GNM포스파티딜세린, 징코플러스150 順 2 [김가람 기자의 스타트업 브런치] 투자 유치는 어떻게 진행될까? 3 [지속가능경영보고서 분석 현대차①] 수소전기차 분야 선도 탄소중립 박차… 글로벌 녹색 경제 이끌어 4 [지속가능경영보고서 분석 카카오③] ‘같이’ 성장해 사회적 ‘가치’ 창출 추진 5 GNM포스파티딜세린, 뇌영양제 브랜드 순호감도 ‘톱’… 뇌영양제 아동‧청소년도 관심↑ 6 [지속가능경영보고서 분석 삼성SDI①] 배터리 탄소발자국 측정 등 ‘선제적 기후행동’ 실시 7 외식업계 ‘1인 메뉴’ 전성시대… “혼밥족을 잡아라” 8 [김가람 기자의 스타트업 브런치] “투자유치는 처음인데요” 9 맥스퀘어, 자사 독점 수입 세정제 ‘Am Get Clean’ 환경부 인증 통과 10 금양인터내셔날, GS25 편의점 단독 ‘1865 골프공 패키지’ 출시 문화 [윤선미 기자의 G금 트렌디] 패션 업계, 지속가능성에 주목... '컨셔스 패션' 열풍 [윤선미 기자의 G금 트렌디] 내일 뭐 입지? 재택 근무 일상화 속 '편안한 출근룩' 인기 [윤선미 기자의 G금 트렌디] 옷은 사야 제 맛? 패션도 구독경제 시대... "빌려쓰고, 다시쓰고, 고쳐쓴다" 에듀윌, 주택관리사 최신 수험정보 반영한 ‘합격필독서’ 무료 배포 프로모션 운영 에듀윌 취업, 삼성 GSAT 모의고사 무료 배포...채용 필기 시험 합격 지원 생활 [동정] 고려대학교 안암병원 김태훈 교수, 대한비과학회 학술상 영예 [동정] 경희대학교병원 박창규 교수, 효산 학술상 수상 [동정] 경희대병원 정형외과 정덕환 교수, 한국인 최초 'ASSH' 종신회원 선정 [동정] 고려대안산병원 응급의학과 송주현 교수, 경기도지사 표창장 수상 서울성모병원 간담췌외과 유영경 교수, 대한간이식연구학회 회장 선출 하단영역 Copyright © 2022 G밸리. All rights reserved. facebook 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 서울특별시 금천구 가산디지털1로 205-27 가산A타워 917호 대표전화 : 070-4334-5543 팩스 : 02-853-8187 청소년보호책임자 : 최지현 법인명 : G밸리 제호 : G밸리 등록번호 : 경기 아 51429 등록일 : 2010-04-01 발행일 : 2017-10-12 발행·편집인 : 최지현 G밸리 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. 위로 전체메뉴 전체기사 ESG 전체 ESG CSR 공익재단 경제 전체 경제일반 금융 은행/증권 보험/화재 산업 전체 산업일반 공기업 전자/통신 자동차/철도/항공 화학/중공업 건설/부동산 식품/제조 유통/물류 패션/뷰티 IT 전체 IT일반 게임/빅데이터 플랫폼/웹툰 스타트업/벤처 스타트업 사회 전체 사회일반 제약/바이오/병원 인터뷰 G밸리 문화 전체 문화일반 여행/숙박 출판/교육 생활 전체 인사/동정/부음 오피니언 포토/영상 전체 포토/영상 보도자료 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도, ‘장애물 없는 관광환경 조성’ 추진 &lt; 제주 &lt; 지역네트워크 &lt; 기사본문 - 웰페어뉴스 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 2022-10-11 09:20 (화) 기사검색 검색 전체메뉴 버튼 전체 뉴스 사회복지in 장애계 노인 여성·어린이 사회 오피니언 문화·스포츠 보도자료 복지TV 지역네트워크 서울 경기 인천 강원 충청 전라 경상 제주 복지관 소식 장애인신문 회사소개 지면보기 구독신청 처음으로 로그인 회원가입 전체기사 모바일웹 본문영역 이전 기사보기 다음 기사보기 제주도, ‘장애물 없는 관광환경 조성’ 추진 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 지역네트워크 제주 제주도, ‘장애물 없는 관광환경 조성’ 추진 기자명 박성용 기자 입력 2021.03.09 18:33 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 사설관광지, 관광사업체 대상 관광약자 편의시설·장비 지원 제주특별자치도는 지난 7일 장애인, 노인, 영유아 등 관광약자를 위한 관광여건을 개선하기 위해 ‘2021 장애물 없는 관광환경 조성사업’을 추진한다고 밝혔다. 우선, 2021년 사설관광지 관광약자 편의시설 정비지원 사업에 대해 공고를 진행한다. 오는 15일~26일까지 제주관광협회 누리집을 통해 접수를 진행할 계획이며, 도내 사설관광지와 숙박업, 음식업 등 관광사업체를 대상으로 업체당 600만 원(자부담 30%) 이내로 지원한다. 지원사항은 ▲장애인화장실 ▲계단 핸드레일 ▲점자블록 ▲수유시설 ▲휠체어 ▲유모차 ▲자동심장충격기 등이다. 또한 관광약자 접근성 안내센터 운영, 무장애관광 브랜드 ‘같이가치 제주여행’ 활성화, 수어해설영상 제작·배포 사업도 추진할 계획이다. 제주 관광약자 접근성 안내센터를 통해 이지제주(제주관광약자접근성안내센터) 누리집, SNS, 앱 운영으로 관광약자를 위한 정보를 제공하고, 도내 관광지에 대한 접근성 모니터링 사업과 접근성 컨설팅 등의 사업을 추진한다. 지난해부터 추진 중인 무장애관광 브랜드 ‘같이가치 제주여행’ 활성화를 위해 제주관광공사 비짓제주 누리집을 통해 무장애 관광지 선정, 관광코스 발굴, 관광지별 접근성 정보 제공 등의 사업을 추진할 방침이다. 이밖에도 올해 신규사업으로 청각장애인을 위해 도내 주요 관광지에 대한 수어해설영상 제작, QR코드 등을 배포할 예정이다. 제주특별자치도 김재웅 관광국장은 “앞으로도 차별 없는 관광환경 조성을 위해 다양한 사업을 마련할 것.”이라며 “관광약자와 도민의 의견을 적극 수렴하는 등 선도적으로 복지관광 활성화에 앞장서겠다.”고 밝혔다. 한편, 제주도는 접근 가능한 관광 콘텐츠 제작·홍보, 안내책자 발간 등 정보제공 사업과 휠체어 무료대여 사업을 지속적으로 추진하고 있다. 지난해까지 26억5,000만 원을 투입해 관광약자 전용 리프트차량 제작지원 사업을 진행, 전세버스 12대와 렌터카 5대를 제작·지원했다. [장애인신문·웰페어뉴스 박성용 기자] 박성용 기자 openwelcom@naver.com 다른기사 보기 저작권자 © 웰페어뉴스 무단전재 및 재배포 금지 당신만 안 본 뉴스 곰두리복지재단, 지역살리기운동본부와 ‘복지기금 기증식’ 가져 청각장애인 인공와우 배터리, 항공기 반입 제한 ‘개선 요구’ 한글 점자의 날 기념 ‘디지털 기기 점자디자인·영상’ 공모 제30회 세계장애인의날 기념 ‘전국장애인합창대회’ 개최 장애인고용공단 대구, 발달장애인 직업 연주자 산학 연계훈련 수료 국방부, 한국장애인고용공단과 ‘장애인 고용 증진’ 협력 ‘스페셜올림픽코리아 K리그 통합축구’ 2차 리그, 제천에서 킥오프 곰두리복지재단, 지역살리기운동본부와 ‘복지기금 기증식’ 가져 라이브리 댓글 작성을 위해 JavaScript를 활성화 해주세요 주요기사 발달장애 거점병원 찾아 삼만리… 9개 광역지자체에는 없어 발달장애인 가족 10명 중 6명 극단적 선택 고민 정신장애인 10만 명, 재활시설은 346개 뿐 관악구, ‘더불어 행복한 소망배달부’ 경기도, 다문화가정 대상 의료코디네이터 양성 교육 장애예술인융합창작활동축제 ‘에이블아트 in 서울’ 열린다 최신뉴스 발달장애 거점병원 찾아 삼만리… 9개 광역지자체에는 없어 발달장애인 가족 10명 중 6명 극단적 선택 고민 정신장애인 10만 명, 재활시설은 346개 뿐 관악구, ‘더불어 행복한 소망배달부’ 경기도, 다문화가정 대상 의료코디네이터 양성 교육 포토뉴스 정신장애인 10만 명, 재활시설은 346개 뿐 경기도, 다문화가정 대상 의료코디네이터 양성 교육 장애예술인융합창작활동축제 ‘에이블아트 in 서울’ 열린다 장애인스포츠강좌이용권 사업발전 간담회 개최 인기뉴스 1 곰두리복지재단, 지역살리기운동본부와 ‘복지기금 기증식’ 가져 2 청각장애인 인공와우 배터리, 항공기 반입 제한 ‘개선 요구’ 3 한글 점자의 날 기념 ‘디지털 기기 점자디자인·영상’ 공모 4 제30회 세계장애인의날 기념 ‘전국장애인합창대회’ 개최 5 장애인고용공단 대구, 발달장애인 직업 연주자 산학 연계훈련 수료 6 국방부, 한국장애인고용공단과 ‘장애인 고용 증진’ 협력 7 ‘스페셜올림픽코리아 K리그 통합축구’ 2차 리그, 제천에서 킥오프 8 야간혈액투석 병원, 4년 새 100여 곳 줄었다 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 서울특별시 영등포구 영신로 220 KnK디지털타워 409호 대표전화 : 02-2632-8999 팩스 : 02-2632-9355 청소년보호책임자 : 정두리 법인명 : 곰두리복지재단 제호 : 웰페어뉴스 등록번호 : 서울 아 03127 등록일 : 2014-04-28 발행일 : 2014-04-28 발행인 : 최규옥 편집인 : 최지희 웰페어뉴스 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 웰페어뉴스. All rights reserved. mail to openwelcom@naver.com 위로 전체메뉴 전체기사 장애인 전체 정책·정치 인권·사회 노동·자립생활 교육 문화·체육 노인 아동·여성 사회복지in 복지관n 의료·건강 오피니언 전체 칼럼 기고 취재수첩 인터뷰 대중문화·스포츠 성명·논평 지역네트워크 전체 서울 경기 인천 강원 충청 전라 경상 제주 청소년 기자단 연재 전체 나 자립했다 함께하는 여행 사회복지 불법 '고발합니다' 김재중의 소통 한 컷 나와 너의 도전, 챌린지2 굼벵이의 휠체어 배낭여행 문턱없는 여행지 카드뉴스 그곳에 사람이 있다 복지TV 전체 복지TV뉴스 만만한 뉴스 소셜워커ON 나눔과 배려의 현장 휴먼다큐 희망인 이슈원샷 복지를 말하다 복지TV PiCK 박마루의 뉴 공감세상 나도 말 좀 합시다 복지TV NOW 사회 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도, 민.관 합동 관광사업체 방역현장 상시점검 실시 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 14:46 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도, 민.관 합동 관광사업체 방역현장 상시점검 실시 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 관광 제주도, 민.관 합동 관광사업체 방역현장 상시점검 실시 홍창빈 기자 headlinejeju@headlinejeju.co.kr 승인 2021.03.07 09:00 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 제주특별자치도는 제주형 사회적 거리두기 완화 연장 시행으로 인해 자칫 느슨해지기 쉬운 도내 관광사업체 방역현장에 대한 지속 관리를 위해 민·관 합동의 상시 점검체계를 구축해 추진하고 있다고 7일 밝혔다. 이는 제주가 지난달 15일 제주형 사회적 거리두기 1.5단계로 완화되면서 3월 중 제주를 찾는 여행객들이 급격하게 증가할 수 있다는 우려가 제기됨에 따른 것이다. 제주도는 행정시와 관광협회 및 공사 등 민·관 합동의 요일별 기관담당 점검반을 구축하고, 보다 정밀하고 지속적인 현장점검으로 코로나19 감염 재확산 방지뿐만 아니라, 관광수용 태세를 재정비할 계획이다. 관광사업체에 대해는 손소독제 등 방역물품을 지속적으로 제공해 나가고 있으며, 특히 올해부터는 사업체별 자율방역체계 구축 지원을 위한 방역비 지원사업을 추진하고 있다. 제주도는 방역 상시점검 시 코로나로 인해 어려움을 겪고 있는 관광업체의 현장의 소리를 직접 청취해 애로사항에 대해 유관기관과 협업을 통해 적극 해결해 나갈 예정이다. 지난 2월 방역현장에서 청취했던 관광호텔 내 연회장 사용 인원제한(200명 미만)에 대한 업체 건의를 적극 수렴해 이번 연장 시에는 500명 미만으로 완화되는 등 상시 현장점검을 통해 코로나19 속에서도 어려운 제주경제 회복에 안간힘을 다하는 사업체들의 소통 역할을 해나가고 있다. 한편 제주도는 관광사업체의 경제적 어려움을 지원하기 위해 올해 지원 사업으로 156억 원을 편성, 지난 1월 25일부터 3월 15일까지 관광진흥기금 특별융자지원을 신청받고 있다, 안전 관광제주 구축을 통한 관광산업 조기 회생을 위해 △도내 관광사업체에 대한 방역비 지원 △온라인 마켓‘탐나오’ 관광상품 판매 확대 △건전 관광질서 수용태세 확립을 위한 키오스크, 모바일 도어락 시스템 등을 운영한다. 이어 패턴별 여행 상품 개발에 따른 상품개발비와 차량 임차료를 지원하고, 도내 여행사업체 등에 보증보험 지원 등 34억 원을 상반기에 집중 투입해 지원할 예정이다. 김재웅 제주도 관광국장은 “코로나 사태로 전국 지자체 중 가장 직격탄을 맞고 있는 제주의 관광산업의 어려움을 헤아리고, 이에 대한 다양하고 실속 있는 현장의 소리를 공유함으로서 행정과 관광사업체가 하나가 돼 제주관광산업의 조기회복을 위해 적극 대응해 나가겠다”고 말했다.&lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 홍창빈 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 제주 병설유치원 매운급식 논란..."아이들이 밥을 못 먹어" 제주, 택배 추가배송비 부당 요구사례 접수 창구 운영 제주, 전국에서 가장 비싼 기름값 문제 대응 시장조사 나선다 제주도 실업급여 수급자↓...고용상황 회복세 전환 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 3 서귀포시, 2022년 교통유발부담금 21억원 부과 4 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 5 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 6 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 7 세상을 웃게 만드는 친절 8 제주시, 하반기 사무관 승진의결자 6명 승진 임용 9 서귀포시, 사무관 승진의결자 8명 승진임용 10 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 1 안녕하세요 2 네 3 네 4 지난 회차 이후 오랜만에 글 올려주셔서 너무 반가운 마음에 푹 빠져들어 읽었습니다. 오늘도 공감가는 좋은 글 올려주셔서 감사합니다. 따뜻한 마음의 양식 얻어갑니다. 저만 알고싶은 글 맛집이네요.^^. 5 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 6 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 7 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 8 지역발전의 초석이 되었으면 한다 9 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 10 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>제주도, 2021년 관광진흥기금 특별융자지원 접수기간 연장 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 14:46 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도, 2021년 관광진흥기금 특별융자지원 접수기간 연장 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 관광 제주도, 2021년 관광진흥기금 특별융자지원 접수기간 연장 홍창빈 기자 headlinejeju@headlinejeju.co.kr 승인 2021.03.02 13:21 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 제주특별자치도는 코로나19로 직격탄을 맞은 관광사업체의 경영위기 극복 등 어려움을 지원하기 위해 제주관광진흥기금 특별융자 신청기간을 오는 12일까지로 연장 접수한다고 밝혔다. 당초 제주도는 지난 2월26일까지 총 2000억 규모 특별융자 제공할 계획으로 접수를 진행했다. 그 결과 289개 사업체 600억 원 융자가 접수됐는데, 유관기관·단체 간단회에서 건의된 사항을 반영하는 차원에서 신청 기간 내 신청하지 못한 관광사업체에게 혜택이 돌아갈 수 있도록 신청기간을 연장하기로 했다. 올해 제주관광진흥기금 융자규모는 총 2000억원으로 여행업계, 관광숙박업 등의 경영난 해소를 위한 경영안정자금 1800억을, 시설 개·보수 자금에 200억을 배정했다. 지원은 융자추천액 대출 실행에 따른 이자차액을 보전해 주는 방식으로 이뤄진다. 대출 금리는 분기별로 기획재정부에서 공지하는 ‘공공자금관리기금 융자사업 변동금리’에서 0.75% 우대하는 분기별 변동 금리가 적용돼 0.51%다. 2021년 1분기 기준으로 개인 등 중소기업은 0.51%를, 대기업은 1.26%의 금리가 적용될 예정이다. 융자 기간은 2년 거치 3년 균등 상환 조건이다. 제주관광진흥기금 신청은 3월 12일까지 제주웰컴센터 내 기 설치된 관광진흥기금 특별지원센터(740-6095~6097)에서 접수받고 있다. 김재웅 제주도 관광국장은 "코로나 19로 어려움에 처한 관광사업체 버팀목 자금 지원과 융자지원 등 을 통해 관광산업이 조기 회복 될 수 있도록 노력할  계획"이라며 "아직까지 융자 신청하지 못한 관광사업체에서는 신청기간내 신청해 줄 것을 당부했다"고 밝혔다.&lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 홍창빈 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 제주 병설유치원 매운급식 논란..."아이들이 밥을 못 먹어" 제주, 택배 추가배송비 부당 요구사례 접수 창구 운영 제주, 전국에서 가장 비싼 기름값 문제 대응 시장조사 나선다 제주도 실업급여 수급자↓...고용상황 회복세 전환 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 3 서귀포시, 2022년 교통유발부담금 21억원 부과 4 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 5 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 6 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 7 세상을 웃게 만드는 친절 8 제주시, 하반기 사무관 승진의결자 6명 승진 임용 9 서귀포시, 사무관 승진의결자 8명 승진임용 10 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 1 안녕하세요 2 네 3 네 4 지난 회차 이후 오랜만에 글 올려주셔서 너무 반가운 마음에 푹 빠져들어 읽었습니다. 오늘도 공감가는 좋은 글 올려주셔서 감사합니다. 따뜻한 마음의 양식 얻어갑니다. 저만 알고싶은 글 맛집이네요.^^. 5 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 6 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 7 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 8 지역발전의 초석이 되었으면 한다 9 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 10 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>제주도, 2021년 상반기 제주관광진흥기금 특별융자 신청기간 연장 주메뉴 바로가기 본문 바로가기 2022.10.11 (화) 카카오채널 RSS 모바일보기 맑음서울 15.0℃ 구름조금제주 19.7℃ 구름많음고산 16.7℃ 구름조금성산 17.9℃ 구름많음서귀포 19.7℃ 기상청 제공 기사제보 기사문의 회원가입 로그인 Korean English 中文 日本語 tiếng Việt Idioma español ру́сский язы́к 메뉴 전체기사 정치 경제 사회 교육 복지 라이프 문화·행사 오피니언 기고 만평 기사검색 검색어를 입력해주세요 검색하기 검색창 열기 닫기 전체기사 정치 경제 사회 교육 복지 라이프 문화·행사 오피니언 기고 만평 사회 홈 사회 제주도, 2021년 상반기 제주관광진흥기금 특별융자 신청기간 연장 임의순 기자 jejutwn@daum.net 등록 2021.03.02 11:38:16 URL복사 목록 메일 프린트 스크랩 글씨크기 크게 글씨크기 작게 페이스북 트위터 카카오톡 카카오스토리 네이버블로그 제주도는 코로나19로 직격탄을 맞은 관광사업체의 경영위기 극복 등 어려움을 지원하기 위해 지난달 26일까지 신청기간인 제주관광진흥기금 특별융자 신청기간을 오늘 3월 12일까지 연장 접수한다고 밝혔다.당초 2월말까지 총 2000억 규모 특별융자 제공할 계획으로 접수한 결과 289개 사업체 600억 원 융자를 신청했으며, 유관기관·단체 간단회시 건의한 사항을 수렴하는 차원에서 신청 기간 내 신청하지 못한 관광사업체에게 혜택이 돌아갈 수 있도록 신청기간을 3월 12일까지 연장하기로 했다.올해 제주관광진흥기금 융자규모는 총 2000억원으로 여행업계, 관광숙박업 등의 경영난 해소를 위한 경영안정자금 1,800억을, 시설 개·보수 자금에 200억을 배정했다.지원은 융자추천액 대출 실행에 따른 이자차액을 보전해 주는 방식으로 이뤄진다.대출 금리는 분기별로 기획재정부에서 공지하는 ‘공공자금관리기금 융자사업 변동금리’에서 0.75% 우대하는 분기별 변동 금리가 적용돼 0.51%다.2021년 1분기 기준으로 개인 등 중소기업은 0.51%를, 대기업은 1.26%의 금리가 적용될 예정이다.융자 기간은 2년 거치 3년 균등 상환 조건이다.제주관광진흥기금 신청은 3월 12일까지 제주웰컴센터 내 기 설치된 관광진흥기금 특별지원센터(T.740-6095~6097)에서 접수받고 있다.김재웅 도 관광국장은 “코로나 19로 어려움에 처한 관광사업체 버팀목 자금 지원과 융자지원 등 을 통하여 관광산업이 조기 회복 될 수 있도록 노력할 계획이며, 아직까지 융자 신청하지 못한 관광사업체에서는 신청기간내 신청해 줄 것을 당부했다”고 밝혔다.제주교통복지신문, JEJUTWN 임의순 기자 의 전체기사 보기 페이스북 트위터 카카오톡 카카오스토리 네이버블로그 네이버카페 밴드 Copyright @2015 제주교통복지신문 Corp. All rights reserved. 랭킹뉴스 1 연예인 입주로 화제…‘한일 베라체 인비디아’ 눈길 2 제주음협, 오는 22일 '창착오페라 「홍윤애」 하이라이트' 선보인다 3 서귀포시, 동절기 코로나19 추가접종 10월 11일부터 참여 가능 4 제주특별자치도, 11일부터 코로나19 2가백신 동절기 추가접종 시작 5 서귀포시, 2023년 FTA기금 감귤생산시설 현대화사업 신청·접수 6 서귀포시 동부보건소, 가을철 농작업 및 야외활동 시 진드기 조심하세요! 7 제주시, 6.25 참전유공자 유족 무성화랑 무공훈장 수여 8 제주시, 오는 11월 24일부터 '일회용' 종이컵·빨대 등 제공 및 사용 금지한다 9 한국미술협회 서귀포지부, 2022 회원 정기전 진행 10 제주시 한경도서관, '냅킨 아트 소품 클래스' 프로그램 참여자 선착순 모집 실시간 뉴스 2022-10-11_TUE 서귀포시, 사무관 승진의결자 8명 승진임용 11:33 서귀포시, 문화재 관련 공직자 역량 강화 교육 실시 11:32 서귀포시 성산읍, 가로등에 디자인을 입혀 불법광고물을 뿌리 뽑는다 11:31 서귀포시, 다양한 국가의 진로 탐색으로 청소년의 꿈의 시야를 넓히다. 11:30 서귀포시, 2022년 하반기 주민등록 사실조사 실시 11:26 신문사소개 윤리강령 찾아오시는 길 개인정보처리방침 청소년보호정책 (책임자 : 이청) 이메일 무단수집거부 기사제보 문의하기 제주특별자치도 제주시 신대로7길 20, 301호 (연동, 새롬빌라) | 대표전화 : 010-8675-4517 발행인 : 이문호 | 편집인 : 이청 | 등록번호 : 제주, 아01068 | 등록일 : 2016.10.11 | 이메일 : news@jejutwn.com 제주교통복지신문의 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2021 제주교통복지신문. All rights reserved. 최종편집일: 2022년 10월 11일 14시 51분 최상단으로</t>
+  </si>
+  <si>
+    <t>제주도관광협회 '부동석 2기' 시동 - 뉴제주일보 × 전체기사 정치/행정 전체 제주도정 청와대 도의회 국회 선거 후보자 정부 도내정가 재·보궐 선거 북한 社告 중앙정가 국정감사 조합장선거 제주시 갑 제주시 을 서귀포시 경제 전체 경제일반 금융 창립기념일 손해사정사 이명헌의보험이야기 사회 전체 사회일반 법원검찰 경찰 기상 사건·사고 사회단체 의료 횡단로 교육/과학 전체 대학 교육청 일반 과학 어린이판 지역 전체 제주시 서귀포시 문화 전체 일반 공연 영화/연예 전시 홈닥터 해연풍 사진으로 본 제주 시와 그림으로 보는 제주어 스포츠 전체 일반 백호기 야구 축구 육상 농구 배구 골프 동계스포츠 태권도 배드민턴 우슈 수영 탁구 체조 레슬링 유도 정구 양궁 격투기 검도 바둑 경마 댄스 올림픽 사람과 사람 전체 동정 프로필 인터뷰 오피니언 전체 사설 부영주 칼럼 "아침" 홍성배 칼럼 제주포럼 기자수첩 기자석 김미영의 뷰티톡 김태윤 박사의 환경, 그리고 인생 이야기 김호성의 정치·행정 이야기 정영민 변호사의 법 이야기 김원현의 아동성장 이야기 제주칼럼 제주시론 제주광장 정흥남 칼럼 강은숙의 가정법률이야기 김종배의 세상털기 배진섭의 공연 이야기 한동명 변호사의 법률 Q&amp;A 제주만평 열린페이지 전체 제주기고 결혼 부음 알림 인사 보도자료 제주 4·3 전체 4.3길을걷다 국제 진행중인 기획 전체 제주어바웃 食(식) 기행 문희주의 제주오롬 스토리 이세끼 주제주일본국총영사가 만난 제주 문화예술산책 송재웅의 책 이야기 김창집의 길이야기 임안순의 농농농 제주&amp;제주인 메이드인 제주 JDC와 함께하는 제주야 시민기자가 뛴다! 창간특집 신년특집 새해설계 기획총괄 특별기획 제주 커피로드 서재철의 섬기행, 섬을 걷다 셰프 인 제주 아이♥제주 제주 농업, 청년이 미래다 종료된 기획 전체 제주미래성장동력,자연에서 찾는다 jdc의 여정과미래 代를 잇는 제주기업 2017 생명을 지키는 약속 내일을 JOB자! 특성화GO! 희망! 나래를 펴다 新제주인 공감愛공간 탐라에서 세계로 제주&amp;제주인 더불어 제주 생존수영 경제매거진 IN제주 메이드인제주ll-향토기업 총선 열전현장 총선 일반 4.13 총선 여론조사 제20대 4.13총선후보에게듣는다 총선브리핑 2017 대권주자에게듣는다 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 유권자가 주인이다 민심탐방 포토에세이 제주의 독립운동가를 찾아서 제주경제, 위기를 기회로 제주인 life 국제전기자동차 엑스포 나눔ㆍ봉사ㆍ행복 삶다도 실력이 인정받는 제주 시네톡 제주한의약, 그 역사속으로 김창집의 올레이야기 2016 우리는 제주 인포그래픽 제주의 마을속으로 자연의 역습 기후변화 나눔이 희망 입니다 4·3 길을 걷다 희망을 나누는 사람들 특성화고 날개를 달다 10대, 나도 저자다! 위클리 커버 제주동네책방 탐방 사서가 추천하는 이달의 도서 시민 문화기획자를 만나다 서재철의 오지기행 화촉 라이프 전체 레저 건강 출판/문학 부고 동영상 인사 방송동영상 현안 진단 뉴스 전체 방송/연예 6·13 지방선거 LIFE in BIZ 전체 일반 최종편집일. 2022-10-11 14:55 (화) 로그인 회원가입 모바일웹 정치 경제 사회 교육/과학 지역 문화 스포츠 기획 오피니언 화촉 부음 기사검색 검색 제주해경, 겨울철 어선 화재 예방 나선다 제주해경, 겨울철 어선 화재 예방 나선다 제주지방해양경찰청(청장 김인창)은 겨울철 어선 화재 예방 홍보 캠페인과 관계기관 합동 점검에 나선다고 11일 밝혔다.제주해경에 따르면 2019년부터 지난해까지 도내에서 발생한 선박... 제주경찰, 찾아가는 가해자 교화 프로그램 운영 제주경찰, 찾아가는 가해자 교화 프로그램 운영 제주경찰청(청장 이상률)은 11일부터 '찾아가는 가해자 교화 프로그램'을 운영한다.찾아가는 가해자 교화 프로그램은 경찰서 유치장에 유치된 '고위험군 여성폭력 ... SNS P  D  F 지면보기 이전 다음 제주도관광협회 '부동석 2기' 시동 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 경제 경제일반 제주도관광협회 '부동석 2기' 시동 현대성 기자 승인 2021.03.11 16:54 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 부동석 제주특별자치도관광협회장이 이달부터 두 번째 임기를 시작한 가운데, 업종별 분과위원장 18명 중 11명이 교체되면서 ‘혁신’에 시동이 걸렸다. 제주도관광협회는 11일 2차 이사회를 열고 업종별 분과위원장단을 선출했다고 이날 밝혔다. 협회는 이날 이사회를 통해 부회장단 8명을 포함한 임원 46명을 임명하고 자문위원단 및 인사위원회와 재정위원회를 구성해 조직을 재정비했다. 특히 업종별 분과위원장은 18명 중 11명이 대거 교체돼 협회 운영의 혁신을 예고했다. 협회는 또 이날 이사회를 통해 오는 6월 계약 기간이 만료되는 상근이사의 계약 기간을 연장하기도 했다. 한편 부동석 제주도관광협회장은 지난달 19일 2021년도 대의원총회 결과 만장일치로 제36대 회장에 당선되면서 연임에 성공했다. 부 회장의 임기는 2024년까지다. 현대성 기자  cannon@jejuilbo.net 저작권자 © 뉴제주일보 무단전재 및 재배포 금지 현대성 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 제8회 전국동시지방선거 (예비)후보자 및 그의 배우자, 직계존·비속이나 형제자매에 관하여 허위의 사실을 유포하거나, 이들을 비방하는 경우 「공직선거법」에 위반됩니다.대한민국의 깨끗한 선거문화 실현에 동참하여 주시기 바랍니다. - 중앙선거관리위원회- 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 인기기사 1파란하늘 2제주선수단, 전국체육대회 메달 목표 달성 3제주 남서부 지역 올 가을 최저기온…당분간 쌀쌀한 날씨 4제주 들개 계속 잡아도 가축 피해 증가세 5오토바이 단독 교통사고로 40대 중상 6‘60돌’ 탐라문화제 대장정 마무리…‘제주인 화합 대축제’ 입증 7외국인 렌터카 과태료 ‘먹튀’, 차단 왜 머뭇거리나 8조선시대 노블레스 오블리주 ‘거상 김만덕’ 나눔행렬 잇따라 9"척박한 제주에서 돕지 않으면 생존 불가능…힘들 때일수록 도와야" 10제주지검 스토킹범 구속률 33.3% 전국 세번째 높아 신문사소개 고충처리인 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 서사로 25 3-5층(삼도이동, 수정빌딩) 대표전화 : 064-757-3114 광고·구독 : 064-757-5000 편집국 FAX : 064-756-7114 영업본부 : 064-702-7114 법인명(단체명) : 주식회사 제주일보방송 등록번호 : 제주 아01134 등록일 : 2021-09-07 대표자 : 김대형 발행인 : 김대형 주필 : 부영주 편집인 : 부영주 편집국장 : 부남철 뉴제주일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. 청소년보호책임자 : 김대형 Copyright © 2022 뉴제주일보. All rights reserved. mail to webmaster@jejuilbo.net 위로</t>
   </si>
 </sst>
 </file>
@@ -437,7 +539,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -459,7 +561,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -470,7 +572,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -481,7 +583,7 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -492,7 +594,7 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -503,7 +605,7 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -514,7 +616,7 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -525,7 +627,7 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -536,7 +638,7 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -547,7 +649,7 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -558,7 +660,227 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
         <v>21</v>
+      </c>
+      <c r="C21" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>27</v>
+      </c>
+      <c r="C30" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
